--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>CCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2282600</v>
+        <v>2260000</v>
       </c>
       <c r="E8" s="3">
-        <v>2173900</v>
+        <v>2211300</v>
       </c>
       <c r="F8" s="3">
-        <v>1995400</v>
+        <v>2106000</v>
       </c>
       <c r="G8" s="3">
-        <v>1917900</v>
+        <v>1933000</v>
       </c>
       <c r="H8" s="3">
-        <v>1661400</v>
+        <v>1858000</v>
       </c>
       <c r="I8" s="3">
-        <v>1532400</v>
+        <v>1609500</v>
       </c>
       <c r="J8" s="3">
+        <v>1484600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1376900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1464000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1100800</v>
+        <v>1126300</v>
       </c>
       <c r="E9" s="3">
-        <v>1022400</v>
+        <v>1066400</v>
       </c>
       <c r="F9" s="3">
-        <v>949500</v>
+        <v>990400</v>
       </c>
       <c r="G9" s="3">
-        <v>876900</v>
+        <v>919900</v>
       </c>
       <c r="H9" s="3">
-        <v>773800</v>
+        <v>849500</v>
       </c>
       <c r="I9" s="3">
-        <v>687000</v>
+        <v>749600</v>
       </c>
       <c r="J9" s="3">
+        <v>665500</v>
+      </c>
+      <c r="K9" s="3">
         <v>631200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>676300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1181800</v>
+        <v>1133600</v>
       </c>
       <c r="E10" s="3">
-        <v>1151500</v>
+        <v>1144900</v>
       </c>
       <c r="F10" s="3">
-        <v>1045900</v>
+        <v>1115500</v>
       </c>
       <c r="G10" s="3">
-        <v>1041000</v>
+        <v>1013200</v>
       </c>
       <c r="H10" s="3">
-        <v>887600</v>
+        <v>1008500</v>
       </c>
       <c r="I10" s="3">
-        <v>845500</v>
+        <v>859900</v>
       </c>
       <c r="J10" s="3">
+        <v>819100</v>
+      </c>
+      <c r="K10" s="3">
         <v>745700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>787800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-273200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-264600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-20100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1677500</v>
+        <v>1969800</v>
       </c>
       <c r="E17" s="3">
-        <v>1883100</v>
+        <v>1625100</v>
       </c>
       <c r="F17" s="3">
-        <v>1749200</v>
+        <v>1824300</v>
       </c>
       <c r="G17" s="3">
-        <v>1644700</v>
+        <v>1694600</v>
       </c>
       <c r="H17" s="3">
-        <v>1425900</v>
+        <v>1593300</v>
       </c>
       <c r="I17" s="3">
-        <v>1290200</v>
+        <v>1381400</v>
       </c>
       <c r="J17" s="3">
+        <v>1249900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1150700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1168300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>605100</v>
+        <v>290100</v>
       </c>
       <c r="E18" s="3">
-        <v>290800</v>
+        <v>586200</v>
       </c>
       <c r="F18" s="3">
-        <v>246200</v>
+        <v>281700</v>
       </c>
       <c r="G18" s="3">
-        <v>273200</v>
+        <v>238500</v>
       </c>
       <c r="H18" s="3">
-        <v>235500</v>
+        <v>264700</v>
       </c>
       <c r="I18" s="3">
-        <v>242200</v>
+        <v>228100</v>
       </c>
       <c r="J18" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K18" s="3">
         <v>226200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>295700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11500</v>
+        <v>-25600</v>
       </c>
       <c r="E20" s="3">
-        <v>-8400</v>
+        <v>11200</v>
       </c>
       <c r="F20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-21100</v>
-      </c>
       <c r="I20" s="3">
-        <v>-27700</v>
+        <v>-20400</v>
       </c>
       <c r="J20" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>616700</v>
+        <v>264500</v>
       </c>
       <c r="E21" s="3">
-        <v>282400</v>
+        <v>597400</v>
       </c>
       <c r="F21" s="3">
-        <v>244000</v>
+        <v>273600</v>
       </c>
       <c r="G21" s="3">
-        <v>273600</v>
+        <v>236400</v>
       </c>
       <c r="H21" s="3">
-        <v>214400</v>
+        <v>265000</v>
       </c>
       <c r="I21" s="3">
-        <v>214500</v>
+        <v>207700</v>
       </c>
       <c r="J21" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K21" s="3">
         <v>228100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>293600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30200</v>
+        <v>34400</v>
       </c>
       <c r="E22" s="3">
-        <v>30900</v>
+        <v>29200</v>
       </c>
       <c r="F22" s="3">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="G22" s="3">
-        <v>29600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>25200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>28600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>21800</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>21800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>586500</v>
+        <v>230200</v>
       </c>
       <c r="E23" s="3">
-        <v>251500</v>
+        <v>568200</v>
       </c>
       <c r="F23" s="3">
-        <v>218000</v>
+        <v>243600</v>
       </c>
       <c r="G23" s="3">
-        <v>244000</v>
+        <v>211200</v>
       </c>
       <c r="H23" s="3">
-        <v>214400</v>
+        <v>236400</v>
       </c>
       <c r="I23" s="3">
-        <v>214500</v>
+        <v>207700</v>
       </c>
       <c r="J23" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K23" s="3">
         <v>206200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>271800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>174200</v>
+        <v>49600</v>
       </c>
       <c r="E24" s="3">
-        <v>61900</v>
+        <v>168800</v>
       </c>
       <c r="F24" s="3">
-        <v>38700</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="3">
-        <v>64100</v>
+        <v>37500</v>
       </c>
       <c r="H24" s="3">
-        <v>59700</v>
+        <v>62100</v>
       </c>
       <c r="I24" s="3">
-        <v>44400</v>
+        <v>57900</v>
       </c>
       <c r="J24" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K24" s="3">
         <v>47500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>68200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>412300</v>
+        <v>180600</v>
       </c>
       <c r="E26" s="3">
-        <v>189600</v>
+        <v>399400</v>
       </c>
       <c r="F26" s="3">
-        <v>179300</v>
+        <v>183700</v>
       </c>
       <c r="G26" s="3">
-        <v>179900</v>
+        <v>173700</v>
       </c>
       <c r="H26" s="3">
-        <v>154600</v>
+        <v>174300</v>
       </c>
       <c r="I26" s="3">
-        <v>170100</v>
+        <v>149800</v>
       </c>
       <c r="J26" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K26" s="3">
         <v>158700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>203600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>392800</v>
+        <v>161400</v>
       </c>
       <c r="E27" s="3">
-        <v>165900</v>
+        <v>380500</v>
       </c>
       <c r="F27" s="3">
-        <v>151600</v>
+        <v>160700</v>
       </c>
       <c r="G27" s="3">
-        <v>154600</v>
+        <v>146900</v>
       </c>
       <c r="H27" s="3">
-        <v>136000</v>
+        <v>149800</v>
       </c>
       <c r="I27" s="3">
-        <v>157500</v>
+        <v>131700</v>
       </c>
       <c r="J27" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K27" s="3">
         <v>146500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>185400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11500</v>
+        <v>25600</v>
       </c>
       <c r="E32" s="3">
-        <v>8400</v>
+        <v>-11200</v>
       </c>
       <c r="F32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>21100</v>
-      </c>
       <c r="I32" s="3">
-        <v>27700</v>
+        <v>20400</v>
       </c>
       <c r="J32" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>392800</v>
+        <v>161400</v>
       </c>
       <c r="E33" s="3">
-        <v>165900</v>
+        <v>380500</v>
       </c>
       <c r="F33" s="3">
-        <v>151600</v>
+        <v>160700</v>
       </c>
       <c r="G33" s="3">
-        <v>154600</v>
+        <v>146900</v>
       </c>
       <c r="H33" s="3">
-        <v>136000</v>
+        <v>149800</v>
       </c>
       <c r="I33" s="3">
-        <v>157500</v>
+        <v>131700</v>
       </c>
       <c r="J33" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K33" s="3">
         <v>146500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>185400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>392800</v>
+        <v>161400</v>
       </c>
       <c r="E35" s="3">
-        <v>165900</v>
+        <v>380500</v>
       </c>
       <c r="F35" s="3">
-        <v>151600</v>
+        <v>160700</v>
       </c>
       <c r="G35" s="3">
-        <v>154600</v>
+        <v>146900</v>
       </c>
       <c r="H35" s="3">
-        <v>136000</v>
+        <v>149800</v>
       </c>
       <c r="I35" s="3">
-        <v>157500</v>
+        <v>131700</v>
       </c>
       <c r="J35" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K35" s="3">
         <v>146500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>185400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>144000</v>
+        <v>111800</v>
       </c>
       <c r="E41" s="3">
-        <v>65000</v>
+        <v>140600</v>
       </c>
       <c r="F41" s="3">
-        <v>75000</v>
+        <v>63500</v>
       </c>
       <c r="G41" s="3">
-        <v>96600</v>
+        <v>73200</v>
       </c>
       <c r="H41" s="3">
-        <v>168400</v>
+        <v>94400</v>
       </c>
       <c r="I41" s="3">
-        <v>400800</v>
+        <v>164400</v>
       </c>
       <c r="J41" s="3">
+        <v>391400</v>
+      </c>
+      <c r="K41" s="3">
         <v>56900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>293500</v>
+        <v>146000</v>
       </c>
       <c r="E42" s="3">
-        <v>166400</v>
+        <v>286600</v>
       </c>
       <c r="F42" s="3">
-        <v>107400</v>
+        <v>162500</v>
       </c>
       <c r="G42" s="3">
-        <v>167300</v>
+        <v>104800</v>
       </c>
       <c r="H42" s="3">
-        <v>114800</v>
+        <v>163400</v>
       </c>
       <c r="I42" s="3">
-        <v>128200</v>
+        <v>112100</v>
       </c>
       <c r="J42" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K42" s="3">
         <v>75900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>240000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>436500</v>
+        <v>398000</v>
       </c>
       <c r="E43" s="3">
-        <v>409700</v>
+        <v>426300</v>
       </c>
       <c r="F43" s="3">
-        <v>401600</v>
+        <v>400100</v>
       </c>
       <c r="G43" s="3">
-        <v>348500</v>
+        <v>392200</v>
       </c>
       <c r="H43" s="3">
-        <v>345100</v>
+        <v>340300</v>
       </c>
       <c r="I43" s="3">
-        <v>294700</v>
+        <v>337000</v>
       </c>
       <c r="J43" s="3">
+        <v>287800</v>
+      </c>
+      <c r="K43" s="3">
         <v>298800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>332600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>302800</v>
+        <v>302400</v>
       </c>
       <c r="E44" s="3">
-        <v>269000</v>
+        <v>295700</v>
       </c>
       <c r="F44" s="3">
-        <v>255100</v>
+        <v>262700</v>
       </c>
       <c r="G44" s="3">
-        <v>223000</v>
+        <v>249100</v>
       </c>
       <c r="H44" s="3">
-        <v>224200</v>
+        <v>217800</v>
       </c>
       <c r="I44" s="3">
-        <v>195900</v>
+        <v>219000</v>
       </c>
       <c r="J44" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K44" s="3">
         <v>181600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>194100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27700</v>
+        <v>28500</v>
       </c>
       <c r="E45" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>32900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>32700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>39500</v>
+      </c>
+      <c r="I45" s="3">
         <v>33700</v>
       </c>
-      <c r="F45" s="3">
-        <v>33500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>40500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>34500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>27900</v>
-      </c>
       <c r="J45" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K45" s="3">
         <v>21500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1204500</v>
+        <v>986600</v>
       </c>
       <c r="E46" s="3">
-        <v>933300</v>
+        <v>1176300</v>
       </c>
       <c r="F46" s="3">
-        <v>872600</v>
+        <v>911400</v>
       </c>
       <c r="G46" s="3">
-        <v>875900</v>
+        <v>852100</v>
       </c>
       <c r="H46" s="3">
-        <v>877300</v>
+        <v>855400</v>
       </c>
       <c r="I46" s="3">
-        <v>1047700</v>
+        <v>856700</v>
       </c>
       <c r="J46" s="3">
+        <v>1023100</v>
+      </c>
+      <c r="K46" s="3">
         <v>634700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>817500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>190600</v>
+        <v>180100</v>
       </c>
       <c r="E47" s="3">
-        <v>134900</v>
+        <v>186100</v>
       </c>
       <c r="F47" s="3">
-        <v>87700</v>
+        <v>131800</v>
       </c>
       <c r="G47" s="3">
-        <v>64700</v>
+        <v>85700</v>
       </c>
       <c r="H47" s="3">
-        <v>42100</v>
+        <v>63200</v>
       </c>
       <c r="I47" s="3">
-        <v>23000</v>
+        <v>41100</v>
       </c>
       <c r="J47" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K47" s="3">
         <v>22800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1318400</v>
+        <v>1382300</v>
       </c>
       <c r="E48" s="3">
-        <v>1182400</v>
+        <v>1287500</v>
       </c>
       <c r="F48" s="3">
-        <v>1173300</v>
+        <v>1154700</v>
       </c>
       <c r="G48" s="3">
-        <v>1203600</v>
+        <v>1145800</v>
       </c>
       <c r="H48" s="3">
-        <v>1122900</v>
+        <v>1175400</v>
       </c>
       <c r="I48" s="3">
-        <v>913300</v>
+        <v>1096600</v>
       </c>
       <c r="J48" s="3">
+        <v>891900</v>
+      </c>
+      <c r="K48" s="3">
         <v>815400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>880300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>309800</v>
+        <v>313200</v>
       </c>
       <c r="E49" s="3">
-        <v>219700</v>
+        <v>302500</v>
       </c>
       <c r="F49" s="3">
-        <v>223800</v>
+        <v>214600</v>
       </c>
       <c r="G49" s="3">
-        <v>219300</v>
+        <v>218600</v>
       </c>
       <c r="H49" s="3">
-        <v>199000</v>
+        <v>214200</v>
       </c>
       <c r="I49" s="3">
-        <v>186800</v>
+        <v>194300</v>
       </c>
       <c r="J49" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K49" s="3">
         <v>164800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>202100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>56300</v>
+        <v>79800</v>
       </c>
       <c r="E52" s="3">
-        <v>59300</v>
+        <v>55000</v>
       </c>
       <c r="F52" s="3">
-        <v>46800</v>
+        <v>57900</v>
       </c>
       <c r="G52" s="3">
-        <v>50900</v>
+        <v>45700</v>
       </c>
       <c r="H52" s="3">
-        <v>46100</v>
+        <v>49700</v>
       </c>
       <c r="I52" s="3">
-        <v>51000</v>
+        <v>45000</v>
       </c>
       <c r="J52" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K52" s="3">
         <v>60200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3079500</v>
+        <v>2942100</v>
       </c>
       <c r="E54" s="3">
-        <v>2529600</v>
+        <v>3007300</v>
       </c>
       <c r="F54" s="3">
-        <v>2396200</v>
+        <v>2470300</v>
       </c>
       <c r="G54" s="3">
-        <v>2336600</v>
+        <v>2340000</v>
       </c>
       <c r="H54" s="3">
-        <v>2264200</v>
+        <v>2281800</v>
       </c>
       <c r="I54" s="3">
-        <v>2211500</v>
+        <v>2211100</v>
       </c>
       <c r="J54" s="3">
+        <v>2159700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1697900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1960500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>316600</v>
+        <v>310800</v>
       </c>
       <c r="E57" s="3">
-        <v>287100</v>
+        <v>309200</v>
       </c>
       <c r="F57" s="3">
-        <v>601500</v>
+        <v>280400</v>
       </c>
       <c r="G57" s="3">
-        <v>291500</v>
+        <v>587400</v>
       </c>
       <c r="H57" s="3">
-        <v>260800</v>
+        <v>284700</v>
       </c>
       <c r="I57" s="3">
-        <v>234900</v>
+        <v>254700</v>
       </c>
       <c r="J57" s="3">
+        <v>229400</v>
+      </c>
+      <c r="K57" s="3">
         <v>182900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>214000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>77500</v>
+        <v>86800</v>
       </c>
       <c r="E58" s="3">
-        <v>58900</v>
+        <v>75700</v>
       </c>
       <c r="F58" s="3">
-        <v>73800</v>
+        <v>57600</v>
       </c>
       <c r="G58" s="3">
-        <v>55900</v>
+        <v>72100</v>
       </c>
       <c r="H58" s="3">
-        <v>82500</v>
+        <v>54600</v>
       </c>
       <c r="I58" s="3">
-        <v>153200</v>
+        <v>80600</v>
       </c>
       <c r="J58" s="3">
+        <v>149600</v>
+      </c>
+      <c r="K58" s="3">
         <v>71700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>135200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>432400</v>
+        <v>206600</v>
       </c>
       <c r="E59" s="3">
-        <v>253900</v>
+        <v>422300</v>
       </c>
       <c r="F59" s="3">
-        <v>223300</v>
+        <v>248000</v>
       </c>
       <c r="G59" s="3">
-        <v>150100</v>
+        <v>218100</v>
       </c>
       <c r="H59" s="3">
-        <v>140900</v>
+        <v>146600</v>
       </c>
       <c r="I59" s="3">
-        <v>135600</v>
+        <v>137600</v>
       </c>
       <c r="J59" s="3">
+        <v>132400</v>
+      </c>
+      <c r="K59" s="3">
         <v>148000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>198900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>826500</v>
+        <v>604100</v>
       </c>
       <c r="E60" s="3">
-        <v>600000</v>
+        <v>807200</v>
       </c>
       <c r="F60" s="3">
-        <v>566200</v>
+        <v>585900</v>
       </c>
       <c r="G60" s="3">
-        <v>497500</v>
+        <v>553000</v>
       </c>
       <c r="H60" s="3">
-        <v>484300</v>
+        <v>485900</v>
       </c>
       <c r="I60" s="3">
-        <v>523700</v>
+        <v>472900</v>
       </c>
       <c r="J60" s="3">
+        <v>511400</v>
+      </c>
+      <c r="K60" s="3">
         <v>402600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>547500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>291900</v>
+        <v>327200</v>
       </c>
       <c r="E61" s="3">
-        <v>206100</v>
+        <v>285000</v>
       </c>
       <c r="F61" s="3">
-        <v>151000</v>
+        <v>201300</v>
       </c>
       <c r="G61" s="3">
-        <v>175300</v>
+        <v>147400</v>
       </c>
       <c r="H61" s="3">
-        <v>172100</v>
+        <v>171200</v>
       </c>
       <c r="I61" s="3">
-        <v>182700</v>
+        <v>168100</v>
       </c>
       <c r="J61" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K61" s="3">
         <v>267700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>258100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>183000</v>
+        <v>207100</v>
       </c>
       <c r="E62" s="3">
-        <v>153200</v>
+        <v>178700</v>
       </c>
       <c r="F62" s="3">
-        <v>142100</v>
+        <v>149600</v>
       </c>
       <c r="G62" s="3">
-        <v>143800</v>
+        <v>138800</v>
       </c>
       <c r="H62" s="3">
-        <v>137700</v>
+        <v>140400</v>
       </c>
       <c r="I62" s="3">
-        <v>117300</v>
+        <v>134500</v>
       </c>
       <c r="J62" s="3">
+        <v>114600</v>
+      </c>
+      <c r="K62" s="3">
         <v>118100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1440900</v>
+        <v>1282000</v>
       </c>
       <c r="E66" s="3">
-        <v>1120200</v>
+        <v>1407200</v>
       </c>
       <c r="F66" s="3">
-        <v>1017300</v>
+        <v>1093900</v>
       </c>
       <c r="G66" s="3">
-        <v>982600</v>
+        <v>993400</v>
       </c>
       <c r="H66" s="3">
-        <v>951400</v>
+        <v>959500</v>
       </c>
       <c r="I66" s="3">
-        <v>946000</v>
+        <v>929100</v>
       </c>
       <c r="J66" s="3">
+        <v>923800</v>
+      </c>
+      <c r="K66" s="3">
         <v>912900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1101400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1069300</v>
+        <v>1083700</v>
       </c>
       <c r="E72" s="3">
-        <v>657700</v>
+        <v>1044300</v>
       </c>
       <c r="F72" s="3">
-        <v>813000</v>
+        <v>642300</v>
       </c>
       <c r="G72" s="3">
-        <v>755900</v>
+        <v>793900</v>
       </c>
       <c r="H72" s="3">
-        <v>679300</v>
+        <v>738200</v>
       </c>
       <c r="I72" s="3">
-        <v>622100</v>
+        <v>663400</v>
       </c>
       <c r="J72" s="3">
+        <v>607500</v>
+      </c>
+      <c r="K72" s="3">
         <v>489200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>510300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1638600</v>
+        <v>1660100</v>
       </c>
       <c r="E76" s="3">
-        <v>1409400</v>
+        <v>1600200</v>
       </c>
       <c r="F76" s="3">
-        <v>1378900</v>
+        <v>1376300</v>
       </c>
       <c r="G76" s="3">
-        <v>1354000</v>
+        <v>1346600</v>
       </c>
       <c r="H76" s="3">
-        <v>1312800</v>
+        <v>1322300</v>
       </c>
       <c r="I76" s="3">
-        <v>1265500</v>
+        <v>1282000</v>
       </c>
       <c r="J76" s="3">
+        <v>1235800</v>
+      </c>
+      <c r="K76" s="3">
         <v>784900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>859200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>392800</v>
+        <v>161400</v>
       </c>
       <c r="E81" s="3">
-        <v>165900</v>
+        <v>380500</v>
       </c>
       <c r="F81" s="3">
-        <v>151600</v>
+        <v>160700</v>
       </c>
       <c r="G81" s="3">
-        <v>154600</v>
+        <v>146900</v>
       </c>
       <c r="H81" s="3">
-        <v>136000</v>
+        <v>149800</v>
       </c>
       <c r="I81" s="3">
-        <v>157500</v>
+        <v>131700</v>
       </c>
       <c r="J81" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K81" s="3">
         <v>146500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>185400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,8 +2898,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2730,9 +2928,12 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>549500</v>
+        <v>300500</v>
       </c>
       <c r="E89" s="3">
-        <v>335600</v>
+        <v>532300</v>
       </c>
       <c r="F89" s="3">
-        <v>243200</v>
+        <v>325100</v>
       </c>
       <c r="G89" s="3">
-        <v>281000</v>
+        <v>235600</v>
       </c>
       <c r="H89" s="3">
-        <v>222200</v>
+        <v>272200</v>
       </c>
       <c r="I89" s="3">
-        <v>248500</v>
+        <v>215300</v>
       </c>
       <c r="J89" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K89" s="3">
         <v>177700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>253300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-164300</v>
+        <v>-167000</v>
       </c>
       <c r="E91" s="3">
-        <v>-158100</v>
+        <v>-159200</v>
       </c>
       <c r="F91" s="3">
-        <v>-160900</v>
+        <v>-153200</v>
       </c>
       <c r="G91" s="3">
-        <v>-166000</v>
+        <v>-155900</v>
       </c>
       <c r="H91" s="3">
-        <v>-291700</v>
+        <v>-160800</v>
       </c>
       <c r="I91" s="3">
-        <v>-156700</v>
+        <v>-282600</v>
       </c>
       <c r="J91" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-148200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-117500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-254700</v>
+        <v>-178800</v>
       </c>
       <c r="E94" s="3">
-        <v>-222200</v>
+        <v>-246800</v>
       </c>
       <c r="F94" s="3">
-        <v>-198400</v>
+        <v>-215300</v>
       </c>
       <c r="G94" s="3">
-        <v>-212200</v>
+        <v>-192200</v>
       </c>
       <c r="H94" s="3">
-        <v>-305900</v>
+        <v>-205600</v>
       </c>
       <c r="I94" s="3">
-        <v>-175300</v>
+        <v>-296300</v>
       </c>
       <c r="J94" s="3">
+        <v>-169800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-172000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-115100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95800</v>
+        <v>-270400</v>
       </c>
       <c r="E96" s="3">
-        <v>-96200</v>
+        <v>-92800</v>
       </c>
       <c r="F96" s="3">
-        <v>-89400</v>
+        <v>-93200</v>
       </c>
       <c r="G96" s="3">
-        <v>-84700</v>
+        <v>-86600</v>
       </c>
       <c r="H96" s="3">
-        <v>-83600</v>
+        <v>-82000</v>
       </c>
       <c r="I96" s="3">
-        <v>-81500</v>
+        <v>-81000</v>
       </c>
       <c r="J96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-84600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-94800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67800</v>
+        <v>-247300</v>
       </c>
       <c r="E100" s="3">
-        <v>-67800</v>
+        <v>-65700</v>
       </c>
       <c r="F100" s="3">
-        <v>-121700</v>
+        <v>-65700</v>
       </c>
       <c r="G100" s="3">
-        <v>-106000</v>
+        <v>-117900</v>
       </c>
       <c r="H100" s="3">
-        <v>-169200</v>
+        <v>-102700</v>
       </c>
       <c r="I100" s="3">
-        <v>322100</v>
+        <v>-163900</v>
       </c>
       <c r="J100" s="3">
+        <v>312000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-102600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-98500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-36300</v>
+        <v>-26500</v>
       </c>
       <c r="E101" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>2000</v>
-      </c>
       <c r="G101" s="3">
-        <v>8900</v>
+        <v>1900</v>
       </c>
       <c r="H101" s="3">
-        <v>4400</v>
+        <v>8600</v>
       </c>
       <c r="I101" s="3">
-        <v>-3000</v>
+        <v>4200</v>
       </c>
       <c r="J101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>190700</v>
+        <v>-152100</v>
       </c>
       <c r="E102" s="3">
-        <v>46100</v>
+        <v>184700</v>
       </c>
       <c r="F102" s="3">
-        <v>-74900</v>
+        <v>44700</v>
       </c>
       <c r="G102" s="3">
-        <v>-28400</v>
+        <v>-72600</v>
       </c>
       <c r="H102" s="3">
-        <v>-248400</v>
+        <v>-27600</v>
       </c>
       <c r="I102" s="3">
-        <v>392300</v>
+        <v>-240700</v>
       </c>
       <c r="J102" s="3">
+        <v>380100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-96900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2260000</v>
+        <v>2314600</v>
       </c>
       <c r="E8" s="3">
-        <v>2211300</v>
+        <v>2264800</v>
       </c>
       <c r="F8" s="3">
-        <v>2106000</v>
+        <v>2156900</v>
       </c>
       <c r="G8" s="3">
-        <v>1933000</v>
+        <v>1979800</v>
       </c>
       <c r="H8" s="3">
-        <v>1858000</v>
+        <v>1902900</v>
       </c>
       <c r="I8" s="3">
-        <v>1609500</v>
+        <v>1648400</v>
       </c>
       <c r="J8" s="3">
-        <v>1484600</v>
+        <v>1520500</v>
       </c>
       <c r="K8" s="3">
         <v>1376900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1126300</v>
+        <v>1153600</v>
       </c>
       <c r="E9" s="3">
-        <v>1066400</v>
+        <v>1092200</v>
       </c>
       <c r="F9" s="3">
-        <v>990400</v>
+        <v>1014400</v>
       </c>
       <c r="G9" s="3">
-        <v>919900</v>
+        <v>942100</v>
       </c>
       <c r="H9" s="3">
-        <v>849500</v>
+        <v>870000</v>
       </c>
       <c r="I9" s="3">
-        <v>749600</v>
+        <v>767800</v>
       </c>
       <c r="J9" s="3">
-        <v>665500</v>
+        <v>681600</v>
       </c>
       <c r="K9" s="3">
         <v>631200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1133600</v>
+        <v>1161100</v>
       </c>
       <c r="E10" s="3">
-        <v>1144900</v>
+        <v>1172600</v>
       </c>
       <c r="F10" s="3">
-        <v>1115500</v>
+        <v>1142500</v>
       </c>
       <c r="G10" s="3">
-        <v>1013200</v>
+        <v>1037700</v>
       </c>
       <c r="H10" s="3">
-        <v>1008500</v>
+        <v>1032900</v>
       </c>
       <c r="I10" s="3">
-        <v>859900</v>
+        <v>880700</v>
       </c>
       <c r="J10" s="3">
-        <v>819100</v>
+        <v>838900</v>
       </c>
       <c r="K10" s="3">
         <v>745700</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-264600</v>
+        <v>-271000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1969800</v>
+        <v>2017500</v>
       </c>
       <c r="E17" s="3">
-        <v>1625100</v>
+        <v>1664400</v>
       </c>
       <c r="F17" s="3">
-        <v>1824300</v>
+        <v>1868400</v>
       </c>
       <c r="G17" s="3">
-        <v>1694600</v>
+        <v>1735600</v>
       </c>
       <c r="H17" s="3">
-        <v>1593300</v>
+        <v>1631900</v>
       </c>
       <c r="I17" s="3">
-        <v>1381400</v>
+        <v>1414800</v>
       </c>
       <c r="J17" s="3">
-        <v>1249900</v>
+        <v>1280200</v>
       </c>
       <c r="K17" s="3">
         <v>1150700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>290100</v>
+        <v>297100</v>
       </c>
       <c r="E18" s="3">
-        <v>586200</v>
+        <v>600400</v>
       </c>
       <c r="F18" s="3">
-        <v>281700</v>
+        <v>288500</v>
       </c>
       <c r="G18" s="3">
-        <v>238500</v>
+        <v>244200</v>
       </c>
       <c r="H18" s="3">
-        <v>264700</v>
+        <v>271100</v>
       </c>
       <c r="I18" s="3">
-        <v>228100</v>
+        <v>233600</v>
       </c>
       <c r="J18" s="3">
-        <v>234600</v>
+        <v>240300</v>
       </c>
       <c r="K18" s="3">
         <v>226200</v>
@@ -1056,13 +1056,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25600</v>
+        <v>-26200</v>
       </c>
       <c r="E20" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="F20" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="G20" s="3">
         <v>-2100</v>
@@ -1071,10 +1071,10 @@
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>-20400</v>
+        <v>-20900</v>
       </c>
       <c r="J20" s="3">
-        <v>-26800</v>
+        <v>-27500</v>
       </c>
       <c r="K20" s="3">
         <v>1900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>264500</v>
+        <v>270900</v>
       </c>
       <c r="E21" s="3">
-        <v>597400</v>
+        <v>611900</v>
       </c>
       <c r="F21" s="3">
-        <v>273600</v>
+        <v>280200</v>
       </c>
       <c r="G21" s="3">
-        <v>236400</v>
+        <v>242100</v>
       </c>
       <c r="H21" s="3">
-        <v>265000</v>
+        <v>271500</v>
       </c>
       <c r="I21" s="3">
-        <v>207700</v>
+        <v>212700</v>
       </c>
       <c r="J21" s="3">
-        <v>207800</v>
+        <v>212900</v>
       </c>
       <c r="K21" s="3">
         <v>228100</v>
@@ -1122,19 +1122,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34400</v>
+        <v>35200</v>
       </c>
       <c r="E22" s="3">
-        <v>29200</v>
+        <v>29900</v>
       </c>
       <c r="F22" s="3">
-        <v>30000</v>
+        <v>30700</v>
       </c>
       <c r="G22" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="H22" s="3">
-        <v>28600</v>
+        <v>29300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>230200</v>
+        <v>235700</v>
       </c>
       <c r="E23" s="3">
-        <v>568200</v>
+        <v>581900</v>
       </c>
       <c r="F23" s="3">
-        <v>243600</v>
+        <v>249500</v>
       </c>
       <c r="G23" s="3">
-        <v>211200</v>
+        <v>216300</v>
       </c>
       <c r="H23" s="3">
-        <v>236400</v>
+        <v>242100</v>
       </c>
       <c r="I23" s="3">
-        <v>207700</v>
+        <v>212700</v>
       </c>
       <c r="J23" s="3">
-        <v>207800</v>
+        <v>212900</v>
       </c>
       <c r="K23" s="3">
         <v>206200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>49600</v>
+        <v>50800</v>
       </c>
       <c r="E24" s="3">
-        <v>168800</v>
+        <v>172900</v>
       </c>
       <c r="F24" s="3">
-        <v>60000</v>
+        <v>61400</v>
       </c>
       <c r="G24" s="3">
-        <v>37500</v>
+        <v>38400</v>
       </c>
       <c r="H24" s="3">
-        <v>62100</v>
+        <v>63600</v>
       </c>
       <c r="I24" s="3">
-        <v>57900</v>
+        <v>59300</v>
       </c>
       <c r="J24" s="3">
-        <v>43000</v>
+        <v>44100</v>
       </c>
       <c r="K24" s="3">
         <v>47500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>180600</v>
+        <v>185000</v>
       </c>
       <c r="E26" s="3">
-        <v>399400</v>
+        <v>409000</v>
       </c>
       <c r="F26" s="3">
-        <v>183700</v>
+        <v>188100</v>
       </c>
       <c r="G26" s="3">
-        <v>173700</v>
+        <v>177900</v>
       </c>
       <c r="H26" s="3">
-        <v>174300</v>
+        <v>178500</v>
       </c>
       <c r="I26" s="3">
-        <v>149800</v>
+        <v>153400</v>
       </c>
       <c r="J26" s="3">
-        <v>164800</v>
+        <v>168800</v>
       </c>
       <c r="K26" s="3">
         <v>158700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>161400</v>
+        <v>165300</v>
       </c>
       <c r="E27" s="3">
-        <v>380500</v>
+        <v>389800</v>
       </c>
       <c r="F27" s="3">
-        <v>160700</v>
+        <v>164600</v>
       </c>
       <c r="G27" s="3">
-        <v>146900</v>
+        <v>150400</v>
       </c>
       <c r="H27" s="3">
-        <v>149800</v>
+        <v>153400</v>
       </c>
       <c r="I27" s="3">
-        <v>131700</v>
+        <v>134900</v>
       </c>
       <c r="J27" s="3">
-        <v>152600</v>
+        <v>156300</v>
       </c>
       <c r="K27" s="3">
         <v>146500</v>
@@ -1452,13 +1452,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="E32" s="3">
-        <v>-11200</v>
+        <v>-11500</v>
       </c>
       <c r="F32" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="G32" s="3">
         <v>2100</v>
@@ -1467,10 +1467,10 @@
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="J32" s="3">
-        <v>26800</v>
+        <v>27500</v>
       </c>
       <c r="K32" s="3">
         <v>-1900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>161400</v>
+        <v>165300</v>
       </c>
       <c r="E33" s="3">
-        <v>380500</v>
+        <v>389800</v>
       </c>
       <c r="F33" s="3">
-        <v>160700</v>
+        <v>164600</v>
       </c>
       <c r="G33" s="3">
-        <v>146900</v>
+        <v>150400</v>
       </c>
       <c r="H33" s="3">
-        <v>149800</v>
+        <v>153400</v>
       </c>
       <c r="I33" s="3">
-        <v>131700</v>
+        <v>134900</v>
       </c>
       <c r="J33" s="3">
-        <v>152600</v>
+        <v>156300</v>
       </c>
       <c r="K33" s="3">
         <v>146500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>161400</v>
+        <v>165300</v>
       </c>
       <c r="E35" s="3">
-        <v>380500</v>
+        <v>389800</v>
       </c>
       <c r="F35" s="3">
-        <v>160700</v>
+        <v>164600</v>
       </c>
       <c r="G35" s="3">
-        <v>146900</v>
+        <v>150400</v>
       </c>
       <c r="H35" s="3">
-        <v>149800</v>
+        <v>153400</v>
       </c>
       <c r="I35" s="3">
-        <v>131700</v>
+        <v>134900</v>
       </c>
       <c r="J35" s="3">
-        <v>152600</v>
+        <v>156300</v>
       </c>
       <c r="K35" s="3">
         <v>146500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111800</v>
+        <v>113500</v>
       </c>
       <c r="E41" s="3">
-        <v>140600</v>
+        <v>142900</v>
       </c>
       <c r="F41" s="3">
-        <v>63500</v>
+        <v>64500</v>
       </c>
       <c r="G41" s="3">
-        <v>73200</v>
+        <v>74400</v>
       </c>
       <c r="H41" s="3">
-        <v>94400</v>
+        <v>95900</v>
       </c>
       <c r="I41" s="3">
-        <v>164400</v>
+        <v>167100</v>
       </c>
       <c r="J41" s="3">
-        <v>391400</v>
+        <v>397700</v>
       </c>
       <c r="K41" s="3">
         <v>56900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>146000</v>
+        <v>148300</v>
       </c>
       <c r="E42" s="3">
-        <v>286600</v>
+        <v>291200</v>
       </c>
       <c r="F42" s="3">
-        <v>162500</v>
+        <v>165100</v>
       </c>
       <c r="G42" s="3">
-        <v>104800</v>
+        <v>106500</v>
       </c>
       <c r="H42" s="3">
-        <v>163400</v>
+        <v>166000</v>
       </c>
       <c r="I42" s="3">
-        <v>112100</v>
+        <v>113900</v>
       </c>
       <c r="J42" s="3">
-        <v>125200</v>
+        <v>127200</v>
       </c>
       <c r="K42" s="3">
         <v>75900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>398000</v>
+        <v>404400</v>
       </c>
       <c r="E43" s="3">
-        <v>426300</v>
+        <v>433100</v>
       </c>
       <c r="F43" s="3">
-        <v>400100</v>
+        <v>406500</v>
       </c>
       <c r="G43" s="3">
-        <v>392200</v>
+        <v>398500</v>
       </c>
       <c r="H43" s="3">
-        <v>340300</v>
+        <v>345800</v>
       </c>
       <c r="I43" s="3">
-        <v>337000</v>
+        <v>342400</v>
       </c>
       <c r="J43" s="3">
-        <v>287800</v>
+        <v>292400</v>
       </c>
       <c r="K43" s="3">
         <v>298800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>302400</v>
+        <v>307200</v>
       </c>
       <c r="E44" s="3">
-        <v>295700</v>
+        <v>300400</v>
       </c>
       <c r="F44" s="3">
-        <v>262700</v>
+        <v>266900</v>
       </c>
       <c r="G44" s="3">
-        <v>249100</v>
+        <v>253100</v>
       </c>
       <c r="H44" s="3">
-        <v>217800</v>
+        <v>221300</v>
       </c>
       <c r="I44" s="3">
-        <v>219000</v>
+        <v>222500</v>
       </c>
       <c r="J44" s="3">
-        <v>191400</v>
+        <v>194400</v>
       </c>
       <c r="K44" s="3">
         <v>181600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28500</v>
+        <v>28900</v>
       </c>
       <c r="E45" s="3">
-        <v>27100</v>
+        <v>27500</v>
       </c>
       <c r="F45" s="3">
-        <v>32900</v>
+        <v>33400</v>
       </c>
       <c r="G45" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="H45" s="3">
-        <v>39500</v>
+        <v>40100</v>
       </c>
       <c r="I45" s="3">
-        <v>33700</v>
+        <v>34200</v>
       </c>
       <c r="J45" s="3">
-        <v>27300</v>
+        <v>27700</v>
       </c>
       <c r="K45" s="3">
         <v>21500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>986600</v>
+        <v>1002400</v>
       </c>
       <c r="E46" s="3">
-        <v>1176300</v>
+        <v>1195100</v>
       </c>
       <c r="F46" s="3">
-        <v>911400</v>
+        <v>926000</v>
       </c>
       <c r="G46" s="3">
-        <v>852100</v>
+        <v>865700</v>
       </c>
       <c r="H46" s="3">
-        <v>855400</v>
+        <v>869100</v>
       </c>
       <c r="I46" s="3">
-        <v>856700</v>
+        <v>870400</v>
       </c>
       <c r="J46" s="3">
-        <v>1023100</v>
+        <v>1039500</v>
       </c>
       <c r="K46" s="3">
         <v>634700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>180100</v>
+        <v>183000</v>
       </c>
       <c r="E47" s="3">
-        <v>186100</v>
+        <v>189100</v>
       </c>
       <c r="F47" s="3">
-        <v>131800</v>
+        <v>133900</v>
       </c>
       <c r="G47" s="3">
-        <v>85700</v>
+        <v>87000</v>
       </c>
       <c r="H47" s="3">
-        <v>63200</v>
+        <v>64200</v>
       </c>
       <c r="I47" s="3">
-        <v>41100</v>
+        <v>41700</v>
       </c>
       <c r="J47" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="K47" s="3">
         <v>22800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1382300</v>
+        <v>1404400</v>
       </c>
       <c r="E48" s="3">
-        <v>1287500</v>
+        <v>1308100</v>
       </c>
       <c r="F48" s="3">
-        <v>1154700</v>
+        <v>1173100</v>
       </c>
       <c r="G48" s="3">
-        <v>1145800</v>
+        <v>1164100</v>
       </c>
       <c r="H48" s="3">
-        <v>1175400</v>
+        <v>1194200</v>
       </c>
       <c r="I48" s="3">
-        <v>1096600</v>
+        <v>1114100</v>
       </c>
       <c r="J48" s="3">
-        <v>891900</v>
+        <v>906100</v>
       </c>
       <c r="K48" s="3">
         <v>815400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>313200</v>
+        <v>318200</v>
       </c>
       <c r="E49" s="3">
-        <v>302500</v>
+        <v>307400</v>
       </c>
       <c r="F49" s="3">
-        <v>214600</v>
+        <v>218000</v>
       </c>
       <c r="G49" s="3">
-        <v>218600</v>
+        <v>222100</v>
       </c>
       <c r="H49" s="3">
-        <v>214200</v>
+        <v>217600</v>
       </c>
       <c r="I49" s="3">
-        <v>194300</v>
+        <v>197400</v>
       </c>
       <c r="J49" s="3">
-        <v>182400</v>
+        <v>185300</v>
       </c>
       <c r="K49" s="3">
         <v>164800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79800</v>
+        <v>81100</v>
       </c>
       <c r="E52" s="3">
-        <v>55000</v>
+        <v>55800</v>
       </c>
       <c r="F52" s="3">
-        <v>57900</v>
+        <v>58800</v>
       </c>
       <c r="G52" s="3">
-        <v>45700</v>
+        <v>46500</v>
       </c>
       <c r="H52" s="3">
-        <v>49700</v>
+        <v>50500</v>
       </c>
       <c r="I52" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="J52" s="3">
-        <v>49800</v>
+        <v>50600</v>
       </c>
       <c r="K52" s="3">
         <v>60200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2942100</v>
+        <v>2989200</v>
       </c>
       <c r="E54" s="3">
-        <v>3007300</v>
+        <v>3055400</v>
       </c>
       <c r="F54" s="3">
-        <v>2470300</v>
+        <v>2509800</v>
       </c>
       <c r="G54" s="3">
-        <v>2340000</v>
+        <v>2377500</v>
       </c>
       <c r="H54" s="3">
-        <v>2281800</v>
+        <v>2318300</v>
       </c>
       <c r="I54" s="3">
-        <v>2211100</v>
+        <v>2246500</v>
       </c>
       <c r="J54" s="3">
-        <v>2159700</v>
+        <v>2194200</v>
       </c>
       <c r="K54" s="3">
         <v>1697900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>310800</v>
+        <v>315700</v>
       </c>
       <c r="E57" s="3">
-        <v>309200</v>
+        <v>314100</v>
       </c>
       <c r="F57" s="3">
-        <v>280400</v>
+        <v>284900</v>
       </c>
       <c r="G57" s="3">
-        <v>587400</v>
+        <v>596800</v>
       </c>
       <c r="H57" s="3">
-        <v>284700</v>
+        <v>289200</v>
       </c>
       <c r="I57" s="3">
-        <v>254700</v>
+        <v>258800</v>
       </c>
       <c r="J57" s="3">
-        <v>229400</v>
+        <v>233100</v>
       </c>
       <c r="K57" s="3">
         <v>182900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>86800</v>
+        <v>88200</v>
       </c>
       <c r="E58" s="3">
-        <v>75700</v>
+        <v>76900</v>
       </c>
       <c r="F58" s="3">
-        <v>57600</v>
+        <v>58500</v>
       </c>
       <c r="G58" s="3">
-        <v>72100</v>
+        <v>73300</v>
       </c>
       <c r="H58" s="3">
-        <v>54600</v>
+        <v>55500</v>
       </c>
       <c r="I58" s="3">
-        <v>80600</v>
+        <v>81900</v>
       </c>
       <c r="J58" s="3">
-        <v>149600</v>
+        <v>152000</v>
       </c>
       <c r="K58" s="3">
         <v>71700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>206600</v>
+        <v>209900</v>
       </c>
       <c r="E59" s="3">
-        <v>422300</v>
+        <v>429100</v>
       </c>
       <c r="F59" s="3">
-        <v>248000</v>
+        <v>251900</v>
       </c>
       <c r="G59" s="3">
-        <v>218100</v>
+        <v>221600</v>
       </c>
       <c r="H59" s="3">
-        <v>146600</v>
+        <v>148900</v>
       </c>
       <c r="I59" s="3">
-        <v>137600</v>
+        <v>139800</v>
       </c>
       <c r="J59" s="3">
-        <v>132400</v>
+        <v>134500</v>
       </c>
       <c r="K59" s="3">
         <v>148000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>604100</v>
+        <v>613800</v>
       </c>
       <c r="E60" s="3">
-        <v>807200</v>
+        <v>820100</v>
       </c>
       <c r="F60" s="3">
-        <v>585900</v>
+        <v>595300</v>
       </c>
       <c r="G60" s="3">
-        <v>553000</v>
+        <v>561800</v>
       </c>
       <c r="H60" s="3">
-        <v>485900</v>
+        <v>493600</v>
       </c>
       <c r="I60" s="3">
-        <v>472900</v>
+        <v>480500</v>
       </c>
       <c r="J60" s="3">
-        <v>511400</v>
+        <v>519600</v>
       </c>
       <c r="K60" s="3">
         <v>402600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>327200</v>
+        <v>332400</v>
       </c>
       <c r="E61" s="3">
-        <v>285000</v>
+        <v>289600</v>
       </c>
       <c r="F61" s="3">
-        <v>201300</v>
+        <v>204500</v>
       </c>
       <c r="G61" s="3">
-        <v>147400</v>
+        <v>149800</v>
       </c>
       <c r="H61" s="3">
-        <v>171200</v>
+        <v>173900</v>
       </c>
       <c r="I61" s="3">
-        <v>168100</v>
+        <v>170800</v>
       </c>
       <c r="J61" s="3">
-        <v>178400</v>
+        <v>181200</v>
       </c>
       <c r="K61" s="3">
         <v>267700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>207100</v>
+        <v>210500</v>
       </c>
       <c r="E62" s="3">
-        <v>178700</v>
+        <v>181600</v>
       </c>
       <c r="F62" s="3">
-        <v>149600</v>
+        <v>152000</v>
       </c>
       <c r="G62" s="3">
-        <v>138800</v>
+        <v>141000</v>
       </c>
       <c r="H62" s="3">
-        <v>140400</v>
+        <v>142600</v>
       </c>
       <c r="I62" s="3">
-        <v>134500</v>
+        <v>136700</v>
       </c>
       <c r="J62" s="3">
-        <v>114600</v>
+        <v>116400</v>
       </c>
       <c r="K62" s="3">
         <v>118100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1282000</v>
+        <v>1302600</v>
       </c>
       <c r="E66" s="3">
-        <v>1407200</v>
+        <v>1429700</v>
       </c>
       <c r="F66" s="3">
-        <v>1093900</v>
+        <v>1111400</v>
       </c>
       <c r="G66" s="3">
-        <v>993400</v>
+        <v>1009300</v>
       </c>
       <c r="H66" s="3">
-        <v>959500</v>
+        <v>974900</v>
       </c>
       <c r="I66" s="3">
-        <v>929100</v>
+        <v>944000</v>
       </c>
       <c r="J66" s="3">
-        <v>923800</v>
+        <v>938600</v>
       </c>
       <c r="K66" s="3">
         <v>912900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1083700</v>
+        <v>1101000</v>
       </c>
       <c r="E72" s="3">
-        <v>1044300</v>
+        <v>1061000</v>
       </c>
       <c r="F72" s="3">
-        <v>642300</v>
+        <v>652600</v>
       </c>
       <c r="G72" s="3">
-        <v>793900</v>
+        <v>806600</v>
       </c>
       <c r="H72" s="3">
-        <v>738200</v>
+        <v>750000</v>
       </c>
       <c r="I72" s="3">
-        <v>663400</v>
+        <v>674000</v>
       </c>
       <c r="J72" s="3">
-        <v>607500</v>
+        <v>617200</v>
       </c>
       <c r="K72" s="3">
         <v>489200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1660100</v>
+        <v>1686600</v>
       </c>
       <c r="E76" s="3">
-        <v>1600200</v>
+        <v>1625800</v>
       </c>
       <c r="F76" s="3">
-        <v>1376300</v>
+        <v>1398400</v>
       </c>
       <c r="G76" s="3">
-        <v>1346600</v>
+        <v>1368200</v>
       </c>
       <c r="H76" s="3">
-        <v>1322300</v>
+        <v>1343400</v>
       </c>
       <c r="I76" s="3">
-        <v>1282000</v>
+        <v>1302500</v>
       </c>
       <c r="J76" s="3">
-        <v>1235800</v>
+        <v>1255600</v>
       </c>
       <c r="K76" s="3">
         <v>784900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>161400</v>
+        <v>165300</v>
       </c>
       <c r="E81" s="3">
-        <v>380500</v>
+        <v>389800</v>
       </c>
       <c r="F81" s="3">
-        <v>160700</v>
+        <v>164600</v>
       </c>
       <c r="G81" s="3">
-        <v>146900</v>
+        <v>150400</v>
       </c>
       <c r="H81" s="3">
-        <v>149800</v>
+        <v>153400</v>
       </c>
       <c r="I81" s="3">
-        <v>131700</v>
+        <v>134900</v>
       </c>
       <c r="J81" s="3">
-        <v>152600</v>
+        <v>156300</v>
       </c>
       <c r="K81" s="3">
         <v>146500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300500</v>
+        <v>307700</v>
       </c>
       <c r="E89" s="3">
-        <v>532300</v>
+        <v>545200</v>
       </c>
       <c r="F89" s="3">
-        <v>325100</v>
+        <v>332900</v>
       </c>
       <c r="G89" s="3">
-        <v>235600</v>
+        <v>241300</v>
       </c>
       <c r="H89" s="3">
-        <v>272200</v>
+        <v>278800</v>
       </c>
       <c r="I89" s="3">
-        <v>215300</v>
+        <v>220500</v>
       </c>
       <c r="J89" s="3">
-        <v>240800</v>
+        <v>246600</v>
       </c>
       <c r="K89" s="3">
         <v>177700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-167000</v>
+        <v>-171000</v>
       </c>
       <c r="E91" s="3">
-        <v>-159200</v>
+        <v>-163000</v>
       </c>
       <c r="F91" s="3">
-        <v>-153200</v>
+        <v>-156900</v>
       </c>
       <c r="G91" s="3">
-        <v>-155900</v>
+        <v>-159600</v>
       </c>
       <c r="H91" s="3">
-        <v>-160800</v>
+        <v>-164700</v>
       </c>
       <c r="I91" s="3">
-        <v>-282600</v>
+        <v>-289400</v>
       </c>
       <c r="J91" s="3">
-        <v>-151800</v>
+        <v>-155500</v>
       </c>
       <c r="K91" s="3">
         <v>-148200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-178800</v>
+        <v>-183100</v>
       </c>
       <c r="E94" s="3">
-        <v>-246800</v>
+        <v>-252700</v>
       </c>
       <c r="F94" s="3">
-        <v>-215300</v>
+        <v>-220500</v>
       </c>
       <c r="G94" s="3">
-        <v>-192200</v>
+        <v>-196900</v>
       </c>
       <c r="H94" s="3">
-        <v>-205600</v>
+        <v>-210600</v>
       </c>
       <c r="I94" s="3">
-        <v>-296300</v>
+        <v>-303500</v>
       </c>
       <c r="J94" s="3">
-        <v>-169800</v>
+        <v>-173900</v>
       </c>
       <c r="K94" s="3">
         <v>-172000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-270400</v>
+        <v>-276900</v>
       </c>
       <c r="E96" s="3">
-        <v>-92800</v>
+        <v>-95000</v>
       </c>
       <c r="F96" s="3">
-        <v>-93200</v>
+        <v>-95400</v>
       </c>
       <c r="G96" s="3">
-        <v>-86600</v>
+        <v>-88700</v>
       </c>
       <c r="H96" s="3">
-        <v>-82000</v>
+        <v>-84000</v>
       </c>
       <c r="I96" s="3">
-        <v>-81000</v>
+        <v>-83000</v>
       </c>
       <c r="J96" s="3">
-        <v>-79000</v>
+        <v>-80900</v>
       </c>
       <c r="K96" s="3">
         <v>-84600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-247300</v>
+        <v>-253300</v>
       </c>
       <c r="E100" s="3">
-        <v>-65700</v>
+        <v>-67300</v>
       </c>
       <c r="F100" s="3">
-        <v>-65700</v>
+        <v>-67300</v>
       </c>
       <c r="G100" s="3">
-        <v>-117900</v>
+        <v>-120700</v>
       </c>
       <c r="H100" s="3">
-        <v>-102700</v>
+        <v>-105200</v>
       </c>
       <c r="I100" s="3">
-        <v>-163900</v>
+        <v>-167800</v>
       </c>
       <c r="J100" s="3">
-        <v>312000</v>
+        <v>319600</v>
       </c>
       <c r="K100" s="3">
         <v>-102600</v>
@@ -3463,10 +3463,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26500</v>
+        <v>-27100</v>
       </c>
       <c r="E101" s="3">
-        <v>-35200</v>
+        <v>-36000</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -3475,13 +3475,13 @@
         <v>1900</v>
       </c>
       <c r="H101" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="I101" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-152100</v>
+        <v>-155800</v>
       </c>
       <c r="E102" s="3">
-        <v>184700</v>
+        <v>189200</v>
       </c>
       <c r="F102" s="3">
-        <v>44700</v>
+        <v>45700</v>
       </c>
       <c r="G102" s="3">
-        <v>-72600</v>
+        <v>-74300</v>
       </c>
       <c r="H102" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="I102" s="3">
-        <v>-240700</v>
+        <v>-246500</v>
       </c>
       <c r="J102" s="3">
-        <v>380100</v>
+        <v>389300</v>
       </c>
       <c r="K102" s="3">
         <v>-96900</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2314600</v>
+        <v>2369300</v>
       </c>
       <c r="E8" s="3">
-        <v>2264800</v>
+        <v>2318300</v>
       </c>
       <c r="F8" s="3">
-        <v>2156900</v>
+        <v>2207900</v>
       </c>
       <c r="G8" s="3">
-        <v>1979800</v>
+        <v>2026600</v>
       </c>
       <c r="H8" s="3">
-        <v>1902900</v>
+        <v>1947900</v>
       </c>
       <c r="I8" s="3">
-        <v>1648400</v>
+        <v>1687400</v>
       </c>
       <c r="J8" s="3">
-        <v>1520500</v>
+        <v>1556400</v>
       </c>
       <c r="K8" s="3">
         <v>1376900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1153600</v>
+        <v>1180800</v>
       </c>
       <c r="E9" s="3">
-        <v>1092200</v>
+        <v>1118000</v>
       </c>
       <c r="F9" s="3">
-        <v>1014400</v>
+        <v>1038400</v>
       </c>
       <c r="G9" s="3">
-        <v>942100</v>
+        <v>964400</v>
       </c>
       <c r="H9" s="3">
-        <v>870000</v>
+        <v>890600</v>
       </c>
       <c r="I9" s="3">
-        <v>767800</v>
+        <v>785900</v>
       </c>
       <c r="J9" s="3">
-        <v>681600</v>
+        <v>697700</v>
       </c>
       <c r="K9" s="3">
         <v>631200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1161100</v>
+        <v>1188500</v>
       </c>
       <c r="E10" s="3">
-        <v>1172600</v>
+        <v>1200300</v>
       </c>
       <c r="F10" s="3">
-        <v>1142500</v>
+        <v>1169500</v>
       </c>
       <c r="G10" s="3">
-        <v>1037700</v>
+        <v>1062200</v>
       </c>
       <c r="H10" s="3">
-        <v>1032900</v>
+        <v>1057300</v>
       </c>
       <c r="I10" s="3">
-        <v>880700</v>
+        <v>901500</v>
       </c>
       <c r="J10" s="3">
-        <v>838900</v>
+        <v>858700</v>
       </c>
       <c r="K10" s="3">
         <v>745700</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-271000</v>
+        <v>-277400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2017500</v>
+        <v>2065100</v>
       </c>
       <c r="E17" s="3">
-        <v>1664400</v>
+        <v>1703700</v>
       </c>
       <c r="F17" s="3">
-        <v>1868400</v>
+        <v>1912500</v>
       </c>
       <c r="G17" s="3">
-        <v>1735600</v>
+        <v>1776600</v>
       </c>
       <c r="H17" s="3">
-        <v>1631900</v>
+        <v>1670400</v>
       </c>
       <c r="I17" s="3">
-        <v>1414800</v>
+        <v>1448200</v>
       </c>
       <c r="J17" s="3">
-        <v>1280200</v>
+        <v>1310400</v>
       </c>
       <c r="K17" s="3">
         <v>1150700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>297100</v>
+        <v>304200</v>
       </c>
       <c r="E18" s="3">
-        <v>600400</v>
+        <v>614600</v>
       </c>
       <c r="F18" s="3">
-        <v>288500</v>
+        <v>295300</v>
       </c>
       <c r="G18" s="3">
-        <v>244200</v>
+        <v>250000</v>
       </c>
       <c r="H18" s="3">
-        <v>271100</v>
+        <v>277500</v>
       </c>
       <c r="I18" s="3">
-        <v>233600</v>
+        <v>239100</v>
       </c>
       <c r="J18" s="3">
-        <v>240300</v>
+        <v>246000</v>
       </c>
       <c r="K18" s="3">
         <v>226200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26200</v>
+        <v>-26800</v>
       </c>
       <c r="E20" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="F20" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="J20" s="3">
-        <v>-27500</v>
+        <v>-28100</v>
       </c>
       <c r="K20" s="3">
         <v>1900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>270900</v>
+        <v>277300</v>
       </c>
       <c r="E21" s="3">
-        <v>611900</v>
+        <v>626300</v>
       </c>
       <c r="F21" s="3">
-        <v>280200</v>
+        <v>286800</v>
       </c>
       <c r="G21" s="3">
-        <v>242100</v>
+        <v>247800</v>
       </c>
       <c r="H21" s="3">
-        <v>271500</v>
+        <v>277900</v>
       </c>
       <c r="I21" s="3">
-        <v>212700</v>
+        <v>217700</v>
       </c>
       <c r="J21" s="3">
-        <v>212900</v>
+        <v>217900</v>
       </c>
       <c r="K21" s="3">
         <v>228100</v>
@@ -1122,19 +1122,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35200</v>
+        <v>36000</v>
       </c>
       <c r="E22" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="F22" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="G22" s="3">
-        <v>25800</v>
+        <v>26400</v>
       </c>
       <c r="H22" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>235700</v>
+        <v>241300</v>
       </c>
       <c r="E23" s="3">
-        <v>581900</v>
+        <v>595700</v>
       </c>
       <c r="F23" s="3">
-        <v>249500</v>
+        <v>255400</v>
       </c>
       <c r="G23" s="3">
-        <v>216300</v>
+        <v>221400</v>
       </c>
       <c r="H23" s="3">
-        <v>242100</v>
+        <v>247800</v>
       </c>
       <c r="I23" s="3">
-        <v>212700</v>
+        <v>217700</v>
       </c>
       <c r="J23" s="3">
-        <v>212900</v>
+        <v>217900</v>
       </c>
       <c r="K23" s="3">
         <v>206200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50800</v>
+        <v>52000</v>
       </c>
       <c r="E24" s="3">
-        <v>172900</v>
+        <v>177000</v>
       </c>
       <c r="F24" s="3">
-        <v>61400</v>
+        <v>62900</v>
       </c>
       <c r="G24" s="3">
-        <v>38400</v>
+        <v>39300</v>
       </c>
       <c r="H24" s="3">
-        <v>63600</v>
+        <v>65100</v>
       </c>
       <c r="I24" s="3">
-        <v>59300</v>
+        <v>60700</v>
       </c>
       <c r="J24" s="3">
-        <v>44100</v>
+        <v>45100</v>
       </c>
       <c r="K24" s="3">
         <v>47500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>185000</v>
+        <v>189300</v>
       </c>
       <c r="E26" s="3">
-        <v>409000</v>
+        <v>418700</v>
       </c>
       <c r="F26" s="3">
-        <v>188100</v>
+        <v>192500</v>
       </c>
       <c r="G26" s="3">
-        <v>177900</v>
+        <v>182100</v>
       </c>
       <c r="H26" s="3">
-        <v>178500</v>
+        <v>182700</v>
       </c>
       <c r="I26" s="3">
-        <v>153400</v>
+        <v>157000</v>
       </c>
       <c r="J26" s="3">
-        <v>168800</v>
+        <v>172800</v>
       </c>
       <c r="K26" s="3">
         <v>158700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>165300</v>
+        <v>169200</v>
       </c>
       <c r="E27" s="3">
-        <v>389800</v>
+        <v>399000</v>
       </c>
       <c r="F27" s="3">
-        <v>164600</v>
+        <v>168500</v>
       </c>
       <c r="G27" s="3">
-        <v>150400</v>
+        <v>154000</v>
       </c>
       <c r="H27" s="3">
-        <v>153400</v>
+        <v>157100</v>
       </c>
       <c r="I27" s="3">
-        <v>134900</v>
+        <v>138100</v>
       </c>
       <c r="J27" s="3">
-        <v>156300</v>
+        <v>159900</v>
       </c>
       <c r="K27" s="3">
         <v>146500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="E32" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="F32" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="G32" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>20900</v>
+        <v>21400</v>
       </c>
       <c r="J32" s="3">
-        <v>27500</v>
+        <v>28100</v>
       </c>
       <c r="K32" s="3">
         <v>-1900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>165300</v>
+        <v>169200</v>
       </c>
       <c r="E33" s="3">
-        <v>389800</v>
+        <v>399000</v>
       </c>
       <c r="F33" s="3">
-        <v>164600</v>
+        <v>168500</v>
       </c>
       <c r="G33" s="3">
-        <v>150400</v>
+        <v>154000</v>
       </c>
       <c r="H33" s="3">
-        <v>153400</v>
+        <v>157100</v>
       </c>
       <c r="I33" s="3">
-        <v>134900</v>
+        <v>138100</v>
       </c>
       <c r="J33" s="3">
-        <v>156300</v>
+        <v>159900</v>
       </c>
       <c r="K33" s="3">
         <v>146500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>165300</v>
+        <v>169200</v>
       </c>
       <c r="E35" s="3">
-        <v>389800</v>
+        <v>399000</v>
       </c>
       <c r="F35" s="3">
-        <v>164600</v>
+        <v>168500</v>
       </c>
       <c r="G35" s="3">
-        <v>150400</v>
+        <v>154000</v>
       </c>
       <c r="H35" s="3">
-        <v>153400</v>
+        <v>157100</v>
       </c>
       <c r="I35" s="3">
-        <v>134900</v>
+        <v>138100</v>
       </c>
       <c r="J35" s="3">
-        <v>156300</v>
+        <v>159900</v>
       </c>
       <c r="K35" s="3">
         <v>146500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113500</v>
+        <v>116200</v>
       </c>
       <c r="E41" s="3">
-        <v>142900</v>
+        <v>146300</v>
       </c>
       <c r="F41" s="3">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="G41" s="3">
-        <v>74400</v>
+        <v>76100</v>
       </c>
       <c r="H41" s="3">
-        <v>95900</v>
+        <v>98100</v>
       </c>
       <c r="I41" s="3">
-        <v>167100</v>
+        <v>171000</v>
       </c>
       <c r="J41" s="3">
-        <v>397700</v>
+        <v>407100</v>
       </c>
       <c r="K41" s="3">
         <v>56900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>148300</v>
+        <v>151800</v>
       </c>
       <c r="E42" s="3">
-        <v>291200</v>
+        <v>298000</v>
       </c>
       <c r="F42" s="3">
-        <v>165100</v>
+        <v>169000</v>
       </c>
       <c r="G42" s="3">
-        <v>106500</v>
+        <v>109000</v>
       </c>
       <c r="H42" s="3">
-        <v>166000</v>
+        <v>169900</v>
       </c>
       <c r="I42" s="3">
-        <v>113900</v>
+        <v>116600</v>
       </c>
       <c r="J42" s="3">
-        <v>127200</v>
+        <v>130200</v>
       </c>
       <c r="K42" s="3">
         <v>75900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>404400</v>
+        <v>414000</v>
       </c>
       <c r="E43" s="3">
-        <v>433100</v>
+        <v>443400</v>
       </c>
       <c r="F43" s="3">
-        <v>406500</v>
+        <v>416100</v>
       </c>
       <c r="G43" s="3">
-        <v>398500</v>
+        <v>407900</v>
       </c>
       <c r="H43" s="3">
-        <v>345800</v>
+        <v>354000</v>
       </c>
       <c r="I43" s="3">
-        <v>342400</v>
+        <v>350500</v>
       </c>
       <c r="J43" s="3">
-        <v>292400</v>
+        <v>299300</v>
       </c>
       <c r="K43" s="3">
         <v>298800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>307200</v>
+        <v>314500</v>
       </c>
       <c r="E44" s="3">
-        <v>300400</v>
+        <v>307500</v>
       </c>
       <c r="F44" s="3">
-        <v>266900</v>
+        <v>273200</v>
       </c>
       <c r="G44" s="3">
-        <v>253100</v>
+        <v>259100</v>
       </c>
       <c r="H44" s="3">
-        <v>221300</v>
+        <v>226500</v>
       </c>
       <c r="I44" s="3">
-        <v>222500</v>
+        <v>227700</v>
       </c>
       <c r="J44" s="3">
-        <v>194400</v>
+        <v>199000</v>
       </c>
       <c r="K44" s="3">
         <v>181600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="E45" s="3">
-        <v>27500</v>
+        <v>28100</v>
       </c>
       <c r="F45" s="3">
-        <v>33400</v>
+        <v>34200</v>
       </c>
       <c r="G45" s="3">
-        <v>33300</v>
+        <v>34000</v>
       </c>
       <c r="H45" s="3">
-        <v>40100</v>
+        <v>41100</v>
       </c>
       <c r="I45" s="3">
-        <v>34200</v>
+        <v>35000</v>
       </c>
       <c r="J45" s="3">
-        <v>27700</v>
+        <v>28400</v>
       </c>
       <c r="K45" s="3">
         <v>21500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1002400</v>
+        <v>1026100</v>
       </c>
       <c r="E46" s="3">
-        <v>1195100</v>
+        <v>1223300</v>
       </c>
       <c r="F46" s="3">
-        <v>926000</v>
+        <v>947800</v>
       </c>
       <c r="G46" s="3">
-        <v>865700</v>
+        <v>886200</v>
       </c>
       <c r="H46" s="3">
-        <v>869100</v>
+        <v>889600</v>
       </c>
       <c r="I46" s="3">
-        <v>870400</v>
+        <v>891000</v>
       </c>
       <c r="J46" s="3">
-        <v>1039500</v>
+        <v>1064000</v>
       </c>
       <c r="K46" s="3">
         <v>634700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>183000</v>
+        <v>187300</v>
       </c>
       <c r="E47" s="3">
-        <v>189100</v>
+        <v>193600</v>
       </c>
       <c r="F47" s="3">
-        <v>133900</v>
+        <v>137000</v>
       </c>
       <c r="G47" s="3">
-        <v>87000</v>
+        <v>89100</v>
       </c>
       <c r="H47" s="3">
-        <v>64200</v>
+        <v>65700</v>
       </c>
       <c r="I47" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="J47" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="K47" s="3">
         <v>22800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1404400</v>
+        <v>1437600</v>
       </c>
       <c r="E48" s="3">
-        <v>1308100</v>
+        <v>1339000</v>
       </c>
       <c r="F48" s="3">
-        <v>1173100</v>
+        <v>1200900</v>
       </c>
       <c r="G48" s="3">
-        <v>1164100</v>
+        <v>1191600</v>
       </c>
       <c r="H48" s="3">
-        <v>1194200</v>
+        <v>1222500</v>
       </c>
       <c r="I48" s="3">
-        <v>1114100</v>
+        <v>1140400</v>
       </c>
       <c r="J48" s="3">
-        <v>906100</v>
+        <v>927500</v>
       </c>
       <c r="K48" s="3">
         <v>815400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>318200</v>
+        <v>325700</v>
       </c>
       <c r="E49" s="3">
-        <v>307400</v>
+        <v>314600</v>
       </c>
       <c r="F49" s="3">
-        <v>218000</v>
+        <v>223100</v>
       </c>
       <c r="G49" s="3">
-        <v>222100</v>
+        <v>227300</v>
       </c>
       <c r="H49" s="3">
-        <v>217600</v>
+        <v>222800</v>
       </c>
       <c r="I49" s="3">
-        <v>197400</v>
+        <v>202100</v>
       </c>
       <c r="J49" s="3">
-        <v>185300</v>
+        <v>189700</v>
       </c>
       <c r="K49" s="3">
         <v>164800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81100</v>
+        <v>83000</v>
       </c>
       <c r="E52" s="3">
-        <v>55800</v>
+        <v>57200</v>
       </c>
       <c r="F52" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="G52" s="3">
-        <v>46500</v>
+        <v>47600</v>
       </c>
       <c r="H52" s="3">
-        <v>50500</v>
+        <v>51700</v>
       </c>
       <c r="I52" s="3">
-        <v>45800</v>
+        <v>46800</v>
       </c>
       <c r="J52" s="3">
-        <v>50600</v>
+        <v>51700</v>
       </c>
       <c r="K52" s="3">
         <v>60200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2989200</v>
+        <v>3059800</v>
       </c>
       <c r="E54" s="3">
-        <v>3055400</v>
+        <v>3127600</v>
       </c>
       <c r="F54" s="3">
-        <v>2509800</v>
+        <v>2569100</v>
       </c>
       <c r="G54" s="3">
-        <v>2377500</v>
+        <v>2433600</v>
       </c>
       <c r="H54" s="3">
-        <v>2318300</v>
+        <v>2373100</v>
       </c>
       <c r="I54" s="3">
-        <v>2246500</v>
+        <v>2299600</v>
       </c>
       <c r="J54" s="3">
-        <v>2194200</v>
+        <v>2246000</v>
       </c>
       <c r="K54" s="3">
         <v>1697900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>315700</v>
+        <v>323200</v>
       </c>
       <c r="E57" s="3">
-        <v>314100</v>
+        <v>321500</v>
       </c>
       <c r="F57" s="3">
-        <v>284900</v>
+        <v>291600</v>
       </c>
       <c r="G57" s="3">
-        <v>596800</v>
+        <v>610900</v>
       </c>
       <c r="H57" s="3">
-        <v>289200</v>
+        <v>296100</v>
       </c>
       <c r="I57" s="3">
-        <v>258800</v>
+        <v>264900</v>
       </c>
       <c r="J57" s="3">
-        <v>233100</v>
+        <v>238600</v>
       </c>
       <c r="K57" s="3">
         <v>182900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>88200</v>
+        <v>90200</v>
       </c>
       <c r="E58" s="3">
-        <v>76900</v>
+        <v>78700</v>
       </c>
       <c r="F58" s="3">
-        <v>58500</v>
+        <v>59900</v>
       </c>
       <c r="G58" s="3">
-        <v>73300</v>
+        <v>75000</v>
       </c>
       <c r="H58" s="3">
-        <v>55500</v>
+        <v>56800</v>
       </c>
       <c r="I58" s="3">
-        <v>81900</v>
+        <v>83800</v>
       </c>
       <c r="J58" s="3">
-        <v>152000</v>
+        <v>155600</v>
       </c>
       <c r="K58" s="3">
         <v>71700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209900</v>
+        <v>214800</v>
       </c>
       <c r="E59" s="3">
-        <v>429100</v>
+        <v>439200</v>
       </c>
       <c r="F59" s="3">
-        <v>251900</v>
+        <v>257900</v>
       </c>
       <c r="G59" s="3">
-        <v>221600</v>
+        <v>226800</v>
       </c>
       <c r="H59" s="3">
-        <v>148900</v>
+        <v>152400</v>
       </c>
       <c r="I59" s="3">
-        <v>139800</v>
+        <v>143100</v>
       </c>
       <c r="J59" s="3">
-        <v>134500</v>
+        <v>137700</v>
       </c>
       <c r="K59" s="3">
         <v>148000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>613800</v>
+        <v>628300</v>
       </c>
       <c r="E60" s="3">
-        <v>820100</v>
+        <v>839400</v>
       </c>
       <c r="F60" s="3">
-        <v>595300</v>
+        <v>609400</v>
       </c>
       <c r="G60" s="3">
-        <v>561800</v>
+        <v>575100</v>
       </c>
       <c r="H60" s="3">
-        <v>493600</v>
+        <v>505300</v>
       </c>
       <c r="I60" s="3">
-        <v>480500</v>
+        <v>491800</v>
       </c>
       <c r="J60" s="3">
-        <v>519600</v>
+        <v>531900</v>
       </c>
       <c r="K60" s="3">
         <v>402600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>332400</v>
+        <v>340300</v>
       </c>
       <c r="E61" s="3">
-        <v>289600</v>
+        <v>296400</v>
       </c>
       <c r="F61" s="3">
-        <v>204500</v>
+        <v>209300</v>
       </c>
       <c r="G61" s="3">
-        <v>149800</v>
+        <v>153300</v>
       </c>
       <c r="H61" s="3">
-        <v>173900</v>
+        <v>178000</v>
       </c>
       <c r="I61" s="3">
-        <v>170800</v>
+        <v>174800</v>
       </c>
       <c r="J61" s="3">
-        <v>181200</v>
+        <v>185500</v>
       </c>
       <c r="K61" s="3">
         <v>267700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>210500</v>
+        <v>215400</v>
       </c>
       <c r="E62" s="3">
-        <v>181600</v>
+        <v>185900</v>
       </c>
       <c r="F62" s="3">
-        <v>152000</v>
+        <v>155500</v>
       </c>
       <c r="G62" s="3">
-        <v>141000</v>
+        <v>144400</v>
       </c>
       <c r="H62" s="3">
-        <v>142600</v>
+        <v>146000</v>
       </c>
       <c r="I62" s="3">
-        <v>136700</v>
+        <v>139900</v>
       </c>
       <c r="J62" s="3">
-        <v>116400</v>
+        <v>119100</v>
       </c>
       <c r="K62" s="3">
         <v>118100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1302600</v>
+        <v>1333300</v>
       </c>
       <c r="E66" s="3">
-        <v>1429700</v>
+        <v>1463500</v>
       </c>
       <c r="F66" s="3">
-        <v>1111400</v>
+        <v>1137700</v>
       </c>
       <c r="G66" s="3">
-        <v>1009300</v>
+        <v>1033100</v>
       </c>
       <c r="H66" s="3">
-        <v>974900</v>
+        <v>997900</v>
       </c>
       <c r="I66" s="3">
-        <v>944000</v>
+        <v>966300</v>
       </c>
       <c r="J66" s="3">
-        <v>938600</v>
+        <v>960800</v>
       </c>
       <c r="K66" s="3">
         <v>912900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1101000</v>
+        <v>1127100</v>
       </c>
       <c r="E72" s="3">
-        <v>1061000</v>
+        <v>1086000</v>
       </c>
       <c r="F72" s="3">
-        <v>652600</v>
+        <v>668000</v>
       </c>
       <c r="G72" s="3">
-        <v>806600</v>
+        <v>825700</v>
       </c>
       <c r="H72" s="3">
-        <v>750000</v>
+        <v>767700</v>
       </c>
       <c r="I72" s="3">
-        <v>674000</v>
+        <v>689900</v>
       </c>
       <c r="J72" s="3">
-        <v>617200</v>
+        <v>631800</v>
       </c>
       <c r="K72" s="3">
         <v>489200</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1686600</v>
+        <v>1726500</v>
       </c>
       <c r="E76" s="3">
-        <v>1625800</v>
+        <v>1664200</v>
       </c>
       <c r="F76" s="3">
-        <v>1398400</v>
+        <v>1431400</v>
       </c>
       <c r="G76" s="3">
-        <v>1368200</v>
+        <v>1400500</v>
       </c>
       <c r="H76" s="3">
-        <v>1343400</v>
+        <v>1375200</v>
       </c>
       <c r="I76" s="3">
-        <v>1302500</v>
+        <v>1333300</v>
       </c>
       <c r="J76" s="3">
-        <v>1255600</v>
+        <v>1285300</v>
       </c>
       <c r="K76" s="3">
         <v>784900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>165300</v>
+        <v>169200</v>
       </c>
       <c r="E81" s="3">
-        <v>389800</v>
+        <v>399000</v>
       </c>
       <c r="F81" s="3">
-        <v>164600</v>
+        <v>168500</v>
       </c>
       <c r="G81" s="3">
-        <v>150400</v>
+        <v>154000</v>
       </c>
       <c r="H81" s="3">
-        <v>153400</v>
+        <v>157100</v>
       </c>
       <c r="I81" s="3">
-        <v>134900</v>
+        <v>138100</v>
       </c>
       <c r="J81" s="3">
-        <v>156300</v>
+        <v>159900</v>
       </c>
       <c r="K81" s="3">
         <v>146500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>307700</v>
+        <v>315000</v>
       </c>
       <c r="E89" s="3">
-        <v>545200</v>
+        <v>558100</v>
       </c>
       <c r="F89" s="3">
-        <v>332900</v>
+        <v>340800</v>
       </c>
       <c r="G89" s="3">
-        <v>241300</v>
+        <v>247000</v>
       </c>
       <c r="H89" s="3">
-        <v>278800</v>
+        <v>285400</v>
       </c>
       <c r="I89" s="3">
-        <v>220500</v>
+        <v>225700</v>
       </c>
       <c r="J89" s="3">
-        <v>246600</v>
+        <v>252400</v>
       </c>
       <c r="K89" s="3">
         <v>177700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-171000</v>
+        <v>-175100</v>
       </c>
       <c r="E91" s="3">
-        <v>-163000</v>
+        <v>-166900</v>
       </c>
       <c r="F91" s="3">
-        <v>-156900</v>
+        <v>-160600</v>
       </c>
       <c r="G91" s="3">
-        <v>-159600</v>
+        <v>-163400</v>
       </c>
       <c r="H91" s="3">
-        <v>-164700</v>
+        <v>-168600</v>
       </c>
       <c r="I91" s="3">
-        <v>-289400</v>
+        <v>-296200</v>
       </c>
       <c r="J91" s="3">
-        <v>-155500</v>
+        <v>-159200</v>
       </c>
       <c r="K91" s="3">
         <v>-148200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-183100</v>
+        <v>-187400</v>
       </c>
       <c r="E94" s="3">
-        <v>-252700</v>
+        <v>-258700</v>
       </c>
       <c r="F94" s="3">
-        <v>-220500</v>
+        <v>-225700</v>
       </c>
       <c r="G94" s="3">
-        <v>-196900</v>
+        <v>-201500</v>
       </c>
       <c r="H94" s="3">
-        <v>-210600</v>
+        <v>-215600</v>
       </c>
       <c r="I94" s="3">
-        <v>-303500</v>
+        <v>-310700</v>
       </c>
       <c r="J94" s="3">
-        <v>-173900</v>
+        <v>-178000</v>
       </c>
       <c r="K94" s="3">
         <v>-172000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-276900</v>
+        <v>-283400</v>
       </c>
       <c r="E96" s="3">
-        <v>-95000</v>
+        <v>-97300</v>
       </c>
       <c r="F96" s="3">
-        <v>-95400</v>
+        <v>-97700</v>
       </c>
       <c r="G96" s="3">
-        <v>-88700</v>
+        <v>-90800</v>
       </c>
       <c r="H96" s="3">
-        <v>-84000</v>
+        <v>-86000</v>
       </c>
       <c r="I96" s="3">
-        <v>-83000</v>
+        <v>-84900</v>
       </c>
       <c r="J96" s="3">
-        <v>-80900</v>
+        <v>-82800</v>
       </c>
       <c r="K96" s="3">
         <v>-84600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-253300</v>
+        <v>-259200</v>
       </c>
       <c r="E100" s="3">
-        <v>-67300</v>
+        <v>-68900</v>
       </c>
       <c r="F100" s="3">
-        <v>-67300</v>
+        <v>-68900</v>
       </c>
       <c r="G100" s="3">
-        <v>-120700</v>
+        <v>-123600</v>
       </c>
       <c r="H100" s="3">
-        <v>-105200</v>
+        <v>-107700</v>
       </c>
       <c r="I100" s="3">
-        <v>-167800</v>
+        <v>-171800</v>
       </c>
       <c r="J100" s="3">
-        <v>319600</v>
+        <v>327100</v>
       </c>
       <c r="K100" s="3">
         <v>-102600</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-27100</v>
+        <v>-27800</v>
       </c>
       <c r="E101" s="3">
-        <v>-36000</v>
+        <v>-36900</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
       </c>
       <c r="G101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="I101" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J101" s="3">
         <v>-3000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-155800</v>
+        <v>-159400</v>
       </c>
       <c r="E102" s="3">
-        <v>189200</v>
+        <v>193700</v>
       </c>
       <c r="F102" s="3">
-        <v>45700</v>
+        <v>46800</v>
       </c>
       <c r="G102" s="3">
-        <v>-74300</v>
+        <v>-76100</v>
       </c>
       <c r="H102" s="3">
-        <v>-28200</v>
+        <v>-28900</v>
       </c>
       <c r="I102" s="3">
-        <v>-246500</v>
+        <v>-252300</v>
       </c>
       <c r="J102" s="3">
-        <v>389300</v>
+        <v>398500</v>
       </c>
       <c r="K102" s="3">
         <v>-96900</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>CCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2369300</v>
+        <v>2563500</v>
       </c>
       <c r="E8" s="3">
-        <v>2318300</v>
+        <v>2515100</v>
       </c>
       <c r="F8" s="3">
-        <v>2207900</v>
+        <v>2460900</v>
       </c>
       <c r="G8" s="3">
-        <v>2026600</v>
+        <v>2343700</v>
       </c>
       <c r="H8" s="3">
-        <v>1947900</v>
+        <v>2151300</v>
       </c>
       <c r="I8" s="3">
-        <v>1687400</v>
+        <v>2067800</v>
       </c>
       <c r="J8" s="3">
+        <v>1791200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1556400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1376900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1464000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1180800</v>
+        <v>1358000</v>
       </c>
       <c r="E9" s="3">
-        <v>1118000</v>
+        <v>1253500</v>
       </c>
       <c r="F9" s="3">
-        <v>1038400</v>
+        <v>1186800</v>
       </c>
       <c r="G9" s="3">
-        <v>964400</v>
+        <v>1102300</v>
       </c>
       <c r="H9" s="3">
-        <v>890600</v>
+        <v>1023700</v>
       </c>
       <c r="I9" s="3">
-        <v>785900</v>
+        <v>945400</v>
       </c>
       <c r="J9" s="3">
+        <v>834300</v>
+      </c>
+      <c r="K9" s="3">
         <v>697700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>631200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>676300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1188500</v>
+        <v>1205500</v>
       </c>
       <c r="E10" s="3">
-        <v>1200300</v>
+        <v>1261600</v>
       </c>
       <c r="F10" s="3">
-        <v>1169500</v>
+        <v>1274100</v>
       </c>
       <c r="G10" s="3">
-        <v>1062200</v>
+        <v>1241500</v>
       </c>
       <c r="H10" s="3">
-        <v>1057300</v>
+        <v>1127600</v>
       </c>
       <c r="I10" s="3">
-        <v>901500</v>
+        <v>1122300</v>
       </c>
       <c r="J10" s="3">
+        <v>956900</v>
+      </c>
+      <c r="K10" s="3">
         <v>858700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>745700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>787800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="E14" s="3">
-        <v>-277400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-294500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-20100</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2065100</v>
+        <v>2321700</v>
       </c>
       <c r="E17" s="3">
-        <v>1703700</v>
+        <v>2192200</v>
       </c>
       <c r="F17" s="3">
-        <v>1912500</v>
+        <v>1808500</v>
       </c>
       <c r="G17" s="3">
-        <v>1776600</v>
+        <v>2030200</v>
       </c>
       <c r="H17" s="3">
-        <v>1670400</v>
+        <v>1885900</v>
       </c>
       <c r="I17" s="3">
-        <v>1448200</v>
+        <v>1773200</v>
       </c>
       <c r="J17" s="3">
+        <v>1537300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1310400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1150700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1168300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>304200</v>
+        <v>241700</v>
       </c>
       <c r="E18" s="3">
-        <v>614600</v>
+        <v>322900</v>
       </c>
       <c r="F18" s="3">
-        <v>295300</v>
+        <v>652400</v>
       </c>
       <c r="G18" s="3">
-        <v>250000</v>
+        <v>313500</v>
       </c>
       <c r="H18" s="3">
-        <v>277500</v>
+        <v>265400</v>
       </c>
       <c r="I18" s="3">
-        <v>239100</v>
+        <v>294600</v>
       </c>
       <c r="J18" s="3">
+        <v>253900</v>
+      </c>
+      <c r="K18" s="3">
         <v>246000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>226200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>295700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26800</v>
+        <v>-4000</v>
       </c>
       <c r="E20" s="3">
-        <v>11700</v>
+        <v>-28500</v>
       </c>
       <c r="F20" s="3">
-        <v>-8500</v>
+        <v>12400</v>
       </c>
       <c r="G20" s="3">
-        <v>-2200</v>
+        <v>-9000</v>
       </c>
       <c r="H20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>-21400</v>
-      </c>
       <c r="J20" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-28100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>277300</v>
+        <v>237800</v>
       </c>
       <c r="E21" s="3">
-        <v>626300</v>
+        <v>294400</v>
       </c>
       <c r="F21" s="3">
-        <v>286800</v>
+        <v>664800</v>
       </c>
       <c r="G21" s="3">
-        <v>247800</v>
+        <v>304500</v>
       </c>
       <c r="H21" s="3">
-        <v>277900</v>
+        <v>263100</v>
       </c>
       <c r="I21" s="3">
-        <v>217700</v>
+        <v>295000</v>
       </c>
       <c r="J21" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K21" s="3">
         <v>217900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>228100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>293600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36000</v>
+        <v>39600</v>
       </c>
       <c r="E22" s="3">
-        <v>30600</v>
+        <v>38300</v>
       </c>
       <c r="F22" s="3">
-        <v>31400</v>
+        <v>32500</v>
       </c>
       <c r="G22" s="3">
-        <v>26400</v>
+        <v>33300</v>
       </c>
       <c r="H22" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>28000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>31900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>21800</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>21800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>241300</v>
+        <v>198200</v>
       </c>
       <c r="E23" s="3">
-        <v>595700</v>
+        <v>256200</v>
       </c>
       <c r="F23" s="3">
-        <v>255400</v>
+        <v>632300</v>
       </c>
       <c r="G23" s="3">
-        <v>221400</v>
+        <v>271100</v>
       </c>
       <c r="H23" s="3">
-        <v>247800</v>
+        <v>235100</v>
       </c>
       <c r="I23" s="3">
-        <v>217700</v>
+        <v>263100</v>
       </c>
       <c r="J23" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K23" s="3">
         <v>217900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>206200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>271800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52000</v>
+        <v>48900</v>
       </c>
       <c r="E24" s="3">
-        <v>177000</v>
+        <v>55200</v>
       </c>
       <c r="F24" s="3">
-        <v>62900</v>
+        <v>187900</v>
       </c>
       <c r="G24" s="3">
-        <v>39300</v>
+        <v>66700</v>
       </c>
       <c r="H24" s="3">
-        <v>65100</v>
+        <v>41700</v>
       </c>
       <c r="I24" s="3">
-        <v>60700</v>
+        <v>69200</v>
       </c>
       <c r="J24" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K24" s="3">
         <v>45100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>68200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>189300</v>
+        <v>149300</v>
       </c>
       <c r="E26" s="3">
-        <v>418700</v>
+        <v>201000</v>
       </c>
       <c r="F26" s="3">
-        <v>192500</v>
+        <v>444500</v>
       </c>
       <c r="G26" s="3">
-        <v>182100</v>
+        <v>204400</v>
       </c>
       <c r="H26" s="3">
-        <v>182700</v>
+        <v>193300</v>
       </c>
       <c r="I26" s="3">
-        <v>157000</v>
+        <v>193900</v>
       </c>
       <c r="J26" s="3">
+        <v>166700</v>
+      </c>
+      <c r="K26" s="3">
         <v>172800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>158700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>203600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169200</v>
+        <v>132700</v>
       </c>
       <c r="E27" s="3">
-        <v>399000</v>
+        <v>179600</v>
       </c>
       <c r="F27" s="3">
-        <v>168500</v>
+        <v>423500</v>
       </c>
       <c r="G27" s="3">
-        <v>154000</v>
+        <v>178900</v>
       </c>
       <c r="H27" s="3">
-        <v>157100</v>
+        <v>163500</v>
       </c>
       <c r="I27" s="3">
-        <v>138100</v>
+        <v>166700</v>
       </c>
       <c r="J27" s="3">
+        <v>146600</v>
+      </c>
+      <c r="K27" s="3">
         <v>159900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>185400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26800</v>
+        <v>4000</v>
       </c>
       <c r="E32" s="3">
-        <v>-11700</v>
+        <v>28500</v>
       </c>
       <c r="F32" s="3">
-        <v>8500</v>
+        <v>-12400</v>
       </c>
       <c r="G32" s="3">
-        <v>2200</v>
+        <v>9000</v>
       </c>
       <c r="H32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>21400</v>
-      </c>
       <c r="J32" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K32" s="3">
         <v>28100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169200</v>
+        <v>132700</v>
       </c>
       <c r="E33" s="3">
-        <v>399000</v>
+        <v>179600</v>
       </c>
       <c r="F33" s="3">
-        <v>168500</v>
+        <v>423500</v>
       </c>
       <c r="G33" s="3">
-        <v>154000</v>
+        <v>178900</v>
       </c>
       <c r="H33" s="3">
-        <v>157100</v>
+        <v>163500</v>
       </c>
       <c r="I33" s="3">
-        <v>138100</v>
+        <v>166700</v>
       </c>
       <c r="J33" s="3">
+        <v>146600</v>
+      </c>
+      <c r="K33" s="3">
         <v>159900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>185400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169200</v>
+        <v>132700</v>
       </c>
       <c r="E35" s="3">
-        <v>399000</v>
+        <v>179600</v>
       </c>
       <c r="F35" s="3">
-        <v>168500</v>
+        <v>423500</v>
       </c>
       <c r="G35" s="3">
-        <v>154000</v>
+        <v>178900</v>
       </c>
       <c r="H35" s="3">
-        <v>157100</v>
+        <v>163500</v>
       </c>
       <c r="I35" s="3">
-        <v>138100</v>
+        <v>166700</v>
       </c>
       <c r="J35" s="3">
+        <v>146600</v>
+      </c>
+      <c r="K35" s="3">
         <v>159900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>185400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116200</v>
+        <v>273000</v>
       </c>
       <c r="E41" s="3">
-        <v>146300</v>
+        <v>123400</v>
       </c>
       <c r="F41" s="3">
-        <v>66000</v>
+        <v>155300</v>
       </c>
       <c r="G41" s="3">
-        <v>76100</v>
+        <v>70100</v>
       </c>
       <c r="H41" s="3">
-        <v>98100</v>
+        <v>80800</v>
       </c>
       <c r="I41" s="3">
-        <v>171000</v>
+        <v>104200</v>
       </c>
       <c r="J41" s="3">
+        <v>181600</v>
+      </c>
+      <c r="K41" s="3">
         <v>407100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>151800</v>
+        <v>290900</v>
       </c>
       <c r="E42" s="3">
-        <v>298000</v>
+        <v>161200</v>
       </c>
       <c r="F42" s="3">
-        <v>169000</v>
+        <v>316400</v>
       </c>
       <c r="G42" s="3">
-        <v>109000</v>
+        <v>179400</v>
       </c>
       <c r="H42" s="3">
-        <v>169900</v>
+        <v>115800</v>
       </c>
       <c r="I42" s="3">
-        <v>116600</v>
+        <v>180400</v>
       </c>
       <c r="J42" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K42" s="3">
         <v>130200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>75900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>240000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>414000</v>
+        <v>402400</v>
       </c>
       <c r="E43" s="3">
-        <v>443400</v>
+        <v>439400</v>
       </c>
       <c r="F43" s="3">
-        <v>416100</v>
+        <v>470700</v>
       </c>
       <c r="G43" s="3">
-        <v>407900</v>
+        <v>441700</v>
       </c>
       <c r="H43" s="3">
-        <v>354000</v>
+        <v>433000</v>
       </c>
       <c r="I43" s="3">
-        <v>350500</v>
+        <v>375700</v>
       </c>
       <c r="J43" s="3">
+        <v>372100</v>
+      </c>
+      <c r="K43" s="3">
         <v>299300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>298800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>332600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>314500</v>
+        <v>334600</v>
       </c>
       <c r="E44" s="3">
-        <v>307500</v>
+        <v>333800</v>
       </c>
       <c r="F44" s="3">
-        <v>273200</v>
+        <v>326400</v>
       </c>
       <c r="G44" s="3">
-        <v>259100</v>
+        <v>290000</v>
       </c>
       <c r="H44" s="3">
-        <v>226500</v>
+        <v>275000</v>
       </c>
       <c r="I44" s="3">
-        <v>227700</v>
+        <v>240400</v>
       </c>
       <c r="J44" s="3">
+        <v>241700</v>
+      </c>
+      <c r="K44" s="3">
         <v>199000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>181600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>194100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29600</v>
+        <v>24000</v>
       </c>
       <c r="E45" s="3">
-        <v>28100</v>
+        <v>31400</v>
       </c>
       <c r="F45" s="3">
-        <v>34200</v>
+        <v>29900</v>
       </c>
       <c r="G45" s="3">
-        <v>34000</v>
+        <v>36300</v>
       </c>
       <c r="H45" s="3">
-        <v>41100</v>
+        <v>36100</v>
       </c>
       <c r="I45" s="3">
-        <v>35000</v>
+        <v>43600</v>
       </c>
       <c r="J45" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K45" s="3">
         <v>28400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1026100</v>
+        <v>1324800</v>
       </c>
       <c r="E46" s="3">
-        <v>1223300</v>
+        <v>1089200</v>
       </c>
       <c r="F46" s="3">
-        <v>947800</v>
+        <v>1298600</v>
       </c>
       <c r="G46" s="3">
-        <v>886200</v>
+        <v>1006200</v>
       </c>
       <c r="H46" s="3">
-        <v>889600</v>
+        <v>940700</v>
       </c>
       <c r="I46" s="3">
-        <v>891000</v>
+        <v>944400</v>
       </c>
       <c r="J46" s="3">
+        <v>945800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1064000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>634700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>817500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>187300</v>
+        <v>200200</v>
       </c>
       <c r="E47" s="3">
-        <v>193600</v>
+        <v>198900</v>
       </c>
       <c r="F47" s="3">
-        <v>137000</v>
+        <v>205500</v>
       </c>
       <c r="G47" s="3">
-        <v>89100</v>
+        <v>145500</v>
       </c>
       <c r="H47" s="3">
-        <v>65700</v>
+        <v>94600</v>
       </c>
       <c r="I47" s="3">
-        <v>42700</v>
+        <v>69700</v>
       </c>
       <c r="J47" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K47" s="3">
         <v>23300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1437600</v>
+        <v>1539100</v>
       </c>
       <c r="E48" s="3">
-        <v>1339000</v>
+        <v>1526100</v>
       </c>
       <c r="F48" s="3">
-        <v>1200900</v>
+        <v>1421400</v>
       </c>
       <c r="G48" s="3">
-        <v>1191600</v>
+        <v>1274800</v>
       </c>
       <c r="H48" s="3">
-        <v>1222500</v>
+        <v>1264900</v>
       </c>
       <c r="I48" s="3">
-        <v>1140400</v>
+        <v>1297700</v>
       </c>
       <c r="J48" s="3">
+        <v>1210600</v>
+      </c>
+      <c r="K48" s="3">
         <v>927500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>815400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>880300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>325700</v>
+        <v>338700</v>
       </c>
       <c r="E49" s="3">
-        <v>314600</v>
+        <v>345800</v>
       </c>
       <c r="F49" s="3">
-        <v>223100</v>
+        <v>334000</v>
       </c>
       <c r="G49" s="3">
-        <v>227300</v>
+        <v>236900</v>
       </c>
       <c r="H49" s="3">
-        <v>222800</v>
+        <v>241300</v>
       </c>
       <c r="I49" s="3">
+        <v>236500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>214500</v>
+      </c>
+      <c r="K49" s="3">
+        <v>189700</v>
+      </c>
+      <c r="L49" s="3">
+        <v>164800</v>
+      </c>
+      <c r="M49" s="3">
         <v>202100</v>
       </c>
-      <c r="J49" s="3">
-        <v>189700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>164800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>202100</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83000</v>
+        <v>82100</v>
       </c>
       <c r="E52" s="3">
-        <v>57200</v>
+        <v>88100</v>
       </c>
       <c r="F52" s="3">
+        <v>60700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>63900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>50500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>54900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>51700</v>
+      </c>
+      <c r="L52" s="3">
         <v>60200</v>
       </c>
-      <c r="G52" s="3">
-        <v>47600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>51700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>46800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>51700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>60200</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3059800</v>
+        <v>3485000</v>
       </c>
       <c r="E54" s="3">
-        <v>3127600</v>
+        <v>3248100</v>
       </c>
       <c r="F54" s="3">
-        <v>2569100</v>
+        <v>3320100</v>
       </c>
       <c r="G54" s="3">
-        <v>2433600</v>
+        <v>2727200</v>
       </c>
       <c r="H54" s="3">
-        <v>2373100</v>
+        <v>2583400</v>
       </c>
       <c r="I54" s="3">
-        <v>2299600</v>
+        <v>2519100</v>
       </c>
       <c r="J54" s="3">
+        <v>2441100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2246000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1697900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1960500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>323200</v>
+        <v>353600</v>
       </c>
       <c r="E57" s="3">
-        <v>321500</v>
+        <v>343100</v>
       </c>
       <c r="F57" s="3">
-        <v>291600</v>
+        <v>341300</v>
       </c>
       <c r="G57" s="3">
-        <v>610900</v>
+        <v>309600</v>
       </c>
       <c r="H57" s="3">
-        <v>296100</v>
+        <v>648500</v>
       </c>
       <c r="I57" s="3">
-        <v>264900</v>
+        <v>314300</v>
       </c>
       <c r="J57" s="3">
+        <v>281200</v>
+      </c>
+      <c r="K57" s="3">
         <v>238600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>182900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>214000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>90200</v>
+        <v>91900</v>
       </c>
       <c r="E58" s="3">
-        <v>78700</v>
+        <v>95800</v>
       </c>
       <c r="F58" s="3">
-        <v>59900</v>
+        <v>83600</v>
       </c>
       <c r="G58" s="3">
-        <v>75000</v>
+        <v>63500</v>
       </c>
       <c r="H58" s="3">
-        <v>56800</v>
+        <v>79600</v>
       </c>
       <c r="I58" s="3">
-        <v>83800</v>
+        <v>60300</v>
       </c>
       <c r="J58" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K58" s="3">
         <v>155600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>71700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>135200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>214800</v>
+        <v>274200</v>
       </c>
       <c r="E59" s="3">
-        <v>439200</v>
+        <v>228000</v>
       </c>
       <c r="F59" s="3">
-        <v>257900</v>
+        <v>466200</v>
       </c>
       <c r="G59" s="3">
-        <v>226800</v>
+        <v>273800</v>
       </c>
       <c r="H59" s="3">
-        <v>152400</v>
+        <v>240800</v>
       </c>
       <c r="I59" s="3">
-        <v>143100</v>
+        <v>161800</v>
       </c>
       <c r="J59" s="3">
+        <v>151900</v>
+      </c>
+      <c r="K59" s="3">
         <v>137700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>198900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>628300</v>
+        <v>719700</v>
       </c>
       <c r="E60" s="3">
-        <v>839400</v>
+        <v>666900</v>
       </c>
       <c r="F60" s="3">
-        <v>609400</v>
+        <v>891100</v>
       </c>
       <c r="G60" s="3">
-        <v>575100</v>
+        <v>646900</v>
       </c>
       <c r="H60" s="3">
-        <v>505300</v>
+        <v>610500</v>
       </c>
       <c r="I60" s="3">
-        <v>491800</v>
+        <v>536400</v>
       </c>
       <c r="J60" s="3">
+        <v>522100</v>
+      </c>
+      <c r="K60" s="3">
         <v>531900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>402600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>547500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>340300</v>
+        <v>607300</v>
       </c>
       <c r="E61" s="3">
-        <v>296400</v>
+        <v>361200</v>
       </c>
       <c r="F61" s="3">
-        <v>209300</v>
+        <v>314700</v>
       </c>
       <c r="G61" s="3">
-        <v>153300</v>
+        <v>222200</v>
       </c>
       <c r="H61" s="3">
-        <v>178000</v>
+        <v>162800</v>
       </c>
       <c r="I61" s="3">
-        <v>174800</v>
+        <v>189000</v>
       </c>
       <c r="J61" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K61" s="3">
         <v>185500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>267700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>258100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>215400</v>
+        <v>213800</v>
       </c>
       <c r="E62" s="3">
-        <v>185900</v>
+        <v>228700</v>
       </c>
       <c r="F62" s="3">
-        <v>155500</v>
+        <v>197300</v>
       </c>
       <c r="G62" s="3">
-        <v>144400</v>
+        <v>165100</v>
       </c>
       <c r="H62" s="3">
-        <v>146000</v>
+        <v>153300</v>
       </c>
       <c r="I62" s="3">
-        <v>139900</v>
+        <v>155000</v>
       </c>
       <c r="J62" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K62" s="3">
         <v>119100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>118100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>120900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1333300</v>
+        <v>1695700</v>
       </c>
       <c r="E66" s="3">
-        <v>1463500</v>
+        <v>1415400</v>
       </c>
       <c r="F66" s="3">
-        <v>1137700</v>
+        <v>1553500</v>
       </c>
       <c r="G66" s="3">
-        <v>1033100</v>
+        <v>1207700</v>
       </c>
       <c r="H66" s="3">
-        <v>997900</v>
+        <v>1096700</v>
       </c>
       <c r="I66" s="3">
-        <v>966300</v>
+        <v>1059300</v>
       </c>
       <c r="J66" s="3">
+        <v>1025800</v>
+      </c>
+      <c r="K66" s="3">
         <v>960800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>912900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1101400</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1127100</v>
+        <v>1220700</v>
       </c>
       <c r="E72" s="3">
-        <v>1086000</v>
+        <v>1196400</v>
       </c>
       <c r="F72" s="3">
-        <v>668000</v>
+        <v>1152900</v>
       </c>
       <c r="G72" s="3">
-        <v>825700</v>
+        <v>709100</v>
       </c>
       <c r="H72" s="3">
-        <v>767700</v>
+        <v>876500</v>
       </c>
       <c r="I72" s="3">
-        <v>689900</v>
+        <v>815000</v>
       </c>
       <c r="J72" s="3">
+        <v>732400</v>
+      </c>
+      <c r="K72" s="3">
         <v>631800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>489200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>510300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1726500</v>
+        <v>1789300</v>
       </c>
       <c r="E76" s="3">
-        <v>1664200</v>
+        <v>1832700</v>
       </c>
       <c r="F76" s="3">
-        <v>1431400</v>
+        <v>1766600</v>
       </c>
       <c r="G76" s="3">
-        <v>1400500</v>
+        <v>1519500</v>
       </c>
       <c r="H76" s="3">
-        <v>1375200</v>
+        <v>1486700</v>
       </c>
       <c r="I76" s="3">
-        <v>1333300</v>
+        <v>1459800</v>
       </c>
       <c r="J76" s="3">
+        <v>1415300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1285300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>784900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>859200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169200</v>
+        <v>132700</v>
       </c>
       <c r="E81" s="3">
-        <v>399000</v>
+        <v>179600</v>
       </c>
       <c r="F81" s="3">
-        <v>168500</v>
+        <v>423500</v>
       </c>
       <c r="G81" s="3">
-        <v>154000</v>
+        <v>178900</v>
       </c>
       <c r="H81" s="3">
-        <v>157100</v>
+        <v>163500</v>
       </c>
       <c r="I81" s="3">
-        <v>138100</v>
+        <v>166700</v>
       </c>
       <c r="J81" s="3">
+        <v>146600</v>
+      </c>
+      <c r="K81" s="3">
         <v>159900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>185400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,8 +3096,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2931,9 +3129,12 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>315000</v>
+        <v>387300</v>
       </c>
       <c r="E89" s="3">
-        <v>558100</v>
+        <v>334400</v>
       </c>
       <c r="F89" s="3">
-        <v>340800</v>
+        <v>592500</v>
       </c>
       <c r="G89" s="3">
-        <v>247000</v>
+        <v>361800</v>
       </c>
       <c r="H89" s="3">
-        <v>285400</v>
+        <v>262200</v>
       </c>
       <c r="I89" s="3">
-        <v>225700</v>
+        <v>302900</v>
       </c>
       <c r="J89" s="3">
+        <v>239600</v>
+      </c>
+      <c r="K89" s="3">
         <v>252400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>253300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-175100</v>
+        <v>-161500</v>
       </c>
       <c r="E91" s="3">
-        <v>-166900</v>
+        <v>-185800</v>
       </c>
       <c r="F91" s="3">
-        <v>-160600</v>
+        <v>-177100</v>
       </c>
       <c r="G91" s="3">
-        <v>-163400</v>
+        <v>-170500</v>
       </c>
       <c r="H91" s="3">
-        <v>-168600</v>
+        <v>-173500</v>
       </c>
       <c r="I91" s="3">
-        <v>-296200</v>
+        <v>-178900</v>
       </c>
       <c r="J91" s="3">
+        <v>-314500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-159200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-148200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-117500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-187400</v>
+        <v>-194000</v>
       </c>
       <c r="E94" s="3">
-        <v>-258700</v>
+        <v>-199000</v>
       </c>
       <c r="F94" s="3">
-        <v>-225700</v>
+        <v>-274600</v>
       </c>
       <c r="G94" s="3">
-        <v>-201500</v>
+        <v>-239600</v>
       </c>
       <c r="H94" s="3">
-        <v>-215600</v>
+        <v>-213900</v>
       </c>
       <c r="I94" s="3">
-        <v>-310700</v>
+        <v>-228800</v>
       </c>
       <c r="J94" s="3">
+        <v>-329800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-178000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-172000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-115100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-283400</v>
+        <v>-140900</v>
       </c>
       <c r="E96" s="3">
-        <v>-97300</v>
+        <v>-300900</v>
       </c>
       <c r="F96" s="3">
-        <v>-97700</v>
+        <v>-103300</v>
       </c>
       <c r="G96" s="3">
-        <v>-90800</v>
+        <v>-103700</v>
       </c>
       <c r="H96" s="3">
-        <v>-86000</v>
+        <v>-96400</v>
       </c>
       <c r="I96" s="3">
-        <v>-84900</v>
+        <v>-91300</v>
       </c>
       <c r="J96" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-82800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-84600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-94800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-259200</v>
+        <v>89400</v>
       </c>
       <c r="E100" s="3">
-        <v>-68900</v>
+        <v>-275200</v>
       </c>
       <c r="F100" s="3">
-        <v>-68900</v>
+        <v>-73100</v>
       </c>
       <c r="G100" s="3">
-        <v>-123600</v>
+        <v>-73100</v>
       </c>
       <c r="H100" s="3">
-        <v>-107700</v>
+        <v>-131200</v>
       </c>
       <c r="I100" s="3">
-        <v>-171800</v>
+        <v>-114300</v>
       </c>
       <c r="J100" s="3">
+        <v>-182400</v>
+      </c>
+      <c r="K100" s="3">
         <v>327100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-102600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-98500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-27800</v>
+        <v>-6700</v>
       </c>
       <c r="E101" s="3">
-        <v>-36900</v>
+        <v>-29500</v>
       </c>
       <c r="F101" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
-        <v>2000</v>
-      </c>
       <c r="H101" s="3">
-        <v>9000</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="J101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-159400</v>
+        <v>276000</v>
       </c>
       <c r="E102" s="3">
-        <v>193700</v>
+        <v>-169200</v>
       </c>
       <c r="F102" s="3">
-        <v>46800</v>
+        <v>205600</v>
       </c>
       <c r="G102" s="3">
-        <v>-76100</v>
+        <v>49700</v>
       </c>
       <c r="H102" s="3">
-        <v>-28900</v>
+        <v>-80800</v>
       </c>
       <c r="I102" s="3">
-        <v>-252300</v>
+        <v>-30700</v>
       </c>
       <c r="J102" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="K102" s="3">
         <v>398500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-96900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2563500</v>
+        <v>2526300</v>
       </c>
       <c r="E8" s="3">
-        <v>2515100</v>
+        <v>2478700</v>
       </c>
       <c r="F8" s="3">
-        <v>2460900</v>
+        <v>2425300</v>
       </c>
       <c r="G8" s="3">
-        <v>2343700</v>
+        <v>2309800</v>
       </c>
       <c r="H8" s="3">
-        <v>2151300</v>
+        <v>2120100</v>
       </c>
       <c r="I8" s="3">
-        <v>2067800</v>
+        <v>2037800</v>
       </c>
       <c r="J8" s="3">
-        <v>1791200</v>
+        <v>1765200</v>
       </c>
       <c r="K8" s="3">
         <v>1556400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1358000</v>
+        <v>1338300</v>
       </c>
       <c r="E9" s="3">
-        <v>1253500</v>
+        <v>1235300</v>
       </c>
       <c r="F9" s="3">
-        <v>1186800</v>
+        <v>1169600</v>
       </c>
       <c r="G9" s="3">
-        <v>1102300</v>
+        <v>1086300</v>
       </c>
       <c r="H9" s="3">
-        <v>1023700</v>
+        <v>1008900</v>
       </c>
       <c r="I9" s="3">
-        <v>945400</v>
+        <v>931700</v>
       </c>
       <c r="J9" s="3">
-        <v>834300</v>
+        <v>822200</v>
       </c>
       <c r="K9" s="3">
         <v>697700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1205500</v>
+        <v>1188000</v>
       </c>
       <c r="E10" s="3">
-        <v>1261600</v>
+        <v>1243300</v>
       </c>
       <c r="F10" s="3">
-        <v>1274100</v>
+        <v>1255600</v>
       </c>
       <c r="G10" s="3">
-        <v>1241500</v>
+        <v>1223500</v>
       </c>
       <c r="H10" s="3">
-        <v>1127600</v>
+        <v>1111200</v>
       </c>
       <c r="I10" s="3">
-        <v>1122300</v>
+        <v>1106100</v>
       </c>
       <c r="J10" s="3">
-        <v>956900</v>
+        <v>943100</v>
       </c>
       <c r="K10" s="3">
         <v>858700</v>
@@ -916,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-294500</v>
+        <v>-290200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2321700</v>
+        <v>2288100</v>
       </c>
       <c r="E17" s="3">
-        <v>2192200</v>
+        <v>2160500</v>
       </c>
       <c r="F17" s="3">
-        <v>1808500</v>
+        <v>1782300</v>
       </c>
       <c r="G17" s="3">
-        <v>2030200</v>
+        <v>2000800</v>
       </c>
       <c r="H17" s="3">
-        <v>1885900</v>
+        <v>1858600</v>
       </c>
       <c r="I17" s="3">
-        <v>1773200</v>
+        <v>1747500</v>
       </c>
       <c r="J17" s="3">
-        <v>1537300</v>
+        <v>1515100</v>
       </c>
       <c r="K17" s="3">
         <v>1310400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>241700</v>
+        <v>238200</v>
       </c>
       <c r="E18" s="3">
-        <v>322900</v>
+        <v>318200</v>
       </c>
       <c r="F18" s="3">
-        <v>652400</v>
+        <v>642900</v>
       </c>
       <c r="G18" s="3">
-        <v>313500</v>
+        <v>309000</v>
       </c>
       <c r="H18" s="3">
-        <v>265400</v>
+        <v>261500</v>
       </c>
       <c r="I18" s="3">
-        <v>294600</v>
+        <v>290300</v>
       </c>
       <c r="J18" s="3">
-        <v>253900</v>
+        <v>250200</v>
       </c>
       <c r="K18" s="3">
         <v>246000</v>
@@ -1089,16 +1089,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="E20" s="3">
-        <v>-28500</v>
+        <v>-28000</v>
       </c>
       <c r="F20" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="G20" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="H20" s="3">
         <v>-2300</v>
@@ -1107,7 +1107,7 @@
         <v>400</v>
       </c>
       <c r="J20" s="3">
-        <v>-22800</v>
+        <v>-22400</v>
       </c>
       <c r="K20" s="3">
         <v>-28100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>237800</v>
+        <v>234400</v>
       </c>
       <c r="E21" s="3">
-        <v>294400</v>
+        <v>290100</v>
       </c>
       <c r="F21" s="3">
-        <v>664800</v>
+        <v>655200</v>
       </c>
       <c r="G21" s="3">
-        <v>304500</v>
+        <v>300100</v>
       </c>
       <c r="H21" s="3">
-        <v>263100</v>
+        <v>259300</v>
       </c>
       <c r="I21" s="3">
-        <v>295000</v>
+        <v>290700</v>
       </c>
       <c r="J21" s="3">
-        <v>231100</v>
+        <v>227800</v>
       </c>
       <c r="K21" s="3">
         <v>217900</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="E22" s="3">
-        <v>38300</v>
+        <v>37700</v>
       </c>
       <c r="F22" s="3">
-        <v>32500</v>
+        <v>32000</v>
       </c>
       <c r="G22" s="3">
-        <v>33300</v>
+        <v>32900</v>
       </c>
       <c r="H22" s="3">
-        <v>28000</v>
+        <v>27600</v>
       </c>
       <c r="I22" s="3">
-        <v>31900</v>
+        <v>31400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>198200</v>
+        <v>195300</v>
       </c>
       <c r="E23" s="3">
-        <v>256200</v>
+        <v>252400</v>
       </c>
       <c r="F23" s="3">
-        <v>632300</v>
+        <v>623200</v>
       </c>
       <c r="G23" s="3">
-        <v>271100</v>
+        <v>267200</v>
       </c>
       <c r="H23" s="3">
-        <v>235100</v>
+        <v>231600</v>
       </c>
       <c r="I23" s="3">
-        <v>263100</v>
+        <v>259300</v>
       </c>
       <c r="J23" s="3">
-        <v>231100</v>
+        <v>227800</v>
       </c>
       <c r="K23" s="3">
         <v>217900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48900</v>
+        <v>48200</v>
       </c>
       <c r="E24" s="3">
-        <v>55200</v>
+        <v>54400</v>
       </c>
       <c r="F24" s="3">
-        <v>187900</v>
+        <v>185100</v>
       </c>
       <c r="G24" s="3">
-        <v>66700</v>
+        <v>65800</v>
       </c>
       <c r="H24" s="3">
-        <v>41700</v>
+        <v>41100</v>
       </c>
       <c r="I24" s="3">
-        <v>69200</v>
+        <v>68200</v>
       </c>
       <c r="J24" s="3">
-        <v>64400</v>
+        <v>63500</v>
       </c>
       <c r="K24" s="3">
         <v>45100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>149300</v>
+        <v>147100</v>
       </c>
       <c r="E26" s="3">
-        <v>201000</v>
+        <v>198100</v>
       </c>
       <c r="F26" s="3">
-        <v>444500</v>
+        <v>438000</v>
       </c>
       <c r="G26" s="3">
-        <v>204400</v>
+        <v>201400</v>
       </c>
       <c r="H26" s="3">
-        <v>193300</v>
+        <v>190500</v>
       </c>
       <c r="I26" s="3">
-        <v>193900</v>
+        <v>191100</v>
       </c>
       <c r="J26" s="3">
-        <v>166700</v>
+        <v>164300</v>
       </c>
       <c r="K26" s="3">
         <v>172800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>132700</v>
+        <v>130800</v>
       </c>
       <c r="E27" s="3">
-        <v>179600</v>
+        <v>177000</v>
       </c>
       <c r="F27" s="3">
-        <v>423500</v>
+        <v>417400</v>
       </c>
       <c r="G27" s="3">
-        <v>178900</v>
+        <v>176300</v>
       </c>
       <c r="H27" s="3">
-        <v>163500</v>
+        <v>161100</v>
       </c>
       <c r="I27" s="3">
-        <v>166700</v>
+        <v>164300</v>
       </c>
       <c r="J27" s="3">
-        <v>146600</v>
+        <v>144500</v>
       </c>
       <c r="K27" s="3">
         <v>159900</v>
@@ -1521,16 +1521,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E32" s="3">
-        <v>28500</v>
+        <v>28000</v>
       </c>
       <c r="F32" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="G32" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="H32" s="3">
         <v>2300</v>
@@ -1539,7 +1539,7 @@
         <v>-400</v>
       </c>
       <c r="J32" s="3">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="K32" s="3">
         <v>28100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132700</v>
+        <v>130800</v>
       </c>
       <c r="E33" s="3">
-        <v>179600</v>
+        <v>177000</v>
       </c>
       <c r="F33" s="3">
-        <v>423500</v>
+        <v>417400</v>
       </c>
       <c r="G33" s="3">
-        <v>178900</v>
+        <v>176300</v>
       </c>
       <c r="H33" s="3">
-        <v>163500</v>
+        <v>161100</v>
       </c>
       <c r="I33" s="3">
-        <v>166700</v>
+        <v>164300</v>
       </c>
       <c r="J33" s="3">
-        <v>146600</v>
+        <v>144500</v>
       </c>
       <c r="K33" s="3">
         <v>159900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132700</v>
+        <v>130800</v>
       </c>
       <c r="E35" s="3">
-        <v>179600</v>
+        <v>177000</v>
       </c>
       <c r="F35" s="3">
-        <v>423500</v>
+        <v>417400</v>
       </c>
       <c r="G35" s="3">
-        <v>178900</v>
+        <v>176300</v>
       </c>
       <c r="H35" s="3">
-        <v>163500</v>
+        <v>161100</v>
       </c>
       <c r="I35" s="3">
-        <v>166700</v>
+        <v>164300</v>
       </c>
       <c r="J35" s="3">
-        <v>146600</v>
+        <v>144500</v>
       </c>
       <c r="K35" s="3">
         <v>159900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>273000</v>
+        <v>269100</v>
       </c>
       <c r="E41" s="3">
-        <v>123400</v>
+        <v>121600</v>
       </c>
       <c r="F41" s="3">
-        <v>155300</v>
+        <v>153000</v>
       </c>
       <c r="G41" s="3">
-        <v>70100</v>
+        <v>69000</v>
       </c>
       <c r="H41" s="3">
-        <v>80800</v>
+        <v>79600</v>
       </c>
       <c r="I41" s="3">
-        <v>104200</v>
+        <v>102700</v>
       </c>
       <c r="J41" s="3">
-        <v>181600</v>
+        <v>178900</v>
       </c>
       <c r="K41" s="3">
         <v>407100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>290900</v>
+        <v>286600</v>
       </c>
       <c r="E42" s="3">
-        <v>161200</v>
+        <v>158800</v>
       </c>
       <c r="F42" s="3">
-        <v>316400</v>
+        <v>311800</v>
       </c>
       <c r="G42" s="3">
-        <v>179400</v>
+        <v>176800</v>
       </c>
       <c r="H42" s="3">
-        <v>115800</v>
+        <v>114100</v>
       </c>
       <c r="I42" s="3">
-        <v>180400</v>
+        <v>177800</v>
       </c>
       <c r="J42" s="3">
-        <v>123800</v>
+        <v>122000</v>
       </c>
       <c r="K42" s="3">
         <v>130200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>402400</v>
+        <v>396500</v>
       </c>
       <c r="E43" s="3">
-        <v>439400</v>
+        <v>433100</v>
       </c>
       <c r="F43" s="3">
-        <v>470700</v>
+        <v>463800</v>
       </c>
       <c r="G43" s="3">
-        <v>441700</v>
+        <v>435300</v>
       </c>
       <c r="H43" s="3">
-        <v>433000</v>
+        <v>426700</v>
       </c>
       <c r="I43" s="3">
-        <v>375700</v>
+        <v>370300</v>
       </c>
       <c r="J43" s="3">
-        <v>372100</v>
+        <v>366700</v>
       </c>
       <c r="K43" s="3">
         <v>299300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>334600</v>
+        <v>329700</v>
       </c>
       <c r="E44" s="3">
-        <v>333800</v>
+        <v>329000</v>
       </c>
       <c r="F44" s="3">
-        <v>326400</v>
+        <v>321700</v>
       </c>
       <c r="G44" s="3">
-        <v>290000</v>
+        <v>285800</v>
       </c>
       <c r="H44" s="3">
-        <v>275000</v>
+        <v>271100</v>
       </c>
       <c r="I44" s="3">
-        <v>240400</v>
+        <v>236900</v>
       </c>
       <c r="J44" s="3">
-        <v>241700</v>
+        <v>238200</v>
       </c>
       <c r="K44" s="3">
         <v>199000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="E45" s="3">
-        <v>31400</v>
+        <v>31000</v>
       </c>
       <c r="F45" s="3">
-        <v>29900</v>
+        <v>29400</v>
       </c>
       <c r="G45" s="3">
-        <v>36300</v>
+        <v>35800</v>
       </c>
       <c r="H45" s="3">
-        <v>36100</v>
+        <v>35600</v>
       </c>
       <c r="I45" s="3">
-        <v>43600</v>
+        <v>43000</v>
       </c>
       <c r="J45" s="3">
-        <v>37200</v>
+        <v>36700</v>
       </c>
       <c r="K45" s="3">
         <v>28400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1324800</v>
+        <v>1305600</v>
       </c>
       <c r="E46" s="3">
-        <v>1089200</v>
+        <v>1073400</v>
       </c>
       <c r="F46" s="3">
-        <v>1298600</v>
+        <v>1279800</v>
       </c>
       <c r="G46" s="3">
-        <v>1006200</v>
+        <v>991600</v>
       </c>
       <c r="H46" s="3">
-        <v>940700</v>
+        <v>927100</v>
       </c>
       <c r="I46" s="3">
-        <v>944400</v>
+        <v>930700</v>
       </c>
       <c r="J46" s="3">
-        <v>945800</v>
+        <v>932100</v>
       </c>
       <c r="K46" s="3">
         <v>1064000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200200</v>
+        <v>197300</v>
       </c>
       <c r="E47" s="3">
-        <v>198900</v>
+        <v>196000</v>
       </c>
       <c r="F47" s="3">
-        <v>205500</v>
+        <v>202500</v>
       </c>
       <c r="G47" s="3">
-        <v>145500</v>
+        <v>143400</v>
       </c>
       <c r="H47" s="3">
-        <v>94600</v>
+        <v>93200</v>
       </c>
       <c r="I47" s="3">
-        <v>69700</v>
+        <v>68700</v>
       </c>
       <c r="J47" s="3">
-        <v>45400</v>
+        <v>44700</v>
       </c>
       <c r="K47" s="3">
         <v>23300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1539100</v>
+        <v>1516800</v>
       </c>
       <c r="E48" s="3">
-        <v>1526100</v>
+        <v>1504000</v>
       </c>
       <c r="F48" s="3">
-        <v>1421400</v>
+        <v>1400800</v>
       </c>
       <c r="G48" s="3">
-        <v>1274800</v>
+        <v>1256300</v>
       </c>
       <c r="H48" s="3">
-        <v>1264900</v>
+        <v>1246600</v>
       </c>
       <c r="I48" s="3">
-        <v>1297700</v>
+        <v>1278900</v>
       </c>
       <c r="J48" s="3">
-        <v>1210600</v>
+        <v>1193100</v>
       </c>
       <c r="K48" s="3">
         <v>927500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>338700</v>
+        <v>333800</v>
       </c>
       <c r="E49" s="3">
-        <v>345800</v>
+        <v>340800</v>
       </c>
       <c r="F49" s="3">
-        <v>334000</v>
+        <v>329100</v>
       </c>
       <c r="G49" s="3">
-        <v>236900</v>
+        <v>233400</v>
       </c>
       <c r="H49" s="3">
-        <v>241300</v>
+        <v>237800</v>
       </c>
       <c r="I49" s="3">
-        <v>236500</v>
+        <v>233000</v>
       </c>
       <c r="J49" s="3">
-        <v>214500</v>
+        <v>211400</v>
       </c>
       <c r="K49" s="3">
         <v>189700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>82100</v>
+        <v>81000</v>
       </c>
       <c r="E52" s="3">
-        <v>88100</v>
+        <v>86900</v>
       </c>
       <c r="F52" s="3">
-        <v>60700</v>
+        <v>59800</v>
       </c>
       <c r="G52" s="3">
-        <v>63900</v>
+        <v>63000</v>
       </c>
       <c r="H52" s="3">
-        <v>50500</v>
+        <v>49800</v>
       </c>
       <c r="I52" s="3">
-        <v>54900</v>
+        <v>54100</v>
       </c>
       <c r="J52" s="3">
-        <v>49700</v>
+        <v>49000</v>
       </c>
       <c r="K52" s="3">
         <v>51700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3485000</v>
+        <v>3434500</v>
       </c>
       <c r="E54" s="3">
-        <v>3248100</v>
+        <v>3201000</v>
       </c>
       <c r="F54" s="3">
-        <v>3320100</v>
+        <v>3272000</v>
       </c>
       <c r="G54" s="3">
-        <v>2727200</v>
+        <v>2687700</v>
       </c>
       <c r="H54" s="3">
-        <v>2583400</v>
+        <v>2546000</v>
       </c>
       <c r="I54" s="3">
-        <v>2519100</v>
+        <v>2482600</v>
       </c>
       <c r="J54" s="3">
-        <v>2441100</v>
+        <v>2405700</v>
       </c>
       <c r="K54" s="3">
         <v>2246000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>353600</v>
+        <v>348500</v>
       </c>
       <c r="E57" s="3">
-        <v>343100</v>
+        <v>338100</v>
       </c>
       <c r="F57" s="3">
-        <v>341300</v>
+        <v>336400</v>
       </c>
       <c r="G57" s="3">
-        <v>309600</v>
+        <v>305100</v>
       </c>
       <c r="H57" s="3">
-        <v>648500</v>
+        <v>639100</v>
       </c>
       <c r="I57" s="3">
-        <v>314300</v>
+        <v>309700</v>
       </c>
       <c r="J57" s="3">
-        <v>281200</v>
+        <v>277100</v>
       </c>
       <c r="K57" s="3">
         <v>238600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>91900</v>
+        <v>90500</v>
       </c>
       <c r="E58" s="3">
-        <v>95800</v>
+        <v>94400</v>
       </c>
       <c r="F58" s="3">
-        <v>83600</v>
+        <v>82300</v>
       </c>
       <c r="G58" s="3">
-        <v>63500</v>
+        <v>62600</v>
       </c>
       <c r="H58" s="3">
-        <v>79600</v>
+        <v>78400</v>
       </c>
       <c r="I58" s="3">
-        <v>60300</v>
+        <v>59400</v>
       </c>
       <c r="J58" s="3">
-        <v>89000</v>
+        <v>87700</v>
       </c>
       <c r="K58" s="3">
         <v>155600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>274200</v>
+        <v>270300</v>
       </c>
       <c r="E59" s="3">
-        <v>228000</v>
+        <v>224700</v>
       </c>
       <c r="F59" s="3">
-        <v>466200</v>
+        <v>459500</v>
       </c>
       <c r="G59" s="3">
-        <v>273800</v>
+        <v>269800</v>
       </c>
       <c r="H59" s="3">
-        <v>240800</v>
+        <v>237300</v>
       </c>
       <c r="I59" s="3">
-        <v>161800</v>
+        <v>159500</v>
       </c>
       <c r="J59" s="3">
-        <v>151900</v>
+        <v>149700</v>
       </c>
       <c r="K59" s="3">
         <v>137700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>719700</v>
+        <v>709300</v>
       </c>
       <c r="E60" s="3">
-        <v>666900</v>
+        <v>657300</v>
       </c>
       <c r="F60" s="3">
-        <v>891100</v>
+        <v>878200</v>
       </c>
       <c r="G60" s="3">
-        <v>646900</v>
+        <v>637500</v>
       </c>
       <c r="H60" s="3">
-        <v>610500</v>
+        <v>601600</v>
       </c>
       <c r="I60" s="3">
-        <v>536400</v>
+        <v>528600</v>
       </c>
       <c r="J60" s="3">
-        <v>522100</v>
+        <v>514500</v>
       </c>
       <c r="K60" s="3">
         <v>531900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>607300</v>
+        <v>598500</v>
       </c>
       <c r="E61" s="3">
-        <v>361200</v>
+        <v>356000</v>
       </c>
       <c r="F61" s="3">
-        <v>314700</v>
+        <v>310100</v>
       </c>
       <c r="G61" s="3">
-        <v>222200</v>
+        <v>219000</v>
       </c>
       <c r="H61" s="3">
-        <v>162800</v>
+        <v>160400</v>
       </c>
       <c r="I61" s="3">
-        <v>189000</v>
+        <v>186200</v>
       </c>
       <c r="J61" s="3">
-        <v>185600</v>
+        <v>182900</v>
       </c>
       <c r="K61" s="3">
         <v>185500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>213800</v>
+        <v>210700</v>
       </c>
       <c r="E62" s="3">
-        <v>228700</v>
+        <v>225400</v>
       </c>
       <c r="F62" s="3">
-        <v>197300</v>
+        <v>194500</v>
       </c>
       <c r="G62" s="3">
-        <v>165100</v>
+        <v>162700</v>
       </c>
       <c r="H62" s="3">
-        <v>153300</v>
+        <v>151000</v>
       </c>
       <c r="I62" s="3">
-        <v>155000</v>
+        <v>152700</v>
       </c>
       <c r="J62" s="3">
-        <v>148500</v>
+        <v>146300</v>
       </c>
       <c r="K62" s="3">
         <v>119100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1695700</v>
+        <v>1671100</v>
       </c>
       <c r="E66" s="3">
-        <v>1415400</v>
+        <v>1394900</v>
       </c>
       <c r="F66" s="3">
-        <v>1553500</v>
+        <v>1531000</v>
       </c>
       <c r="G66" s="3">
-        <v>1207700</v>
+        <v>1190200</v>
       </c>
       <c r="H66" s="3">
-        <v>1096700</v>
+        <v>1080800</v>
       </c>
       <c r="I66" s="3">
-        <v>1059300</v>
+        <v>1044000</v>
       </c>
       <c r="J66" s="3">
-        <v>1025800</v>
+        <v>1010900</v>
       </c>
       <c r="K66" s="3">
         <v>960800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1220700</v>
+        <v>1203000</v>
       </c>
       <c r="E72" s="3">
-        <v>1196400</v>
+        <v>1179100</v>
       </c>
       <c r="F72" s="3">
-        <v>1152900</v>
+        <v>1136200</v>
       </c>
       <c r="G72" s="3">
-        <v>709100</v>
+        <v>698800</v>
       </c>
       <c r="H72" s="3">
-        <v>876500</v>
+        <v>863800</v>
       </c>
       <c r="I72" s="3">
-        <v>815000</v>
+        <v>803200</v>
       </c>
       <c r="J72" s="3">
-        <v>732400</v>
+        <v>721800</v>
       </c>
       <c r="K72" s="3">
         <v>631800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1789300</v>
+        <v>1763300</v>
       </c>
       <c r="E76" s="3">
-        <v>1832700</v>
+        <v>1806200</v>
       </c>
       <c r="F76" s="3">
-        <v>1766600</v>
+        <v>1741000</v>
       </c>
       <c r="G76" s="3">
-        <v>1519500</v>
+        <v>1497500</v>
       </c>
       <c r="H76" s="3">
-        <v>1486700</v>
+        <v>1465100</v>
       </c>
       <c r="I76" s="3">
-        <v>1459800</v>
+        <v>1438600</v>
       </c>
       <c r="J76" s="3">
-        <v>1415300</v>
+        <v>1394800</v>
       </c>
       <c r="K76" s="3">
         <v>1285300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132700</v>
+        <v>130800</v>
       </c>
       <c r="E81" s="3">
-        <v>179600</v>
+        <v>177000</v>
       </c>
       <c r="F81" s="3">
-        <v>423500</v>
+        <v>417400</v>
       </c>
       <c r="G81" s="3">
-        <v>178900</v>
+        <v>176300</v>
       </c>
       <c r="H81" s="3">
-        <v>163500</v>
+        <v>161100</v>
       </c>
       <c r="I81" s="3">
-        <v>166700</v>
+        <v>164300</v>
       </c>
       <c r="J81" s="3">
-        <v>146600</v>
+        <v>144500</v>
       </c>
       <c r="K81" s="3">
         <v>159900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>387300</v>
+        <v>381700</v>
       </c>
       <c r="E89" s="3">
-        <v>334400</v>
+        <v>329600</v>
       </c>
       <c r="F89" s="3">
-        <v>592500</v>
+        <v>583900</v>
       </c>
       <c r="G89" s="3">
-        <v>361800</v>
+        <v>356500</v>
       </c>
       <c r="H89" s="3">
-        <v>262200</v>
+        <v>258400</v>
       </c>
       <c r="I89" s="3">
-        <v>302900</v>
+        <v>298500</v>
       </c>
       <c r="J89" s="3">
-        <v>239600</v>
+        <v>236100</v>
       </c>
       <c r="K89" s="3">
         <v>252400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-161500</v>
+        <v>-159100</v>
       </c>
       <c r="E91" s="3">
-        <v>-185800</v>
+        <v>-183100</v>
       </c>
       <c r="F91" s="3">
-        <v>-177100</v>
+        <v>-174600</v>
       </c>
       <c r="G91" s="3">
-        <v>-170500</v>
+        <v>-168000</v>
       </c>
       <c r="H91" s="3">
-        <v>-173500</v>
+        <v>-170900</v>
       </c>
       <c r="I91" s="3">
-        <v>-178900</v>
+        <v>-176300</v>
       </c>
       <c r="J91" s="3">
-        <v>-314500</v>
+        <v>-309900</v>
       </c>
       <c r="K91" s="3">
         <v>-159200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-194000</v>
+        <v>-191100</v>
       </c>
       <c r="E94" s="3">
-        <v>-199000</v>
+        <v>-196100</v>
       </c>
       <c r="F94" s="3">
-        <v>-274600</v>
+        <v>-270600</v>
       </c>
       <c r="G94" s="3">
-        <v>-239600</v>
+        <v>-236100</v>
       </c>
       <c r="H94" s="3">
-        <v>-213900</v>
+        <v>-210800</v>
       </c>
       <c r="I94" s="3">
-        <v>-228800</v>
+        <v>-225500</v>
       </c>
       <c r="J94" s="3">
-        <v>-329800</v>
+        <v>-325000</v>
       </c>
       <c r="K94" s="3">
         <v>-178000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-140900</v>
+        <v>-138900</v>
       </c>
       <c r="E96" s="3">
-        <v>-300900</v>
+        <v>-296500</v>
       </c>
       <c r="F96" s="3">
-        <v>-103300</v>
+        <v>-101800</v>
       </c>
       <c r="G96" s="3">
-        <v>-103700</v>
+        <v>-102200</v>
       </c>
       <c r="H96" s="3">
-        <v>-96400</v>
+        <v>-95000</v>
       </c>
       <c r="I96" s="3">
-        <v>-91300</v>
+        <v>-90000</v>
       </c>
       <c r="J96" s="3">
-        <v>-90100</v>
+        <v>-88800</v>
       </c>
       <c r="K96" s="3">
         <v>-82800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89400</v>
+        <v>88100</v>
       </c>
       <c r="E100" s="3">
-        <v>-275200</v>
+        <v>-271200</v>
       </c>
       <c r="F100" s="3">
-        <v>-73100</v>
+        <v>-72000</v>
       </c>
       <c r="G100" s="3">
-        <v>-73100</v>
+        <v>-72100</v>
       </c>
       <c r="H100" s="3">
-        <v>-131200</v>
+        <v>-129300</v>
       </c>
       <c r="I100" s="3">
-        <v>-114300</v>
+        <v>-112700</v>
       </c>
       <c r="J100" s="3">
-        <v>-182400</v>
+        <v>-179700</v>
       </c>
       <c r="K100" s="3">
         <v>327100</v>
@@ -3711,13 +3711,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="E101" s="3">
-        <v>-29500</v>
+        <v>-29000</v>
       </c>
       <c r="F101" s="3">
-        <v>-39200</v>
+        <v>-38600</v>
       </c>
       <c r="G101" s="3">
         <v>600</v>
@@ -3726,7 +3726,7 @@
         <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J101" s="3">
         <v>4700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>276000</v>
+        <v>272000</v>
       </c>
       <c r="E102" s="3">
-        <v>-169200</v>
+        <v>-166800</v>
       </c>
       <c r="F102" s="3">
-        <v>205600</v>
+        <v>202600</v>
       </c>
       <c r="G102" s="3">
-        <v>49700</v>
+        <v>49000</v>
       </c>
       <c r="H102" s="3">
-        <v>-80800</v>
+        <v>-79600</v>
       </c>
       <c r="I102" s="3">
-        <v>-30700</v>
+        <v>-30200</v>
       </c>
       <c r="J102" s="3">
-        <v>-267800</v>
+        <v>-263900</v>
       </c>
       <c r="K102" s="3">
         <v>398500</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2526300</v>
+        <v>2359100</v>
       </c>
       <c r="E8" s="3">
-        <v>2478700</v>
+        <v>2314600</v>
       </c>
       <c r="F8" s="3">
-        <v>2425300</v>
+        <v>2264800</v>
       </c>
       <c r="G8" s="3">
-        <v>2309800</v>
+        <v>2156900</v>
       </c>
       <c r="H8" s="3">
-        <v>2120100</v>
+        <v>1979800</v>
       </c>
       <c r="I8" s="3">
-        <v>2037800</v>
+        <v>1902900</v>
       </c>
       <c r="J8" s="3">
-        <v>1765200</v>
+        <v>1648400</v>
       </c>
       <c r="K8" s="3">
         <v>1556400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1338300</v>
+        <v>1249700</v>
       </c>
       <c r="E9" s="3">
-        <v>1235300</v>
+        <v>1153600</v>
       </c>
       <c r="F9" s="3">
-        <v>1169600</v>
+        <v>1092200</v>
       </c>
       <c r="G9" s="3">
-        <v>1086300</v>
+        <v>1014400</v>
       </c>
       <c r="H9" s="3">
-        <v>1008900</v>
+        <v>942100</v>
       </c>
       <c r="I9" s="3">
-        <v>931700</v>
+        <v>870000</v>
       </c>
       <c r="J9" s="3">
-        <v>822200</v>
+        <v>767800</v>
       </c>
       <c r="K9" s="3">
         <v>697700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1188000</v>
+        <v>1109400</v>
       </c>
       <c r="E10" s="3">
-        <v>1243300</v>
+        <v>1161100</v>
       </c>
       <c r="F10" s="3">
-        <v>1255600</v>
+        <v>1172600</v>
       </c>
       <c r="G10" s="3">
-        <v>1223500</v>
+        <v>1142500</v>
       </c>
       <c r="H10" s="3">
-        <v>1111200</v>
+        <v>1037700</v>
       </c>
       <c r="I10" s="3">
-        <v>1106100</v>
+        <v>1032900</v>
       </c>
       <c r="J10" s="3">
-        <v>943100</v>
+        <v>880700</v>
       </c>
       <c r="K10" s="3">
         <v>858700</v>
@@ -916,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-290200</v>
+        <v>-271000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2288100</v>
+        <v>2136700</v>
       </c>
       <c r="E17" s="3">
-        <v>2160500</v>
+        <v>2017500</v>
       </c>
       <c r="F17" s="3">
-        <v>1782300</v>
+        <v>1664400</v>
       </c>
       <c r="G17" s="3">
-        <v>2000800</v>
+        <v>1868400</v>
       </c>
       <c r="H17" s="3">
-        <v>1858600</v>
+        <v>1735600</v>
       </c>
       <c r="I17" s="3">
-        <v>1747500</v>
+        <v>1631900</v>
       </c>
       <c r="J17" s="3">
-        <v>1515100</v>
+        <v>1414800</v>
       </c>
       <c r="K17" s="3">
         <v>1310400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>238200</v>
+        <v>222500</v>
       </c>
       <c r="E18" s="3">
-        <v>318200</v>
+        <v>297100</v>
       </c>
       <c r="F18" s="3">
-        <v>642900</v>
+        <v>600400</v>
       </c>
       <c r="G18" s="3">
-        <v>309000</v>
+        <v>288500</v>
       </c>
       <c r="H18" s="3">
-        <v>261500</v>
+        <v>244200</v>
       </c>
       <c r="I18" s="3">
-        <v>290300</v>
+        <v>271100</v>
       </c>
       <c r="J18" s="3">
-        <v>250200</v>
+        <v>233600</v>
       </c>
       <c r="K18" s="3">
         <v>246000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="E20" s="3">
-        <v>-28000</v>
+        <v>-26200</v>
       </c>
       <c r="F20" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="G20" s="3">
-        <v>-8900</v>
+        <v>-8300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
-        <v>-22400</v>
+        <v>-20900</v>
       </c>
       <c r="K20" s="3">
         <v>-28100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>234400</v>
+        <v>218800</v>
       </c>
       <c r="E21" s="3">
-        <v>290100</v>
+        <v>270900</v>
       </c>
       <c r="F21" s="3">
-        <v>655200</v>
+        <v>611900</v>
       </c>
       <c r="G21" s="3">
-        <v>300100</v>
+        <v>280200</v>
       </c>
       <c r="H21" s="3">
-        <v>259300</v>
+        <v>242100</v>
       </c>
       <c r="I21" s="3">
-        <v>290700</v>
+        <v>271500</v>
       </c>
       <c r="J21" s="3">
-        <v>227800</v>
+        <v>212700</v>
       </c>
       <c r="K21" s="3">
         <v>217900</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39100</v>
+        <v>36500</v>
       </c>
       <c r="E22" s="3">
-        <v>37700</v>
+        <v>35200</v>
       </c>
       <c r="F22" s="3">
-        <v>32000</v>
+        <v>29900</v>
       </c>
       <c r="G22" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="H22" s="3">
-        <v>27600</v>
+        <v>25800</v>
       </c>
       <c r="I22" s="3">
-        <v>31400</v>
+        <v>29300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>195300</v>
+        <v>182400</v>
       </c>
       <c r="E23" s="3">
-        <v>252400</v>
+        <v>235700</v>
       </c>
       <c r="F23" s="3">
-        <v>623200</v>
+        <v>581900</v>
       </c>
       <c r="G23" s="3">
-        <v>267200</v>
+        <v>249500</v>
       </c>
       <c r="H23" s="3">
-        <v>231600</v>
+        <v>216300</v>
       </c>
       <c r="I23" s="3">
-        <v>259300</v>
+        <v>242100</v>
       </c>
       <c r="J23" s="3">
-        <v>227800</v>
+        <v>212700</v>
       </c>
       <c r="K23" s="3">
         <v>217900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48200</v>
+        <v>45000</v>
       </c>
       <c r="E24" s="3">
-        <v>54400</v>
+        <v>50800</v>
       </c>
       <c r="F24" s="3">
-        <v>185100</v>
+        <v>172900</v>
       </c>
       <c r="G24" s="3">
-        <v>65800</v>
+        <v>61400</v>
       </c>
       <c r="H24" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="I24" s="3">
-        <v>68200</v>
+        <v>63600</v>
       </c>
       <c r="J24" s="3">
-        <v>63500</v>
+        <v>59300</v>
       </c>
       <c r="K24" s="3">
         <v>45100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>147100</v>
+        <v>137400</v>
       </c>
       <c r="E26" s="3">
-        <v>198100</v>
+        <v>185000</v>
       </c>
       <c r="F26" s="3">
-        <v>438000</v>
+        <v>409000</v>
       </c>
       <c r="G26" s="3">
-        <v>201400</v>
+        <v>188100</v>
       </c>
       <c r="H26" s="3">
-        <v>190500</v>
+        <v>177900</v>
       </c>
       <c r="I26" s="3">
-        <v>191100</v>
+        <v>178500</v>
       </c>
       <c r="J26" s="3">
-        <v>164300</v>
+        <v>153400</v>
       </c>
       <c r="K26" s="3">
         <v>172800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>130800</v>
+        <v>122100</v>
       </c>
       <c r="E27" s="3">
-        <v>177000</v>
+        <v>165300</v>
       </c>
       <c r="F27" s="3">
-        <v>417400</v>
+        <v>389800</v>
       </c>
       <c r="G27" s="3">
-        <v>176300</v>
+        <v>164600</v>
       </c>
       <c r="H27" s="3">
-        <v>161100</v>
+        <v>150400</v>
       </c>
       <c r="I27" s="3">
-        <v>164300</v>
+        <v>153400</v>
       </c>
       <c r="J27" s="3">
-        <v>144500</v>
+        <v>134900</v>
       </c>
       <c r="K27" s="3">
         <v>159900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="E32" s="3">
-        <v>28000</v>
+        <v>26200</v>
       </c>
       <c r="F32" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="G32" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="H32" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
-        <v>22400</v>
+        <v>20900</v>
       </c>
       <c r="K32" s="3">
         <v>28100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>130800</v>
+        <v>122100</v>
       </c>
       <c r="E33" s="3">
-        <v>177000</v>
+        <v>165300</v>
       </c>
       <c r="F33" s="3">
-        <v>417400</v>
+        <v>389800</v>
       </c>
       <c r="G33" s="3">
-        <v>176300</v>
+        <v>164600</v>
       </c>
       <c r="H33" s="3">
-        <v>161100</v>
+        <v>150400</v>
       </c>
       <c r="I33" s="3">
-        <v>164300</v>
+        <v>153400</v>
       </c>
       <c r="J33" s="3">
-        <v>144500</v>
+        <v>134900</v>
       </c>
       <c r="K33" s="3">
         <v>159900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>130800</v>
+        <v>122100</v>
       </c>
       <c r="E35" s="3">
-        <v>177000</v>
+        <v>165300</v>
       </c>
       <c r="F35" s="3">
-        <v>417400</v>
+        <v>389800</v>
       </c>
       <c r="G35" s="3">
-        <v>176300</v>
+        <v>164600</v>
       </c>
       <c r="H35" s="3">
-        <v>161100</v>
+        <v>150400</v>
       </c>
       <c r="I35" s="3">
-        <v>164300</v>
+        <v>153400</v>
       </c>
       <c r="J35" s="3">
-        <v>144500</v>
+        <v>134900</v>
       </c>
       <c r="K35" s="3">
         <v>159900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>269100</v>
+        <v>251300</v>
       </c>
       <c r="E41" s="3">
-        <v>121600</v>
+        <v>113500</v>
       </c>
       <c r="F41" s="3">
-        <v>153000</v>
+        <v>142900</v>
       </c>
       <c r="G41" s="3">
-        <v>69000</v>
+        <v>64500</v>
       </c>
       <c r="H41" s="3">
-        <v>79600</v>
+        <v>74400</v>
       </c>
       <c r="I41" s="3">
-        <v>102700</v>
+        <v>95900</v>
       </c>
       <c r="J41" s="3">
-        <v>178900</v>
+        <v>167100</v>
       </c>
       <c r="K41" s="3">
         <v>407100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>286600</v>
+        <v>267700</v>
       </c>
       <c r="E42" s="3">
-        <v>158800</v>
+        <v>148300</v>
       </c>
       <c r="F42" s="3">
-        <v>311800</v>
+        <v>291200</v>
       </c>
       <c r="G42" s="3">
-        <v>176800</v>
+        <v>165100</v>
       </c>
       <c r="H42" s="3">
-        <v>114100</v>
+        <v>106500</v>
       </c>
       <c r="I42" s="3">
-        <v>177800</v>
+        <v>166000</v>
       </c>
       <c r="J42" s="3">
-        <v>122000</v>
+        <v>113900</v>
       </c>
       <c r="K42" s="3">
         <v>130200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>396500</v>
+        <v>370300</v>
       </c>
       <c r="E43" s="3">
+        <v>404400</v>
+      </c>
+      <c r="F43" s="3">
         <v>433100</v>
       </c>
-      <c r="F43" s="3">
-        <v>463800</v>
-      </c>
       <c r="G43" s="3">
-        <v>435300</v>
+        <v>406500</v>
       </c>
       <c r="H43" s="3">
-        <v>426700</v>
+        <v>398500</v>
       </c>
       <c r="I43" s="3">
-        <v>370300</v>
+        <v>345800</v>
       </c>
       <c r="J43" s="3">
-        <v>366700</v>
+        <v>342400</v>
       </c>
       <c r="K43" s="3">
         <v>299300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>329700</v>
+        <v>307900</v>
       </c>
       <c r="E44" s="3">
-        <v>329000</v>
+        <v>307200</v>
       </c>
       <c r="F44" s="3">
-        <v>321700</v>
+        <v>300400</v>
       </c>
       <c r="G44" s="3">
-        <v>285800</v>
+        <v>266900</v>
       </c>
       <c r="H44" s="3">
-        <v>271100</v>
+        <v>253100</v>
       </c>
       <c r="I44" s="3">
-        <v>236900</v>
+        <v>221300</v>
       </c>
       <c r="J44" s="3">
-        <v>238200</v>
+        <v>222500</v>
       </c>
       <c r="K44" s="3">
         <v>199000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23700</v>
+        <v>22100</v>
       </c>
       <c r="E45" s="3">
-        <v>31000</v>
+        <v>28900</v>
       </c>
       <c r="F45" s="3">
-        <v>29400</v>
+        <v>27500</v>
       </c>
       <c r="G45" s="3">
-        <v>35800</v>
+        <v>33400</v>
       </c>
       <c r="H45" s="3">
-        <v>35600</v>
+        <v>33300</v>
       </c>
       <c r="I45" s="3">
-        <v>43000</v>
+        <v>40100</v>
       </c>
       <c r="J45" s="3">
-        <v>36700</v>
+        <v>34200</v>
       </c>
       <c r="K45" s="3">
         <v>28400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1305600</v>
+        <v>1219200</v>
       </c>
       <c r="E46" s="3">
-        <v>1073400</v>
+        <v>1002400</v>
       </c>
       <c r="F46" s="3">
-        <v>1279800</v>
+        <v>1195100</v>
       </c>
       <c r="G46" s="3">
-        <v>991600</v>
+        <v>926000</v>
       </c>
       <c r="H46" s="3">
-        <v>927100</v>
+        <v>865700</v>
       </c>
       <c r="I46" s="3">
-        <v>930700</v>
+        <v>869100</v>
       </c>
       <c r="J46" s="3">
-        <v>932100</v>
+        <v>870400</v>
       </c>
       <c r="K46" s="3">
         <v>1064000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>197300</v>
+        <v>184200</v>
       </c>
       <c r="E47" s="3">
-        <v>196000</v>
+        <v>183000</v>
       </c>
       <c r="F47" s="3">
-        <v>202500</v>
+        <v>189100</v>
       </c>
       <c r="G47" s="3">
-        <v>143400</v>
+        <v>133900</v>
       </c>
       <c r="H47" s="3">
-        <v>93200</v>
+        <v>87000</v>
       </c>
       <c r="I47" s="3">
-        <v>68700</v>
+        <v>64200</v>
       </c>
       <c r="J47" s="3">
-        <v>44700</v>
+        <v>41700</v>
       </c>
       <c r="K47" s="3">
         <v>23300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1516800</v>
+        <v>1416400</v>
       </c>
       <c r="E48" s="3">
-        <v>1504000</v>
+        <v>1404400</v>
       </c>
       <c r="F48" s="3">
-        <v>1400800</v>
+        <v>1308100</v>
       </c>
       <c r="G48" s="3">
-        <v>1256300</v>
+        <v>1173100</v>
       </c>
       <c r="H48" s="3">
-        <v>1246600</v>
+        <v>1164100</v>
       </c>
       <c r="I48" s="3">
-        <v>1278900</v>
+        <v>1194200</v>
       </c>
       <c r="J48" s="3">
-        <v>1193100</v>
+        <v>1114100</v>
       </c>
       <c r="K48" s="3">
         <v>927500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>333800</v>
+        <v>311700</v>
       </c>
       <c r="E49" s="3">
-        <v>340800</v>
+        <v>318200</v>
       </c>
       <c r="F49" s="3">
-        <v>329100</v>
+        <v>307400</v>
       </c>
       <c r="G49" s="3">
-        <v>233400</v>
+        <v>218000</v>
       </c>
       <c r="H49" s="3">
-        <v>237800</v>
+        <v>222100</v>
       </c>
       <c r="I49" s="3">
-        <v>233000</v>
+        <v>217600</v>
       </c>
       <c r="J49" s="3">
-        <v>211400</v>
+        <v>197400</v>
       </c>
       <c r="K49" s="3">
         <v>189700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81000</v>
+        <v>75600</v>
       </c>
       <c r="E52" s="3">
-        <v>86900</v>
+        <v>81100</v>
       </c>
       <c r="F52" s="3">
-        <v>59800</v>
+        <v>55800</v>
       </c>
       <c r="G52" s="3">
-        <v>63000</v>
+        <v>58800</v>
       </c>
       <c r="H52" s="3">
-        <v>49800</v>
+        <v>46500</v>
       </c>
       <c r="I52" s="3">
-        <v>54100</v>
+        <v>50500</v>
       </c>
       <c r="J52" s="3">
-        <v>49000</v>
+        <v>45800</v>
       </c>
       <c r="K52" s="3">
         <v>51700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3434500</v>
+        <v>3207200</v>
       </c>
       <c r="E54" s="3">
-        <v>3201000</v>
+        <v>2989200</v>
       </c>
       <c r="F54" s="3">
-        <v>3272000</v>
+        <v>3055400</v>
       </c>
       <c r="G54" s="3">
-        <v>2687700</v>
+        <v>2509800</v>
       </c>
       <c r="H54" s="3">
-        <v>2546000</v>
+        <v>2377500</v>
       </c>
       <c r="I54" s="3">
-        <v>2482600</v>
+        <v>2318300</v>
       </c>
       <c r="J54" s="3">
-        <v>2405700</v>
+        <v>2246500</v>
       </c>
       <c r="K54" s="3">
         <v>2246000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>348500</v>
+        <v>325400</v>
       </c>
       <c r="E57" s="3">
-        <v>338100</v>
+        <v>315700</v>
       </c>
       <c r="F57" s="3">
-        <v>336400</v>
+        <v>314100</v>
       </c>
       <c r="G57" s="3">
-        <v>305100</v>
+        <v>284900</v>
       </c>
       <c r="H57" s="3">
-        <v>639100</v>
+        <v>596800</v>
       </c>
       <c r="I57" s="3">
-        <v>309700</v>
+        <v>289200</v>
       </c>
       <c r="J57" s="3">
-        <v>277100</v>
+        <v>258800</v>
       </c>
       <c r="K57" s="3">
         <v>238600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>90500</v>
+        <v>84500</v>
       </c>
       <c r="E58" s="3">
-        <v>94400</v>
+        <v>88200</v>
       </c>
       <c r="F58" s="3">
-        <v>82300</v>
+        <v>76900</v>
       </c>
       <c r="G58" s="3">
-        <v>62600</v>
+        <v>58500</v>
       </c>
       <c r="H58" s="3">
-        <v>78400</v>
+        <v>73300</v>
       </c>
       <c r="I58" s="3">
-        <v>59400</v>
+        <v>55500</v>
       </c>
       <c r="J58" s="3">
-        <v>87700</v>
+        <v>81900</v>
       </c>
       <c r="K58" s="3">
         <v>155600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>270300</v>
+        <v>252400</v>
       </c>
       <c r="E59" s="3">
-        <v>224700</v>
+        <v>209900</v>
       </c>
       <c r="F59" s="3">
-        <v>459500</v>
+        <v>429100</v>
       </c>
       <c r="G59" s="3">
-        <v>269800</v>
+        <v>251900</v>
       </c>
       <c r="H59" s="3">
-        <v>237300</v>
+        <v>221600</v>
       </c>
       <c r="I59" s="3">
-        <v>159500</v>
+        <v>148900</v>
       </c>
       <c r="J59" s="3">
-        <v>149700</v>
+        <v>139800</v>
       </c>
       <c r="K59" s="3">
         <v>137700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>709300</v>
+        <v>662300</v>
       </c>
       <c r="E60" s="3">
-        <v>657300</v>
+        <v>613800</v>
       </c>
       <c r="F60" s="3">
-        <v>878200</v>
+        <v>820100</v>
       </c>
       <c r="G60" s="3">
-        <v>637500</v>
+        <v>595300</v>
       </c>
       <c r="H60" s="3">
-        <v>601600</v>
+        <v>561800</v>
       </c>
       <c r="I60" s="3">
-        <v>528600</v>
+        <v>493600</v>
       </c>
       <c r="J60" s="3">
-        <v>514500</v>
+        <v>480500</v>
       </c>
       <c r="K60" s="3">
         <v>531900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>598500</v>
+        <v>558900</v>
       </c>
       <c r="E61" s="3">
-        <v>356000</v>
+        <v>332400</v>
       </c>
       <c r="F61" s="3">
-        <v>310100</v>
+        <v>289600</v>
       </c>
       <c r="G61" s="3">
-        <v>219000</v>
+        <v>204500</v>
       </c>
       <c r="H61" s="3">
-        <v>160400</v>
+        <v>149800</v>
       </c>
       <c r="I61" s="3">
-        <v>186200</v>
+        <v>173900</v>
       </c>
       <c r="J61" s="3">
-        <v>182900</v>
+        <v>170800</v>
       </c>
       <c r="K61" s="3">
         <v>185500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>210700</v>
+        <v>196700</v>
       </c>
       <c r="E62" s="3">
-        <v>225400</v>
+        <v>210500</v>
       </c>
       <c r="F62" s="3">
-        <v>194500</v>
+        <v>181600</v>
       </c>
       <c r="G62" s="3">
-        <v>162700</v>
+        <v>152000</v>
       </c>
       <c r="H62" s="3">
-        <v>151000</v>
+        <v>141000</v>
       </c>
       <c r="I62" s="3">
-        <v>152700</v>
+        <v>142600</v>
       </c>
       <c r="J62" s="3">
-        <v>146300</v>
+        <v>136700</v>
       </c>
       <c r="K62" s="3">
         <v>119100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1671100</v>
+        <v>1560500</v>
       </c>
       <c r="E66" s="3">
-        <v>1394900</v>
+        <v>1302600</v>
       </c>
       <c r="F66" s="3">
-        <v>1531000</v>
+        <v>1429700</v>
       </c>
       <c r="G66" s="3">
-        <v>1190200</v>
+        <v>1111400</v>
       </c>
       <c r="H66" s="3">
-        <v>1080800</v>
+        <v>1009300</v>
       </c>
       <c r="I66" s="3">
-        <v>1044000</v>
+        <v>974900</v>
       </c>
       <c r="J66" s="3">
-        <v>1010900</v>
+        <v>944000</v>
       </c>
       <c r="K66" s="3">
         <v>960800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1203000</v>
+        <v>1123400</v>
       </c>
       <c r="E72" s="3">
-        <v>1179100</v>
+        <v>1101000</v>
       </c>
       <c r="F72" s="3">
-        <v>1136200</v>
+        <v>1061000</v>
       </c>
       <c r="G72" s="3">
-        <v>698800</v>
+        <v>652600</v>
       </c>
       <c r="H72" s="3">
-        <v>863800</v>
+        <v>806600</v>
       </c>
       <c r="I72" s="3">
-        <v>803200</v>
+        <v>750000</v>
       </c>
       <c r="J72" s="3">
-        <v>721800</v>
+        <v>674000</v>
       </c>
       <c r="K72" s="3">
         <v>631800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1763300</v>
+        <v>1646600</v>
       </c>
       <c r="E76" s="3">
-        <v>1806200</v>
+        <v>1686600</v>
       </c>
       <c r="F76" s="3">
-        <v>1741000</v>
+        <v>1625800</v>
       </c>
       <c r="G76" s="3">
-        <v>1497500</v>
+        <v>1398400</v>
       </c>
       <c r="H76" s="3">
-        <v>1465100</v>
+        <v>1368200</v>
       </c>
       <c r="I76" s="3">
-        <v>1438600</v>
+        <v>1343400</v>
       </c>
       <c r="J76" s="3">
-        <v>1394800</v>
+        <v>1302500</v>
       </c>
       <c r="K76" s="3">
         <v>1285300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>130800</v>
+        <v>122100</v>
       </c>
       <c r="E81" s="3">
-        <v>177000</v>
+        <v>165300</v>
       </c>
       <c r="F81" s="3">
-        <v>417400</v>
+        <v>389800</v>
       </c>
       <c r="G81" s="3">
-        <v>176300</v>
+        <v>164600</v>
       </c>
       <c r="H81" s="3">
-        <v>161100</v>
+        <v>150400</v>
       </c>
       <c r="I81" s="3">
-        <v>164300</v>
+        <v>153400</v>
       </c>
       <c r="J81" s="3">
-        <v>144500</v>
+        <v>134900</v>
       </c>
       <c r="K81" s="3">
         <v>159900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>381700</v>
+        <v>356500</v>
       </c>
       <c r="E89" s="3">
-        <v>329600</v>
+        <v>307700</v>
       </c>
       <c r="F89" s="3">
-        <v>583900</v>
+        <v>545200</v>
       </c>
       <c r="G89" s="3">
-        <v>356500</v>
+        <v>332900</v>
       </c>
       <c r="H89" s="3">
-        <v>258400</v>
+        <v>241300</v>
       </c>
       <c r="I89" s="3">
-        <v>298500</v>
+        <v>278800</v>
       </c>
       <c r="J89" s="3">
-        <v>236100</v>
+        <v>220500</v>
       </c>
       <c r="K89" s="3">
         <v>252400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-159100</v>
+        <v>-148600</v>
       </c>
       <c r="E91" s="3">
-        <v>-183100</v>
+        <v>-171000</v>
       </c>
       <c r="F91" s="3">
-        <v>-174600</v>
+        <v>-163000</v>
       </c>
       <c r="G91" s="3">
-        <v>-168000</v>
+        <v>-156900</v>
       </c>
       <c r="H91" s="3">
-        <v>-170900</v>
+        <v>-159600</v>
       </c>
       <c r="I91" s="3">
-        <v>-176300</v>
+        <v>-164700</v>
       </c>
       <c r="J91" s="3">
-        <v>-309900</v>
+        <v>-289400</v>
       </c>
       <c r="K91" s="3">
         <v>-159200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-191100</v>
+        <v>-178500</v>
       </c>
       <c r="E94" s="3">
-        <v>-196100</v>
+        <v>-183100</v>
       </c>
       <c r="F94" s="3">
-        <v>-270600</v>
+        <v>-252700</v>
       </c>
       <c r="G94" s="3">
-        <v>-236100</v>
+        <v>-220500</v>
       </c>
       <c r="H94" s="3">
-        <v>-210800</v>
+        <v>-196900</v>
       </c>
       <c r="I94" s="3">
-        <v>-225500</v>
+        <v>-210600</v>
       </c>
       <c r="J94" s="3">
-        <v>-325000</v>
+        <v>-303500</v>
       </c>
       <c r="K94" s="3">
         <v>-178000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-138900</v>
+        <v>-129700</v>
       </c>
       <c r="E96" s="3">
-        <v>-296500</v>
+        <v>-276900</v>
       </c>
       <c r="F96" s="3">
-        <v>-101800</v>
+        <v>-95000</v>
       </c>
       <c r="G96" s="3">
-        <v>-102200</v>
+        <v>-95400</v>
       </c>
       <c r="H96" s="3">
-        <v>-95000</v>
+        <v>-88700</v>
       </c>
       <c r="I96" s="3">
-        <v>-90000</v>
+        <v>-84000</v>
       </c>
       <c r="J96" s="3">
-        <v>-88800</v>
+        <v>-83000</v>
       </c>
       <c r="K96" s="3">
         <v>-82800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>88100</v>
+        <v>82200</v>
       </c>
       <c r="E100" s="3">
-        <v>-271200</v>
+        <v>-253300</v>
       </c>
       <c r="F100" s="3">
-        <v>-72000</v>
+        <v>-67300</v>
       </c>
       <c r="G100" s="3">
-        <v>-72100</v>
+        <v>-67300</v>
       </c>
       <c r="H100" s="3">
-        <v>-129300</v>
+        <v>-120700</v>
       </c>
       <c r="I100" s="3">
-        <v>-112700</v>
+        <v>-105200</v>
       </c>
       <c r="J100" s="3">
-        <v>-179700</v>
+        <v>-167800</v>
       </c>
       <c r="K100" s="3">
         <v>327100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6600</v>
+        <v>-6200</v>
       </c>
       <c r="E101" s="3">
-        <v>-29000</v>
+        <v>-27100</v>
       </c>
       <c r="F101" s="3">
-        <v>-38600</v>
+        <v>-36000</v>
       </c>
       <c r="G101" s="3">
         <v>600</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="I101" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="J101" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="K101" s="3">
         <v>-3000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>272000</v>
+        <v>254000</v>
       </c>
       <c r="E102" s="3">
-        <v>-166800</v>
+        <v>-155800</v>
       </c>
       <c r="F102" s="3">
-        <v>202600</v>
+        <v>189200</v>
       </c>
       <c r="G102" s="3">
-        <v>49000</v>
+        <v>45700</v>
       </c>
       <c r="H102" s="3">
-        <v>-79600</v>
+        <v>-74300</v>
       </c>
       <c r="I102" s="3">
-        <v>-30200</v>
+        <v>-28200</v>
       </c>
       <c r="J102" s="3">
-        <v>-263900</v>
+        <v>-246500</v>
       </c>
       <c r="K102" s="3">
         <v>398500</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2359100</v>
+        <v>2210500</v>
       </c>
       <c r="E8" s="3">
-        <v>2314600</v>
+        <v>2168800</v>
       </c>
       <c r="F8" s="3">
-        <v>2264800</v>
+        <v>2122100</v>
       </c>
       <c r="G8" s="3">
-        <v>2156900</v>
+        <v>2021000</v>
       </c>
       <c r="H8" s="3">
-        <v>1979800</v>
+        <v>1855100</v>
       </c>
       <c r="I8" s="3">
-        <v>1902900</v>
+        <v>1783100</v>
       </c>
       <c r="J8" s="3">
-        <v>1648400</v>
+        <v>1544600</v>
       </c>
       <c r="K8" s="3">
         <v>1556400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1249700</v>
+        <v>1171000</v>
       </c>
       <c r="E9" s="3">
-        <v>1153600</v>
+        <v>1080900</v>
       </c>
       <c r="F9" s="3">
-        <v>1092200</v>
+        <v>1023400</v>
       </c>
       <c r="G9" s="3">
-        <v>1014400</v>
+        <v>950500</v>
       </c>
       <c r="H9" s="3">
-        <v>942100</v>
+        <v>882800</v>
       </c>
       <c r="I9" s="3">
-        <v>870000</v>
+        <v>815200</v>
       </c>
       <c r="J9" s="3">
-        <v>767800</v>
+        <v>719400</v>
       </c>
       <c r="K9" s="3">
         <v>697700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1109400</v>
+        <v>1039500</v>
       </c>
       <c r="E10" s="3">
-        <v>1161100</v>
+        <v>1087900</v>
       </c>
       <c r="F10" s="3">
-        <v>1172600</v>
+        <v>1098700</v>
       </c>
       <c r="G10" s="3">
-        <v>1142500</v>
+        <v>1070600</v>
       </c>
       <c r="H10" s="3">
-        <v>1037700</v>
+        <v>972300</v>
       </c>
       <c r="I10" s="3">
-        <v>1032900</v>
+        <v>967800</v>
       </c>
       <c r="J10" s="3">
-        <v>880700</v>
+        <v>825200</v>
       </c>
       <c r="K10" s="3">
         <v>858700</v>
@@ -916,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-271000</v>
+        <v>-253900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2136700</v>
+        <v>2002100</v>
       </c>
       <c r="E17" s="3">
-        <v>2017500</v>
+        <v>1890400</v>
       </c>
       <c r="F17" s="3">
-        <v>1664400</v>
+        <v>1559500</v>
       </c>
       <c r="G17" s="3">
-        <v>1868400</v>
+        <v>1750700</v>
       </c>
       <c r="H17" s="3">
-        <v>1735600</v>
+        <v>1626200</v>
       </c>
       <c r="I17" s="3">
-        <v>1631900</v>
+        <v>1529100</v>
       </c>
       <c r="J17" s="3">
-        <v>1414800</v>
+        <v>1325700</v>
       </c>
       <c r="K17" s="3">
         <v>1310400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>222500</v>
+        <v>208500</v>
       </c>
       <c r="E18" s="3">
-        <v>297100</v>
+        <v>278400</v>
       </c>
       <c r="F18" s="3">
-        <v>600400</v>
+        <v>562600</v>
       </c>
       <c r="G18" s="3">
-        <v>288500</v>
+        <v>270300</v>
       </c>
       <c r="H18" s="3">
-        <v>244200</v>
+        <v>228800</v>
       </c>
       <c r="I18" s="3">
-        <v>271100</v>
+        <v>254000</v>
       </c>
       <c r="J18" s="3">
-        <v>233600</v>
+        <v>218900</v>
       </c>
       <c r="K18" s="3">
         <v>246000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E20" s="3">
-        <v>-26200</v>
+        <v>-24500</v>
       </c>
       <c r="F20" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="G20" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3">
-        <v>-20900</v>
+        <v>-19600</v>
       </c>
       <c r="K20" s="3">
         <v>-28100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>218800</v>
+        <v>205100</v>
       </c>
       <c r="E21" s="3">
-        <v>270900</v>
+        <v>253900</v>
       </c>
       <c r="F21" s="3">
-        <v>611900</v>
+        <v>573300</v>
       </c>
       <c r="G21" s="3">
-        <v>280200</v>
+        <v>262600</v>
       </c>
       <c r="H21" s="3">
-        <v>242100</v>
+        <v>226900</v>
       </c>
       <c r="I21" s="3">
-        <v>271500</v>
+        <v>254400</v>
       </c>
       <c r="J21" s="3">
-        <v>212700</v>
+        <v>199300</v>
       </c>
       <c r="K21" s="3">
         <v>217900</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36500</v>
+        <v>34200</v>
       </c>
       <c r="E22" s="3">
-        <v>35200</v>
+        <v>33000</v>
       </c>
       <c r="F22" s="3">
-        <v>29900</v>
+        <v>28000</v>
       </c>
       <c r="G22" s="3">
-        <v>30700</v>
+        <v>28800</v>
       </c>
       <c r="H22" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="I22" s="3">
-        <v>29300</v>
+        <v>27500</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>182400</v>
+        <v>170900</v>
       </c>
       <c r="E23" s="3">
-        <v>235700</v>
+        <v>220900</v>
       </c>
       <c r="F23" s="3">
-        <v>581900</v>
+        <v>545300</v>
       </c>
       <c r="G23" s="3">
-        <v>249500</v>
+        <v>233800</v>
       </c>
       <c r="H23" s="3">
-        <v>216300</v>
+        <v>202700</v>
       </c>
       <c r="I23" s="3">
-        <v>242100</v>
+        <v>226900</v>
       </c>
       <c r="J23" s="3">
-        <v>212700</v>
+        <v>199300</v>
       </c>
       <c r="K23" s="3">
         <v>217900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45000</v>
+        <v>42100</v>
       </c>
       <c r="E24" s="3">
-        <v>50800</v>
+        <v>47600</v>
       </c>
       <c r="F24" s="3">
-        <v>172900</v>
+        <v>162000</v>
       </c>
       <c r="G24" s="3">
-        <v>61400</v>
+        <v>57600</v>
       </c>
       <c r="H24" s="3">
-        <v>38400</v>
+        <v>36000</v>
       </c>
       <c r="I24" s="3">
-        <v>63600</v>
+        <v>59600</v>
       </c>
       <c r="J24" s="3">
-        <v>59300</v>
+        <v>55500</v>
       </c>
       <c r="K24" s="3">
         <v>45100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>137400</v>
+        <v>128800</v>
       </c>
       <c r="E26" s="3">
-        <v>185000</v>
+        <v>173300</v>
       </c>
       <c r="F26" s="3">
-        <v>409000</v>
+        <v>383300</v>
       </c>
       <c r="G26" s="3">
-        <v>188100</v>
+        <v>176200</v>
       </c>
       <c r="H26" s="3">
-        <v>177900</v>
+        <v>166700</v>
       </c>
       <c r="I26" s="3">
-        <v>178500</v>
+        <v>167200</v>
       </c>
       <c r="J26" s="3">
-        <v>153400</v>
+        <v>143700</v>
       </c>
       <c r="K26" s="3">
         <v>172800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>122100</v>
+        <v>114400</v>
       </c>
       <c r="E27" s="3">
-        <v>165300</v>
+        <v>154900</v>
       </c>
       <c r="F27" s="3">
-        <v>389800</v>
+        <v>365200</v>
       </c>
       <c r="G27" s="3">
-        <v>164600</v>
+        <v>154200</v>
       </c>
       <c r="H27" s="3">
-        <v>150400</v>
+        <v>141000</v>
       </c>
       <c r="I27" s="3">
-        <v>153400</v>
+        <v>143800</v>
       </c>
       <c r="J27" s="3">
-        <v>134900</v>
+        <v>126400</v>
       </c>
       <c r="K27" s="3">
         <v>159900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E32" s="3">
-        <v>26200</v>
+        <v>24500</v>
       </c>
       <c r="F32" s="3">
-        <v>-11500</v>
+        <v>-10700</v>
       </c>
       <c r="G32" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="H32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3">
-        <v>20900</v>
+        <v>19600</v>
       </c>
       <c r="K32" s="3">
         <v>28100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>122100</v>
+        <v>114400</v>
       </c>
       <c r="E33" s="3">
-        <v>165300</v>
+        <v>154900</v>
       </c>
       <c r="F33" s="3">
-        <v>389800</v>
+        <v>365200</v>
       </c>
       <c r="G33" s="3">
-        <v>164600</v>
+        <v>154200</v>
       </c>
       <c r="H33" s="3">
-        <v>150400</v>
+        <v>141000</v>
       </c>
       <c r="I33" s="3">
-        <v>153400</v>
+        <v>143800</v>
       </c>
       <c r="J33" s="3">
-        <v>134900</v>
+        <v>126400</v>
       </c>
       <c r="K33" s="3">
         <v>159900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>122100</v>
+        <v>114400</v>
       </c>
       <c r="E35" s="3">
-        <v>165300</v>
+        <v>154900</v>
       </c>
       <c r="F35" s="3">
-        <v>389800</v>
+        <v>365200</v>
       </c>
       <c r="G35" s="3">
-        <v>164600</v>
+        <v>154200</v>
       </c>
       <c r="H35" s="3">
-        <v>150400</v>
+        <v>141000</v>
       </c>
       <c r="I35" s="3">
-        <v>153400</v>
+        <v>143800</v>
       </c>
       <c r="J35" s="3">
-        <v>134900</v>
+        <v>126400</v>
       </c>
       <c r="K35" s="3">
         <v>159900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>251300</v>
+        <v>235400</v>
       </c>
       <c r="E41" s="3">
-        <v>113500</v>
+        <v>106400</v>
       </c>
       <c r="F41" s="3">
-        <v>142900</v>
+        <v>133900</v>
       </c>
       <c r="G41" s="3">
-        <v>64500</v>
+        <v>60400</v>
       </c>
       <c r="H41" s="3">
-        <v>74400</v>
+        <v>69700</v>
       </c>
       <c r="I41" s="3">
-        <v>95900</v>
+        <v>89800</v>
       </c>
       <c r="J41" s="3">
-        <v>167100</v>
+        <v>156600</v>
       </c>
       <c r="K41" s="3">
         <v>407100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>267700</v>
+        <v>250800</v>
       </c>
       <c r="E42" s="3">
-        <v>148300</v>
+        <v>139000</v>
       </c>
       <c r="F42" s="3">
-        <v>291200</v>
+        <v>272800</v>
       </c>
       <c r="G42" s="3">
-        <v>165100</v>
+        <v>154700</v>
       </c>
       <c r="H42" s="3">
-        <v>106500</v>
+        <v>99800</v>
       </c>
       <c r="I42" s="3">
-        <v>166000</v>
+        <v>155500</v>
       </c>
       <c r="J42" s="3">
-        <v>113900</v>
+        <v>106700</v>
       </c>
       <c r="K42" s="3">
         <v>130200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>370300</v>
+        <v>347000</v>
       </c>
       <c r="E43" s="3">
-        <v>404400</v>
+        <v>378900</v>
       </c>
       <c r="F43" s="3">
-        <v>433100</v>
+        <v>405900</v>
       </c>
       <c r="G43" s="3">
-        <v>406500</v>
+        <v>380900</v>
       </c>
       <c r="H43" s="3">
-        <v>398500</v>
+        <v>373400</v>
       </c>
       <c r="I43" s="3">
-        <v>345800</v>
+        <v>324000</v>
       </c>
       <c r="J43" s="3">
-        <v>342400</v>
+        <v>320900</v>
       </c>
       <c r="K43" s="3">
         <v>299300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>307900</v>
+        <v>288500</v>
       </c>
       <c r="E44" s="3">
-        <v>307200</v>
+        <v>287900</v>
       </c>
       <c r="F44" s="3">
-        <v>300400</v>
+        <v>281500</v>
       </c>
       <c r="G44" s="3">
-        <v>266900</v>
+        <v>250100</v>
       </c>
       <c r="H44" s="3">
-        <v>253100</v>
+        <v>237200</v>
       </c>
       <c r="I44" s="3">
-        <v>221300</v>
+        <v>207300</v>
       </c>
       <c r="J44" s="3">
-        <v>222500</v>
+        <v>208500</v>
       </c>
       <c r="K44" s="3">
         <v>199000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="E45" s="3">
-        <v>28900</v>
+        <v>27100</v>
       </c>
       <c r="F45" s="3">
-        <v>27500</v>
+        <v>25800</v>
       </c>
       <c r="G45" s="3">
-        <v>33400</v>
+        <v>31300</v>
       </c>
       <c r="H45" s="3">
-        <v>33300</v>
+        <v>31200</v>
       </c>
       <c r="I45" s="3">
-        <v>40100</v>
+        <v>37600</v>
       </c>
       <c r="J45" s="3">
-        <v>34200</v>
+        <v>32100</v>
       </c>
       <c r="K45" s="3">
         <v>28400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1219200</v>
+        <v>1142400</v>
       </c>
       <c r="E46" s="3">
-        <v>1002400</v>
+        <v>939200</v>
       </c>
       <c r="F46" s="3">
-        <v>1195100</v>
+        <v>1119800</v>
       </c>
       <c r="G46" s="3">
-        <v>926000</v>
+        <v>867600</v>
       </c>
       <c r="H46" s="3">
-        <v>865700</v>
+        <v>811200</v>
       </c>
       <c r="I46" s="3">
-        <v>869100</v>
+        <v>814300</v>
       </c>
       <c r="J46" s="3">
-        <v>870400</v>
+        <v>815600</v>
       </c>
       <c r="K46" s="3">
         <v>1064000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>184200</v>
+        <v>172600</v>
       </c>
       <c r="E47" s="3">
-        <v>183000</v>
+        <v>171500</v>
       </c>
       <c r="F47" s="3">
-        <v>189100</v>
+        <v>177200</v>
       </c>
       <c r="G47" s="3">
-        <v>133900</v>
+        <v>125500</v>
       </c>
       <c r="H47" s="3">
-        <v>87000</v>
+        <v>81500</v>
       </c>
       <c r="I47" s="3">
-        <v>64200</v>
+        <v>60100</v>
       </c>
       <c r="J47" s="3">
-        <v>41700</v>
+        <v>39100</v>
       </c>
       <c r="K47" s="3">
         <v>23300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1416400</v>
+        <v>1327200</v>
       </c>
       <c r="E48" s="3">
-        <v>1404400</v>
+        <v>1316000</v>
       </c>
       <c r="F48" s="3">
-        <v>1308100</v>
+        <v>1225700</v>
       </c>
       <c r="G48" s="3">
-        <v>1173100</v>
+        <v>1099200</v>
       </c>
       <c r="H48" s="3">
-        <v>1164100</v>
+        <v>1090800</v>
       </c>
       <c r="I48" s="3">
-        <v>1194200</v>
+        <v>1119000</v>
       </c>
       <c r="J48" s="3">
-        <v>1114100</v>
+        <v>1043900</v>
       </c>
       <c r="K48" s="3">
         <v>927500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>311700</v>
+        <v>292100</v>
       </c>
       <c r="E49" s="3">
-        <v>318200</v>
+        <v>298200</v>
       </c>
       <c r="F49" s="3">
-        <v>307400</v>
+        <v>288000</v>
       </c>
       <c r="G49" s="3">
-        <v>218000</v>
+        <v>204300</v>
       </c>
       <c r="H49" s="3">
-        <v>222100</v>
+        <v>208100</v>
       </c>
       <c r="I49" s="3">
-        <v>217600</v>
+        <v>203900</v>
       </c>
       <c r="J49" s="3">
-        <v>197400</v>
+        <v>185000</v>
       </c>
       <c r="K49" s="3">
         <v>189700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>75600</v>
+        <v>70800</v>
       </c>
       <c r="E52" s="3">
-        <v>81100</v>
+        <v>76000</v>
       </c>
       <c r="F52" s="3">
-        <v>55800</v>
+        <v>52300</v>
       </c>
       <c r="G52" s="3">
-        <v>58800</v>
+        <v>55100</v>
       </c>
       <c r="H52" s="3">
-        <v>46500</v>
+        <v>43500</v>
       </c>
       <c r="I52" s="3">
-        <v>50500</v>
+        <v>47300</v>
       </c>
       <c r="J52" s="3">
-        <v>45800</v>
+        <v>42900</v>
       </c>
       <c r="K52" s="3">
         <v>51700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3207200</v>
+        <v>3005200</v>
       </c>
       <c r="E54" s="3">
-        <v>2989200</v>
+        <v>2800900</v>
       </c>
       <c r="F54" s="3">
-        <v>3055400</v>
+        <v>2863000</v>
       </c>
       <c r="G54" s="3">
-        <v>2509800</v>
+        <v>2351700</v>
       </c>
       <c r="H54" s="3">
-        <v>2377500</v>
+        <v>2227700</v>
       </c>
       <c r="I54" s="3">
-        <v>2318300</v>
+        <v>2172300</v>
       </c>
       <c r="J54" s="3">
-        <v>2246500</v>
+        <v>2105000</v>
       </c>
       <c r="K54" s="3">
         <v>2246000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>325400</v>
+        <v>304900</v>
       </c>
       <c r="E57" s="3">
-        <v>315700</v>
+        <v>295800</v>
       </c>
       <c r="F57" s="3">
-        <v>314100</v>
+        <v>294300</v>
       </c>
       <c r="G57" s="3">
-        <v>284900</v>
+        <v>267000</v>
       </c>
       <c r="H57" s="3">
-        <v>596800</v>
+        <v>559200</v>
       </c>
       <c r="I57" s="3">
-        <v>289200</v>
+        <v>271000</v>
       </c>
       <c r="J57" s="3">
-        <v>258800</v>
+        <v>242500</v>
       </c>
       <c r="K57" s="3">
         <v>238600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>84500</v>
+        <v>79200</v>
       </c>
       <c r="E58" s="3">
-        <v>88200</v>
+        <v>82600</v>
       </c>
       <c r="F58" s="3">
-        <v>76900</v>
+        <v>72100</v>
       </c>
       <c r="G58" s="3">
-        <v>58500</v>
+        <v>54800</v>
       </c>
       <c r="H58" s="3">
-        <v>73300</v>
+        <v>68600</v>
       </c>
       <c r="I58" s="3">
-        <v>55500</v>
+        <v>52000</v>
       </c>
       <c r="J58" s="3">
-        <v>81900</v>
+        <v>76700</v>
       </c>
       <c r="K58" s="3">
         <v>155600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>252400</v>
+        <v>236500</v>
       </c>
       <c r="E59" s="3">
-        <v>209900</v>
+        <v>196700</v>
       </c>
       <c r="F59" s="3">
-        <v>429100</v>
+        <v>402000</v>
       </c>
       <c r="G59" s="3">
-        <v>251900</v>
+        <v>236100</v>
       </c>
       <c r="H59" s="3">
-        <v>221600</v>
+        <v>207600</v>
       </c>
       <c r="I59" s="3">
-        <v>148900</v>
+        <v>139500</v>
       </c>
       <c r="J59" s="3">
-        <v>139800</v>
+        <v>131000</v>
       </c>
       <c r="K59" s="3">
         <v>137700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>662300</v>
+        <v>620600</v>
       </c>
       <c r="E60" s="3">
-        <v>613800</v>
+        <v>575100</v>
       </c>
       <c r="F60" s="3">
-        <v>820100</v>
+        <v>768400</v>
       </c>
       <c r="G60" s="3">
-        <v>595300</v>
+        <v>557800</v>
       </c>
       <c r="H60" s="3">
-        <v>561800</v>
+        <v>526400</v>
       </c>
       <c r="I60" s="3">
-        <v>493600</v>
+        <v>462500</v>
       </c>
       <c r="J60" s="3">
-        <v>480500</v>
+        <v>450200</v>
       </c>
       <c r="K60" s="3">
         <v>531900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>558900</v>
+        <v>523700</v>
       </c>
       <c r="E61" s="3">
-        <v>332400</v>
+        <v>311500</v>
       </c>
       <c r="F61" s="3">
-        <v>289600</v>
+        <v>271400</v>
       </c>
       <c r="G61" s="3">
-        <v>204500</v>
+        <v>191600</v>
       </c>
       <c r="H61" s="3">
-        <v>149800</v>
+        <v>140400</v>
       </c>
       <c r="I61" s="3">
-        <v>173900</v>
+        <v>162900</v>
       </c>
       <c r="J61" s="3">
-        <v>170800</v>
+        <v>160000</v>
       </c>
       <c r="K61" s="3">
         <v>185500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>196700</v>
+        <v>184400</v>
       </c>
       <c r="E62" s="3">
-        <v>210500</v>
+        <v>197200</v>
       </c>
       <c r="F62" s="3">
-        <v>181600</v>
+        <v>170200</v>
       </c>
       <c r="G62" s="3">
-        <v>152000</v>
+        <v>142400</v>
       </c>
       <c r="H62" s="3">
-        <v>141000</v>
+        <v>132200</v>
       </c>
       <c r="I62" s="3">
-        <v>142600</v>
+        <v>133600</v>
       </c>
       <c r="J62" s="3">
-        <v>136700</v>
+        <v>128000</v>
       </c>
       <c r="K62" s="3">
         <v>119100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1560500</v>
+        <v>1462200</v>
       </c>
       <c r="E66" s="3">
-        <v>1302600</v>
+        <v>1220500</v>
       </c>
       <c r="F66" s="3">
-        <v>1429700</v>
+        <v>1339600</v>
       </c>
       <c r="G66" s="3">
-        <v>1111400</v>
+        <v>1041400</v>
       </c>
       <c r="H66" s="3">
-        <v>1009300</v>
+        <v>945700</v>
       </c>
       <c r="I66" s="3">
-        <v>974900</v>
+        <v>913500</v>
       </c>
       <c r="J66" s="3">
-        <v>944000</v>
+        <v>884500</v>
       </c>
       <c r="K66" s="3">
         <v>960800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1123400</v>
+        <v>1052600</v>
       </c>
       <c r="E72" s="3">
-        <v>1101000</v>
+        <v>1031700</v>
       </c>
       <c r="F72" s="3">
-        <v>1061000</v>
+        <v>994100</v>
       </c>
       <c r="G72" s="3">
-        <v>652600</v>
+        <v>611400</v>
       </c>
       <c r="H72" s="3">
-        <v>806600</v>
+        <v>755800</v>
       </c>
       <c r="I72" s="3">
-        <v>750000</v>
+        <v>702800</v>
       </c>
       <c r="J72" s="3">
-        <v>674000</v>
+        <v>631600</v>
       </c>
       <c r="K72" s="3">
         <v>631800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1646600</v>
+        <v>1542900</v>
       </c>
       <c r="E76" s="3">
-        <v>1686600</v>
+        <v>1580400</v>
       </c>
       <c r="F76" s="3">
-        <v>1625800</v>
+        <v>1523400</v>
       </c>
       <c r="G76" s="3">
-        <v>1398400</v>
+        <v>1310300</v>
       </c>
       <c r="H76" s="3">
-        <v>1368200</v>
+        <v>1282000</v>
       </c>
       <c r="I76" s="3">
-        <v>1343400</v>
+        <v>1258800</v>
       </c>
       <c r="J76" s="3">
-        <v>1302500</v>
+        <v>1220400</v>
       </c>
       <c r="K76" s="3">
         <v>1285300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>122100</v>
+        <v>114400</v>
       </c>
       <c r="E81" s="3">
-        <v>165300</v>
+        <v>154900</v>
       </c>
       <c r="F81" s="3">
-        <v>389800</v>
+        <v>365200</v>
       </c>
       <c r="G81" s="3">
-        <v>164600</v>
+        <v>154200</v>
       </c>
       <c r="H81" s="3">
-        <v>150400</v>
+        <v>141000</v>
       </c>
       <c r="I81" s="3">
-        <v>153400</v>
+        <v>143800</v>
       </c>
       <c r="J81" s="3">
-        <v>134900</v>
+        <v>126400</v>
       </c>
       <c r="K81" s="3">
         <v>159900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>356500</v>
+        <v>334000</v>
       </c>
       <c r="E89" s="3">
-        <v>307700</v>
+        <v>288400</v>
       </c>
       <c r="F89" s="3">
-        <v>545200</v>
+        <v>510900</v>
       </c>
       <c r="G89" s="3">
-        <v>332900</v>
+        <v>312000</v>
       </c>
       <c r="H89" s="3">
-        <v>241300</v>
+        <v>226100</v>
       </c>
       <c r="I89" s="3">
-        <v>278800</v>
+        <v>261200</v>
       </c>
       <c r="J89" s="3">
-        <v>220500</v>
+        <v>206600</v>
       </c>
       <c r="K89" s="3">
         <v>252400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-148600</v>
+        <v>-139200</v>
       </c>
       <c r="E91" s="3">
-        <v>-171000</v>
+        <v>-160300</v>
       </c>
       <c r="F91" s="3">
-        <v>-163000</v>
+        <v>-152800</v>
       </c>
       <c r="G91" s="3">
-        <v>-156900</v>
+        <v>-147000</v>
       </c>
       <c r="H91" s="3">
-        <v>-159600</v>
+        <v>-149600</v>
       </c>
       <c r="I91" s="3">
-        <v>-164700</v>
+        <v>-154300</v>
       </c>
       <c r="J91" s="3">
-        <v>-289400</v>
+        <v>-271200</v>
       </c>
       <c r="K91" s="3">
         <v>-159200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-178500</v>
+        <v>-167200</v>
       </c>
       <c r="E94" s="3">
-        <v>-183100</v>
+        <v>-171600</v>
       </c>
       <c r="F94" s="3">
-        <v>-252700</v>
+        <v>-236800</v>
       </c>
       <c r="G94" s="3">
-        <v>-220500</v>
+        <v>-206600</v>
       </c>
       <c r="H94" s="3">
-        <v>-196900</v>
+        <v>-184500</v>
       </c>
       <c r="I94" s="3">
-        <v>-210600</v>
+        <v>-197300</v>
       </c>
       <c r="J94" s="3">
-        <v>-303500</v>
+        <v>-284400</v>
       </c>
       <c r="K94" s="3">
         <v>-178000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-129700</v>
+        <v>-121500</v>
       </c>
       <c r="E96" s="3">
-        <v>-276900</v>
+        <v>-259500</v>
       </c>
       <c r="F96" s="3">
-        <v>-95000</v>
+        <v>-89000</v>
       </c>
       <c r="G96" s="3">
-        <v>-95400</v>
+        <v>-89400</v>
       </c>
       <c r="H96" s="3">
-        <v>-88700</v>
+        <v>-83100</v>
       </c>
       <c r="I96" s="3">
-        <v>-84000</v>
+        <v>-78700</v>
       </c>
       <c r="J96" s="3">
-        <v>-83000</v>
+        <v>-77700</v>
       </c>
       <c r="K96" s="3">
         <v>-82800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>82200</v>
+        <v>77100</v>
       </c>
       <c r="E100" s="3">
-        <v>-253300</v>
+        <v>-237300</v>
       </c>
       <c r="F100" s="3">
-        <v>-67300</v>
+        <v>-63000</v>
       </c>
       <c r="G100" s="3">
-        <v>-67300</v>
+        <v>-63100</v>
       </c>
       <c r="H100" s="3">
-        <v>-120700</v>
+        <v>-113100</v>
       </c>
       <c r="I100" s="3">
-        <v>-105200</v>
+        <v>-98600</v>
       </c>
       <c r="J100" s="3">
-        <v>-167800</v>
+        <v>-157300</v>
       </c>
       <c r="K100" s="3">
         <v>327100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="E101" s="3">
-        <v>-27100</v>
+        <v>-25400</v>
       </c>
       <c r="F101" s="3">
-        <v>-36000</v>
+        <v>-33800</v>
       </c>
       <c r="G101" s="3">
         <v>600</v>
       </c>
       <c r="H101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I101" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="J101" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K101" s="3">
         <v>-3000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>254000</v>
+        <v>238000</v>
       </c>
       <c r="E102" s="3">
-        <v>-155800</v>
+        <v>-145900</v>
       </c>
       <c r="F102" s="3">
-        <v>189200</v>
+        <v>177300</v>
       </c>
       <c r="G102" s="3">
-        <v>45700</v>
+        <v>42900</v>
       </c>
       <c r="H102" s="3">
-        <v>-74300</v>
+        <v>-69600</v>
       </c>
       <c r="I102" s="3">
-        <v>-28200</v>
+        <v>-26400</v>
       </c>
       <c r="J102" s="3">
-        <v>-246500</v>
+        <v>-231000</v>
       </c>
       <c r="K102" s="3">
         <v>398500</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2210500</v>
+        <v>3081000</v>
       </c>
       <c r="E8" s="3">
-        <v>2168800</v>
+        <v>2303400</v>
       </c>
       <c r="F8" s="3">
-        <v>2122100</v>
+        <v>2260000</v>
       </c>
       <c r="G8" s="3">
-        <v>2021000</v>
+        <v>2211300</v>
       </c>
       <c r="H8" s="3">
-        <v>1855100</v>
+        <v>2106000</v>
       </c>
       <c r="I8" s="3">
-        <v>1783100</v>
+        <v>1933000</v>
       </c>
       <c r="J8" s="3">
+        <v>1858000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1544600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1556400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1376900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1464000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1171000</v>
+        <v>1601500</v>
       </c>
       <c r="E9" s="3">
-        <v>1080900</v>
+        <v>1220200</v>
       </c>
       <c r="F9" s="3">
-        <v>1023400</v>
+        <v>1126300</v>
       </c>
       <c r="G9" s="3">
-        <v>950500</v>
+        <v>1066400</v>
       </c>
       <c r="H9" s="3">
-        <v>882800</v>
+        <v>990400</v>
       </c>
       <c r="I9" s="3">
-        <v>815200</v>
+        <v>919900</v>
       </c>
       <c r="J9" s="3">
+        <v>849500</v>
+      </c>
+      <c r="K9" s="3">
         <v>719400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>697700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>631200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>676300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1039500</v>
+        <v>1479500</v>
       </c>
       <c r="E10" s="3">
-        <v>1087900</v>
+        <v>1083200</v>
       </c>
       <c r="F10" s="3">
-        <v>1098700</v>
+        <v>1133600</v>
       </c>
       <c r="G10" s="3">
-        <v>1070600</v>
+        <v>1144900</v>
       </c>
       <c r="H10" s="3">
-        <v>972300</v>
+        <v>1115500</v>
       </c>
       <c r="I10" s="3">
-        <v>967800</v>
+        <v>1013200</v>
       </c>
       <c r="J10" s="3">
+        <v>1008500</v>
+      </c>
+      <c r="K10" s="3">
         <v>825200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>858700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>745700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>787800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>7200</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="F14" s="3">
-        <v>-253900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-264600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-20100</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2002100</v>
+        <v>2671300</v>
       </c>
       <c r="E17" s="3">
-        <v>1890400</v>
+        <v>2086200</v>
       </c>
       <c r="F17" s="3">
-        <v>1559500</v>
+        <v>1969800</v>
       </c>
       <c r="G17" s="3">
-        <v>1750700</v>
+        <v>1625100</v>
       </c>
       <c r="H17" s="3">
-        <v>1626200</v>
+        <v>1824300</v>
       </c>
       <c r="I17" s="3">
-        <v>1529100</v>
+        <v>1694600</v>
       </c>
       <c r="J17" s="3">
+        <v>1593300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1325700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1310400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1150700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1168300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>208500</v>
+        <v>409800</v>
       </c>
       <c r="E18" s="3">
-        <v>278400</v>
+        <v>217200</v>
       </c>
       <c r="F18" s="3">
-        <v>562600</v>
+        <v>290100</v>
       </c>
       <c r="G18" s="3">
-        <v>270300</v>
+        <v>586200</v>
       </c>
       <c r="H18" s="3">
-        <v>228800</v>
+        <v>281700</v>
       </c>
       <c r="I18" s="3">
-        <v>254000</v>
+        <v>238500</v>
       </c>
       <c r="J18" s="3">
+        <v>264700</v>
+      </c>
+      <c r="K18" s="3">
         <v>218900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>246000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>226200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>295700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3400</v>
+        <v>8500</v>
       </c>
       <c r="E20" s="3">
-        <v>-24500</v>
+        <v>-3600</v>
       </c>
       <c r="F20" s="3">
-        <v>10700</v>
+        <v>-25600</v>
       </c>
       <c r="G20" s="3">
-        <v>-7800</v>
+        <v>11200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2000</v>
+        <v>-8100</v>
       </c>
       <c r="I20" s="3">
-        <v>300</v>
+        <v>-2100</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>205100</v>
+        <v>418300</v>
       </c>
       <c r="E21" s="3">
-        <v>253900</v>
+        <v>213700</v>
       </c>
       <c r="F21" s="3">
-        <v>573300</v>
+        <v>264500</v>
       </c>
       <c r="G21" s="3">
-        <v>262600</v>
+        <v>597400</v>
       </c>
       <c r="H21" s="3">
-        <v>226900</v>
+        <v>273600</v>
       </c>
       <c r="I21" s="3">
-        <v>254400</v>
+        <v>236400</v>
       </c>
       <c r="J21" s="3">
+        <v>265000</v>
+      </c>
+      <c r="K21" s="3">
         <v>199300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>217900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>228100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>293600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34200</v>
+        <v>44200</v>
       </c>
       <c r="E22" s="3">
-        <v>33000</v>
+        <v>35600</v>
       </c>
       <c r="F22" s="3">
-        <v>28000</v>
+        <v>34400</v>
       </c>
       <c r="G22" s="3">
-        <v>28800</v>
+        <v>29200</v>
       </c>
       <c r="H22" s="3">
-        <v>24200</v>
+        <v>30000</v>
       </c>
       <c r="I22" s="3">
-        <v>27500</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>25200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>28600</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>21800</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>21800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>170900</v>
+        <v>374100</v>
       </c>
       <c r="E23" s="3">
-        <v>220900</v>
+        <v>178100</v>
       </c>
       <c r="F23" s="3">
-        <v>545300</v>
+        <v>230200</v>
       </c>
       <c r="G23" s="3">
-        <v>233800</v>
+        <v>568200</v>
       </c>
       <c r="H23" s="3">
-        <v>202700</v>
+        <v>243600</v>
       </c>
       <c r="I23" s="3">
-        <v>226900</v>
+        <v>211200</v>
       </c>
       <c r="J23" s="3">
+        <v>236400</v>
+      </c>
+      <c r="K23" s="3">
         <v>199300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>217900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>206200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>271800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42100</v>
+        <v>102500</v>
       </c>
       <c r="E24" s="3">
-        <v>47600</v>
+        <v>43900</v>
       </c>
       <c r="F24" s="3">
-        <v>162000</v>
+        <v>49600</v>
       </c>
       <c r="G24" s="3">
-        <v>57600</v>
+        <v>168800</v>
       </c>
       <c r="H24" s="3">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="I24" s="3">
-        <v>59600</v>
+        <v>37500</v>
       </c>
       <c r="J24" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K24" s="3">
         <v>55500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>128800</v>
+        <v>271600</v>
       </c>
       <c r="E26" s="3">
-        <v>173300</v>
+        <v>134200</v>
       </c>
       <c r="F26" s="3">
-        <v>383300</v>
+        <v>180600</v>
       </c>
       <c r="G26" s="3">
-        <v>176200</v>
+        <v>399400</v>
       </c>
       <c r="H26" s="3">
-        <v>166700</v>
+        <v>183700</v>
       </c>
       <c r="I26" s="3">
-        <v>167200</v>
+        <v>173700</v>
       </c>
       <c r="J26" s="3">
+        <v>174300</v>
+      </c>
+      <c r="K26" s="3">
         <v>143700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>172800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>158700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>203600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>114400</v>
+        <v>247000</v>
       </c>
       <c r="E27" s="3">
-        <v>154900</v>
+        <v>119200</v>
       </c>
       <c r="F27" s="3">
-        <v>365200</v>
+        <v>161400</v>
       </c>
       <c r="G27" s="3">
-        <v>154200</v>
+        <v>380500</v>
       </c>
       <c r="H27" s="3">
-        <v>141000</v>
+        <v>160700</v>
       </c>
       <c r="I27" s="3">
-        <v>143800</v>
+        <v>146900</v>
       </c>
       <c r="J27" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K27" s="3">
         <v>126400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>159900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>185400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3400</v>
+        <v>-8500</v>
       </c>
       <c r="E32" s="3">
-        <v>24500</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
-        <v>-10700</v>
+        <v>25600</v>
       </c>
       <c r="G32" s="3">
-        <v>7800</v>
+        <v>-11200</v>
       </c>
       <c r="H32" s="3">
-        <v>2000</v>
+        <v>8100</v>
       </c>
       <c r="I32" s="3">
-        <v>-300</v>
+        <v>2100</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>19600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>114400</v>
+        <v>247000</v>
       </c>
       <c r="E33" s="3">
-        <v>154900</v>
+        <v>119200</v>
       </c>
       <c r="F33" s="3">
-        <v>365200</v>
+        <v>161400</v>
       </c>
       <c r="G33" s="3">
-        <v>154200</v>
+        <v>380500</v>
       </c>
       <c r="H33" s="3">
-        <v>141000</v>
+        <v>160700</v>
       </c>
       <c r="I33" s="3">
-        <v>143800</v>
+        <v>146900</v>
       </c>
       <c r="J33" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K33" s="3">
         <v>126400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>159900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>146500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>185400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>114400</v>
+        <v>247000</v>
       </c>
       <c r="E35" s="3">
-        <v>154900</v>
+        <v>119200</v>
       </c>
       <c r="F35" s="3">
-        <v>365200</v>
+        <v>161400</v>
       </c>
       <c r="G35" s="3">
-        <v>154200</v>
+        <v>380500</v>
       </c>
       <c r="H35" s="3">
-        <v>141000</v>
+        <v>160700</v>
       </c>
       <c r="I35" s="3">
-        <v>143800</v>
+        <v>146900</v>
       </c>
       <c r="J35" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K35" s="3">
         <v>126400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>159900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>146500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>185400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>235400</v>
+        <v>152800</v>
       </c>
       <c r="E41" s="3">
-        <v>106400</v>
+        <v>245300</v>
       </c>
       <c r="F41" s="3">
-        <v>133900</v>
+        <v>110900</v>
       </c>
       <c r="G41" s="3">
-        <v>60400</v>
+        <v>139500</v>
       </c>
       <c r="H41" s="3">
-        <v>69700</v>
+        <v>62900</v>
       </c>
       <c r="I41" s="3">
-        <v>89800</v>
+        <v>72600</v>
       </c>
       <c r="J41" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K41" s="3">
         <v>156600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>407100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>250800</v>
+        <v>206100</v>
       </c>
       <c r="E42" s="3">
-        <v>139000</v>
+        <v>261300</v>
       </c>
       <c r="F42" s="3">
-        <v>272800</v>
+        <v>144800</v>
       </c>
       <c r="G42" s="3">
-        <v>154700</v>
+        <v>284300</v>
       </c>
       <c r="H42" s="3">
-        <v>99800</v>
+        <v>161200</v>
       </c>
       <c r="I42" s="3">
-        <v>155500</v>
+        <v>104000</v>
       </c>
       <c r="J42" s="3">
+        <v>162100</v>
+      </c>
+      <c r="K42" s="3">
         <v>106700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>130200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>240000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>347000</v>
+        <v>501400</v>
       </c>
       <c r="E43" s="3">
-        <v>378900</v>
+        <v>361500</v>
       </c>
       <c r="F43" s="3">
-        <v>405900</v>
+        <v>394800</v>
       </c>
       <c r="G43" s="3">
-        <v>380900</v>
+        <v>422900</v>
       </c>
       <c r="H43" s="3">
-        <v>373400</v>
+        <v>396900</v>
       </c>
       <c r="I43" s="3">
-        <v>324000</v>
+        <v>389000</v>
       </c>
       <c r="J43" s="3">
+        <v>337600</v>
+      </c>
+      <c r="K43" s="3">
         <v>320900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>299300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>298800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>332600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>288500</v>
+        <v>453800</v>
       </c>
       <c r="E44" s="3">
-        <v>287900</v>
+        <v>300600</v>
       </c>
       <c r="F44" s="3">
-        <v>281500</v>
+        <v>299900</v>
       </c>
       <c r="G44" s="3">
-        <v>250100</v>
+        <v>293300</v>
       </c>
       <c r="H44" s="3">
-        <v>237200</v>
+        <v>260600</v>
       </c>
       <c r="I44" s="3">
-        <v>207300</v>
+        <v>247100</v>
       </c>
       <c r="J44" s="3">
+        <v>216000</v>
+      </c>
+      <c r="K44" s="3">
         <v>208500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>199000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>181600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>194100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20700</v>
+        <v>39200</v>
       </c>
       <c r="E45" s="3">
-        <v>27100</v>
+        <v>21600</v>
       </c>
       <c r="F45" s="3">
-        <v>25800</v>
+        <v>28200</v>
       </c>
       <c r="G45" s="3">
-        <v>31300</v>
+        <v>26800</v>
       </c>
       <c r="H45" s="3">
-        <v>31200</v>
+        <v>32600</v>
       </c>
       <c r="I45" s="3">
-        <v>37600</v>
+        <v>32500</v>
       </c>
       <c r="J45" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K45" s="3">
         <v>32100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1142400</v>
+        <v>1353300</v>
       </c>
       <c r="E46" s="3">
-        <v>939200</v>
+        <v>1190400</v>
       </c>
       <c r="F46" s="3">
-        <v>1119800</v>
+        <v>978700</v>
       </c>
       <c r="G46" s="3">
-        <v>867600</v>
+        <v>1166800</v>
       </c>
       <c r="H46" s="3">
-        <v>811200</v>
+        <v>904100</v>
       </c>
       <c r="I46" s="3">
-        <v>814300</v>
+        <v>845300</v>
       </c>
       <c r="J46" s="3">
+        <v>848500</v>
+      </c>
+      <c r="K46" s="3">
         <v>815600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1064000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>634700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>817500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>172600</v>
+        <v>214900</v>
       </c>
       <c r="E47" s="3">
-        <v>171500</v>
+        <v>179900</v>
       </c>
       <c r="F47" s="3">
-        <v>177200</v>
+        <v>178700</v>
       </c>
       <c r="G47" s="3">
-        <v>125500</v>
+        <v>184600</v>
       </c>
       <c r="H47" s="3">
-        <v>81500</v>
+        <v>130700</v>
       </c>
       <c r="I47" s="3">
-        <v>60100</v>
+        <v>85000</v>
       </c>
       <c r="J47" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K47" s="3">
         <v>39100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1327200</v>
+        <v>1562600</v>
       </c>
       <c r="E48" s="3">
-        <v>1316000</v>
+        <v>1383000</v>
       </c>
       <c r="F48" s="3">
-        <v>1225700</v>
+        <v>1371300</v>
       </c>
       <c r="G48" s="3">
-        <v>1099200</v>
+        <v>1277200</v>
       </c>
       <c r="H48" s="3">
-        <v>1090800</v>
+        <v>1145400</v>
       </c>
       <c r="I48" s="3">
-        <v>1119000</v>
+        <v>1136600</v>
       </c>
       <c r="J48" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1043900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>927500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>815400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>880300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>292100</v>
+        <v>351100</v>
       </c>
       <c r="E49" s="3">
-        <v>298200</v>
+        <v>304400</v>
       </c>
       <c r="F49" s="3">
-        <v>288000</v>
+        <v>310700</v>
       </c>
       <c r="G49" s="3">
-        <v>204300</v>
+        <v>300100</v>
       </c>
       <c r="H49" s="3">
-        <v>208100</v>
+        <v>212800</v>
       </c>
       <c r="I49" s="3">
-        <v>203900</v>
+        <v>216800</v>
       </c>
       <c r="J49" s="3">
+        <v>212500</v>
+      </c>
+      <c r="K49" s="3">
         <v>185000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>189700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>164800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>202100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70800</v>
+        <v>48200</v>
       </c>
       <c r="E52" s="3">
-        <v>76000</v>
+        <v>73800</v>
       </c>
       <c r="F52" s="3">
-        <v>52300</v>
+        <v>79200</v>
       </c>
       <c r="G52" s="3">
-        <v>55100</v>
+        <v>54500</v>
       </c>
       <c r="H52" s="3">
-        <v>43500</v>
+        <v>57400</v>
       </c>
       <c r="I52" s="3">
-        <v>47300</v>
+        <v>45400</v>
       </c>
       <c r="J52" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K52" s="3">
         <v>42900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3005200</v>
+        <v>3530000</v>
       </c>
       <c r="E54" s="3">
-        <v>2800900</v>
+        <v>3131400</v>
       </c>
       <c r="F54" s="3">
-        <v>2863000</v>
+        <v>2918600</v>
       </c>
       <c r="G54" s="3">
-        <v>2351700</v>
+        <v>2983300</v>
       </c>
       <c r="H54" s="3">
-        <v>2227700</v>
+        <v>2450500</v>
       </c>
       <c r="I54" s="3">
-        <v>2172300</v>
+        <v>2321300</v>
       </c>
       <c r="J54" s="3">
+        <v>2263600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2105000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2246000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1697900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1960500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>304900</v>
+        <v>544200</v>
       </c>
       <c r="E57" s="3">
-        <v>295800</v>
+        <v>317700</v>
       </c>
       <c r="F57" s="3">
-        <v>294300</v>
+        <v>308300</v>
       </c>
       <c r="G57" s="3">
-        <v>267000</v>
+        <v>306700</v>
       </c>
       <c r="H57" s="3">
-        <v>559200</v>
+        <v>278200</v>
       </c>
       <c r="I57" s="3">
-        <v>271000</v>
+        <v>582700</v>
       </c>
       <c r="J57" s="3">
+        <v>282400</v>
+      </c>
+      <c r="K57" s="3">
         <v>242500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>238600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>182900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>214000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79200</v>
+        <v>128400</v>
       </c>
       <c r="E58" s="3">
-        <v>82600</v>
+        <v>82500</v>
       </c>
       <c r="F58" s="3">
-        <v>72100</v>
+        <v>86100</v>
       </c>
       <c r="G58" s="3">
-        <v>54800</v>
+        <v>75100</v>
       </c>
       <c r="H58" s="3">
-        <v>68600</v>
+        <v>57100</v>
       </c>
       <c r="I58" s="3">
-        <v>52000</v>
+        <v>71500</v>
       </c>
       <c r="J58" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K58" s="3">
         <v>76700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>155600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>71700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>135200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>236500</v>
+        <v>296100</v>
       </c>
       <c r="E59" s="3">
-        <v>196700</v>
+        <v>246400</v>
       </c>
       <c r="F59" s="3">
-        <v>402000</v>
+        <v>204900</v>
       </c>
       <c r="G59" s="3">
-        <v>236100</v>
+        <v>418900</v>
       </c>
       <c r="H59" s="3">
-        <v>207600</v>
+        <v>246000</v>
       </c>
       <c r="I59" s="3">
-        <v>139500</v>
+        <v>216300</v>
       </c>
       <c r="J59" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K59" s="3">
         <v>131000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>137700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>148000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>620600</v>
+        <v>968600</v>
       </c>
       <c r="E60" s="3">
-        <v>575100</v>
+        <v>646700</v>
       </c>
       <c r="F60" s="3">
-        <v>768400</v>
+        <v>599300</v>
       </c>
       <c r="G60" s="3">
-        <v>557800</v>
+        <v>800700</v>
       </c>
       <c r="H60" s="3">
-        <v>526400</v>
+        <v>581200</v>
       </c>
       <c r="I60" s="3">
-        <v>462500</v>
+        <v>548500</v>
       </c>
       <c r="J60" s="3">
+        <v>482000</v>
+      </c>
+      <c r="K60" s="3">
         <v>450200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>531900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>402600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>547500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>523700</v>
+        <v>599200</v>
       </c>
       <c r="E61" s="3">
-        <v>311500</v>
+        <v>545700</v>
       </c>
       <c r="F61" s="3">
-        <v>271400</v>
+        <v>324600</v>
       </c>
       <c r="G61" s="3">
-        <v>191600</v>
+        <v>282800</v>
       </c>
       <c r="H61" s="3">
-        <v>140400</v>
+        <v>199600</v>
       </c>
       <c r="I61" s="3">
-        <v>162900</v>
+        <v>146300</v>
       </c>
       <c r="J61" s="3">
+        <v>169800</v>
+      </c>
+      <c r="K61" s="3">
         <v>160000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>185500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>267700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>258100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>184400</v>
+        <v>194500</v>
       </c>
       <c r="E62" s="3">
-        <v>197200</v>
+        <v>192100</v>
       </c>
       <c r="F62" s="3">
-        <v>170200</v>
+        <v>205500</v>
       </c>
       <c r="G62" s="3">
-        <v>142400</v>
+        <v>177300</v>
       </c>
       <c r="H62" s="3">
-        <v>132200</v>
+        <v>148400</v>
       </c>
       <c r="I62" s="3">
-        <v>133600</v>
+        <v>137700</v>
       </c>
       <c r="J62" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K62" s="3">
         <v>128000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>119100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>118100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>120900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1462200</v>
+        <v>1908500</v>
       </c>
       <c r="E66" s="3">
-        <v>1220500</v>
+        <v>1523700</v>
       </c>
       <c r="F66" s="3">
-        <v>1339600</v>
+        <v>1271800</v>
       </c>
       <c r="G66" s="3">
-        <v>1041400</v>
+        <v>1395900</v>
       </c>
       <c r="H66" s="3">
-        <v>945700</v>
+        <v>1085200</v>
       </c>
       <c r="I66" s="3">
-        <v>913500</v>
+        <v>985500</v>
       </c>
       <c r="J66" s="3">
+        <v>951900</v>
+      </c>
+      <c r="K66" s="3">
         <v>884500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>960800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>912900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1101400</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1052600</v>
+        <v>981500</v>
       </c>
       <c r="E72" s="3">
-        <v>1031700</v>
+        <v>1096900</v>
       </c>
       <c r="F72" s="3">
-        <v>994100</v>
+        <v>1075000</v>
       </c>
       <c r="G72" s="3">
-        <v>611400</v>
+        <v>1035900</v>
       </c>
       <c r="H72" s="3">
-        <v>755800</v>
+        <v>637100</v>
       </c>
       <c r="I72" s="3">
-        <v>702800</v>
+        <v>787600</v>
       </c>
       <c r="J72" s="3">
+        <v>732300</v>
+      </c>
+      <c r="K72" s="3">
         <v>631600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>631800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>489200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>510300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1542900</v>
+        <v>1621400</v>
       </c>
       <c r="E76" s="3">
-        <v>1580400</v>
+        <v>1607800</v>
       </c>
       <c r="F76" s="3">
-        <v>1523400</v>
+        <v>1646800</v>
       </c>
       <c r="G76" s="3">
-        <v>1310300</v>
+        <v>1587400</v>
       </c>
       <c r="H76" s="3">
-        <v>1282000</v>
+        <v>1365300</v>
       </c>
       <c r="I76" s="3">
-        <v>1258800</v>
+        <v>1335800</v>
       </c>
       <c r="J76" s="3">
+        <v>1311700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1220400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1285300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>784900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>859200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>114400</v>
+        <v>247000</v>
       </c>
       <c r="E81" s="3">
-        <v>154900</v>
+        <v>119200</v>
       </c>
       <c r="F81" s="3">
-        <v>365200</v>
+        <v>161400</v>
       </c>
       <c r="G81" s="3">
-        <v>154200</v>
+        <v>380500</v>
       </c>
       <c r="H81" s="3">
-        <v>141000</v>
+        <v>160700</v>
       </c>
       <c r="I81" s="3">
-        <v>143800</v>
+        <v>146900</v>
       </c>
       <c r="J81" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K81" s="3">
         <v>126400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>159900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>146500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>185400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,8 +3294,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3132,9 +3330,12 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>334000</v>
+        <v>363800</v>
       </c>
       <c r="E89" s="3">
-        <v>288400</v>
+        <v>348000</v>
       </c>
       <c r="F89" s="3">
-        <v>510900</v>
+        <v>300500</v>
       </c>
       <c r="G89" s="3">
-        <v>312000</v>
+        <v>532300</v>
       </c>
       <c r="H89" s="3">
-        <v>226100</v>
+        <v>325100</v>
       </c>
       <c r="I89" s="3">
-        <v>261200</v>
+        <v>235600</v>
       </c>
       <c r="J89" s="3">
+        <v>272200</v>
+      </c>
+      <c r="K89" s="3">
         <v>206600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>252400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>177700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>253300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-139200</v>
+        <v>-210400</v>
       </c>
       <c r="E91" s="3">
-        <v>-160300</v>
+        <v>-145100</v>
       </c>
       <c r="F91" s="3">
-        <v>-152800</v>
+        <v>-167000</v>
       </c>
       <c r="G91" s="3">
-        <v>-147000</v>
+        <v>-159200</v>
       </c>
       <c r="H91" s="3">
-        <v>-149600</v>
+        <v>-153200</v>
       </c>
       <c r="I91" s="3">
-        <v>-154300</v>
+        <v>-155900</v>
       </c>
       <c r="J91" s="3">
+        <v>-160800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-271200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-159200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-148200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-117500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-167200</v>
+        <v>-222000</v>
       </c>
       <c r="E94" s="3">
-        <v>-171600</v>
+        <v>-174300</v>
       </c>
       <c r="F94" s="3">
-        <v>-236800</v>
+        <v>-178800</v>
       </c>
       <c r="G94" s="3">
-        <v>-206600</v>
+        <v>-246800</v>
       </c>
       <c r="H94" s="3">
-        <v>-184500</v>
+        <v>-215300</v>
       </c>
       <c r="I94" s="3">
-        <v>-197300</v>
+        <v>-192200</v>
       </c>
       <c r="J94" s="3">
+        <v>-205600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-284400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-178000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-172000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-115100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-121500</v>
+        <v>-339900</v>
       </c>
       <c r="E96" s="3">
-        <v>-259500</v>
+        <v>-126600</v>
       </c>
       <c r="F96" s="3">
-        <v>-89000</v>
+        <v>-270400</v>
       </c>
       <c r="G96" s="3">
-        <v>-89400</v>
+        <v>-92800</v>
       </c>
       <c r="H96" s="3">
-        <v>-83100</v>
+        <v>-93200</v>
       </c>
       <c r="I96" s="3">
-        <v>-78700</v>
+        <v>-86600</v>
       </c>
       <c r="J96" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-77700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-84600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-94800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>77100</v>
+        <v>-289700</v>
       </c>
       <c r="E100" s="3">
-        <v>-237300</v>
+        <v>80300</v>
       </c>
       <c r="F100" s="3">
-        <v>-63000</v>
+        <v>-247300</v>
       </c>
       <c r="G100" s="3">
-        <v>-63100</v>
+        <v>-65700</v>
       </c>
       <c r="H100" s="3">
-        <v>-113100</v>
+        <v>-65700</v>
       </c>
       <c r="I100" s="3">
-        <v>-98600</v>
+        <v>-117900</v>
       </c>
       <c r="J100" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-157300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>327100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-102600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-98500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5800</v>
+        <v>-14300</v>
       </c>
       <c r="E101" s="3">
-        <v>-25400</v>
+        <v>-6000</v>
       </c>
       <c r="F101" s="3">
-        <v>-33800</v>
+        <v>-26500</v>
       </c>
       <c r="G101" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
-        <v>1800</v>
-      </c>
       <c r="I101" s="3">
-        <v>8200</v>
+        <v>1900</v>
       </c>
       <c r="J101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K101" s="3">
         <v>4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>238000</v>
+        <v>-162200</v>
       </c>
       <c r="E102" s="3">
-        <v>-145900</v>
+        <v>248000</v>
       </c>
       <c r="F102" s="3">
-        <v>177300</v>
+        <v>-152100</v>
       </c>
       <c r="G102" s="3">
-        <v>42900</v>
+        <v>184700</v>
       </c>
       <c r="H102" s="3">
-        <v>-69600</v>
+        <v>44700</v>
       </c>
       <c r="I102" s="3">
-        <v>-26400</v>
+        <v>-72600</v>
       </c>
       <c r="J102" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-231000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>398500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-96900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3081000</v>
+        <v>2882300</v>
       </c>
       <c r="E8" s="3">
-        <v>2303400</v>
+        <v>2154800</v>
       </c>
       <c r="F8" s="3">
-        <v>2260000</v>
+        <v>2114100</v>
       </c>
       <c r="G8" s="3">
-        <v>2211300</v>
+        <v>2068600</v>
       </c>
       <c r="H8" s="3">
-        <v>2106000</v>
+        <v>1970100</v>
       </c>
       <c r="I8" s="3">
-        <v>1933000</v>
+        <v>1808300</v>
       </c>
       <c r="J8" s="3">
-        <v>1858000</v>
+        <v>1738100</v>
       </c>
       <c r="K8" s="3">
         <v>1544600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1601500</v>
+        <v>1498200</v>
       </c>
       <c r="E9" s="3">
-        <v>1220200</v>
+        <v>1141500</v>
       </c>
       <c r="F9" s="3">
-        <v>1126300</v>
+        <v>1053600</v>
       </c>
       <c r="G9" s="3">
-        <v>1066400</v>
+        <v>997600</v>
       </c>
       <c r="H9" s="3">
-        <v>990400</v>
+        <v>926500</v>
       </c>
       <c r="I9" s="3">
-        <v>919900</v>
+        <v>860500</v>
       </c>
       <c r="J9" s="3">
-        <v>849500</v>
+        <v>794700</v>
       </c>
       <c r="K9" s="3">
         <v>719400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1479500</v>
+        <v>1384100</v>
       </c>
       <c r="E10" s="3">
-        <v>1083200</v>
+        <v>1013300</v>
       </c>
       <c r="F10" s="3">
-        <v>1133600</v>
+        <v>1060500</v>
       </c>
       <c r="G10" s="3">
-        <v>1144900</v>
+        <v>1071000</v>
       </c>
       <c r="H10" s="3">
-        <v>1115500</v>
+        <v>1043600</v>
       </c>
       <c r="I10" s="3">
-        <v>1013200</v>
+        <v>947800</v>
       </c>
       <c r="J10" s="3">
-        <v>1008500</v>
+        <v>943400</v>
       </c>
       <c r="K10" s="3">
         <v>825200</v>
@@ -938,13 +938,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-264600</v>
+        <v>-247500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2671300</v>
+        <v>2498900</v>
       </c>
       <c r="E17" s="3">
-        <v>2086200</v>
+        <v>1951600</v>
       </c>
       <c r="F17" s="3">
-        <v>1969800</v>
+        <v>1842700</v>
       </c>
       <c r="G17" s="3">
-        <v>1625100</v>
+        <v>1520200</v>
       </c>
       <c r="H17" s="3">
-        <v>1824300</v>
+        <v>1706600</v>
       </c>
       <c r="I17" s="3">
-        <v>1694600</v>
+        <v>1585200</v>
       </c>
       <c r="J17" s="3">
-        <v>1593300</v>
+        <v>1490500</v>
       </c>
       <c r="K17" s="3">
         <v>1325700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>409800</v>
+        <v>383300</v>
       </c>
       <c r="E18" s="3">
-        <v>217200</v>
+        <v>203200</v>
       </c>
       <c r="F18" s="3">
-        <v>290100</v>
+        <v>271400</v>
       </c>
       <c r="G18" s="3">
-        <v>586200</v>
+        <v>548400</v>
       </c>
       <c r="H18" s="3">
-        <v>281700</v>
+        <v>263500</v>
       </c>
       <c r="I18" s="3">
-        <v>238500</v>
+        <v>223100</v>
       </c>
       <c r="J18" s="3">
-        <v>264700</v>
+        <v>247600</v>
       </c>
       <c r="K18" s="3">
         <v>218900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="F20" s="3">
-        <v>-25600</v>
+        <v>-23900</v>
       </c>
       <c r="G20" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="H20" s="3">
-        <v>-8100</v>
+        <v>-7600</v>
       </c>
       <c r="I20" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="J20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K20" s="3">
         <v>-19600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>418300</v>
+        <v>391300</v>
       </c>
       <c r="E21" s="3">
-        <v>213700</v>
+        <v>199900</v>
       </c>
       <c r="F21" s="3">
-        <v>264500</v>
+        <v>247500</v>
       </c>
       <c r="G21" s="3">
-        <v>597400</v>
+        <v>558900</v>
       </c>
       <c r="H21" s="3">
-        <v>273600</v>
+        <v>255900</v>
       </c>
       <c r="I21" s="3">
-        <v>236400</v>
+        <v>221100</v>
       </c>
       <c r="J21" s="3">
-        <v>265000</v>
+        <v>247900</v>
       </c>
       <c r="K21" s="3">
         <v>199300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44200</v>
+        <v>41400</v>
       </c>
       <c r="E22" s="3">
-        <v>35600</v>
+        <v>33300</v>
       </c>
       <c r="F22" s="3">
-        <v>34400</v>
+        <v>32200</v>
       </c>
       <c r="G22" s="3">
-        <v>29200</v>
+        <v>27300</v>
       </c>
       <c r="H22" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="I22" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="J22" s="3">
-        <v>28600</v>
+        <v>26800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>374100</v>
+        <v>349900</v>
       </c>
       <c r="E23" s="3">
-        <v>178100</v>
+        <v>166600</v>
       </c>
       <c r="F23" s="3">
-        <v>230200</v>
+        <v>215300</v>
       </c>
       <c r="G23" s="3">
-        <v>568200</v>
+        <v>531500</v>
       </c>
       <c r="H23" s="3">
-        <v>243600</v>
+        <v>227900</v>
       </c>
       <c r="I23" s="3">
-        <v>211200</v>
+        <v>197600</v>
       </c>
       <c r="J23" s="3">
-        <v>236400</v>
+        <v>221100</v>
       </c>
       <c r="K23" s="3">
         <v>199300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>102500</v>
+        <v>95900</v>
       </c>
       <c r="E24" s="3">
-        <v>43900</v>
+        <v>41100</v>
       </c>
       <c r="F24" s="3">
-        <v>49600</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="3">
-        <v>168800</v>
+        <v>157900</v>
       </c>
       <c r="H24" s="3">
-        <v>60000</v>
+        <v>56100</v>
       </c>
       <c r="I24" s="3">
-        <v>37500</v>
+        <v>35100</v>
       </c>
       <c r="J24" s="3">
-        <v>62100</v>
+        <v>58100</v>
       </c>
       <c r="K24" s="3">
         <v>55500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>271600</v>
+        <v>254100</v>
       </c>
       <c r="E26" s="3">
-        <v>134200</v>
+        <v>125500</v>
       </c>
       <c r="F26" s="3">
-        <v>180600</v>
+        <v>168900</v>
       </c>
       <c r="G26" s="3">
-        <v>399400</v>
+        <v>373600</v>
       </c>
       <c r="H26" s="3">
-        <v>183700</v>
+        <v>171800</v>
       </c>
       <c r="I26" s="3">
-        <v>173700</v>
+        <v>162500</v>
       </c>
       <c r="J26" s="3">
-        <v>174300</v>
+        <v>163000</v>
       </c>
       <c r="K26" s="3">
         <v>143700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>247000</v>
+        <v>231000</v>
       </c>
       <c r="E27" s="3">
-        <v>119200</v>
+        <v>111500</v>
       </c>
       <c r="F27" s="3">
-        <v>161400</v>
+        <v>151000</v>
       </c>
       <c r="G27" s="3">
-        <v>380500</v>
+        <v>356000</v>
       </c>
       <c r="H27" s="3">
-        <v>160700</v>
+        <v>150300</v>
       </c>
       <c r="I27" s="3">
-        <v>146900</v>
+        <v>137400</v>
       </c>
       <c r="J27" s="3">
-        <v>149800</v>
+        <v>140100</v>
       </c>
       <c r="K27" s="3">
         <v>126400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8500</v>
+        <v>-8000</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="G32" s="3">
-        <v>-11200</v>
+        <v>-10500</v>
       </c>
       <c r="H32" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="I32" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="J32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K32" s="3">
         <v>19600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>247000</v>
+        <v>231000</v>
       </c>
       <c r="E33" s="3">
-        <v>119200</v>
+        <v>111500</v>
       </c>
       <c r="F33" s="3">
-        <v>161400</v>
+        <v>151000</v>
       </c>
       <c r="G33" s="3">
-        <v>380500</v>
+        <v>356000</v>
       </c>
       <c r="H33" s="3">
-        <v>160700</v>
+        <v>150300</v>
       </c>
       <c r="I33" s="3">
-        <v>146900</v>
+        <v>137400</v>
       </c>
       <c r="J33" s="3">
-        <v>149800</v>
+        <v>140100</v>
       </c>
       <c r="K33" s="3">
         <v>126400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>247000</v>
+        <v>231000</v>
       </c>
       <c r="E35" s="3">
-        <v>119200</v>
+        <v>111500</v>
       </c>
       <c r="F35" s="3">
-        <v>161400</v>
+        <v>151000</v>
       </c>
       <c r="G35" s="3">
-        <v>380500</v>
+        <v>356000</v>
       </c>
       <c r="H35" s="3">
-        <v>160700</v>
+        <v>150300</v>
       </c>
       <c r="I35" s="3">
-        <v>146900</v>
+        <v>137400</v>
       </c>
       <c r="J35" s="3">
-        <v>149800</v>
+        <v>140100</v>
       </c>
       <c r="K35" s="3">
         <v>126400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>152800</v>
+        <v>142900</v>
       </c>
       <c r="E41" s="3">
-        <v>245300</v>
+        <v>229500</v>
       </c>
       <c r="F41" s="3">
-        <v>110900</v>
+        <v>103700</v>
       </c>
       <c r="G41" s="3">
-        <v>139500</v>
+        <v>130500</v>
       </c>
       <c r="H41" s="3">
-        <v>62900</v>
+        <v>58900</v>
       </c>
       <c r="I41" s="3">
-        <v>72600</v>
+        <v>67900</v>
       </c>
       <c r="J41" s="3">
-        <v>93600</v>
+        <v>87600</v>
       </c>
       <c r="K41" s="3">
         <v>156600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>206100</v>
+        <v>192800</v>
       </c>
       <c r="E42" s="3">
-        <v>261300</v>
+        <v>244500</v>
       </c>
       <c r="F42" s="3">
-        <v>144800</v>
+        <v>135500</v>
       </c>
       <c r="G42" s="3">
-        <v>284300</v>
+        <v>265900</v>
       </c>
       <c r="H42" s="3">
-        <v>161200</v>
+        <v>150800</v>
       </c>
       <c r="I42" s="3">
-        <v>104000</v>
+        <v>97300</v>
       </c>
       <c r="J42" s="3">
-        <v>162100</v>
+        <v>151600</v>
       </c>
       <c r="K42" s="3">
         <v>106700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>501400</v>
+        <v>469100</v>
       </c>
       <c r="E43" s="3">
-        <v>361500</v>
+        <v>338200</v>
       </c>
       <c r="F43" s="3">
-        <v>394800</v>
+        <v>369400</v>
       </c>
       <c r="G43" s="3">
-        <v>422900</v>
+        <v>395600</v>
       </c>
       <c r="H43" s="3">
-        <v>396900</v>
+        <v>371300</v>
       </c>
       <c r="I43" s="3">
-        <v>389000</v>
+        <v>363900</v>
       </c>
       <c r="J43" s="3">
-        <v>337600</v>
+        <v>315800</v>
       </c>
       <c r="K43" s="3">
         <v>320900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>453800</v>
+        <v>424500</v>
       </c>
       <c r="E44" s="3">
-        <v>300600</v>
+        <v>281200</v>
       </c>
       <c r="F44" s="3">
-        <v>299900</v>
+        <v>280600</v>
       </c>
       <c r="G44" s="3">
-        <v>293300</v>
+        <v>274400</v>
       </c>
       <c r="H44" s="3">
-        <v>260600</v>
+        <v>243800</v>
       </c>
       <c r="I44" s="3">
-        <v>247100</v>
+        <v>231200</v>
       </c>
       <c r="J44" s="3">
-        <v>216000</v>
+        <v>202100</v>
       </c>
       <c r="K44" s="3">
         <v>208500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39200</v>
+        <v>36700</v>
       </c>
       <c r="E45" s="3">
-        <v>21600</v>
+        <v>20200</v>
       </c>
       <c r="F45" s="3">
-        <v>28200</v>
+        <v>26400</v>
       </c>
       <c r="G45" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="H45" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="I45" s="3">
-        <v>32500</v>
+        <v>30400</v>
       </c>
       <c r="J45" s="3">
-        <v>39200</v>
+        <v>36700</v>
       </c>
       <c r="K45" s="3">
         <v>32100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1353300</v>
+        <v>1266000</v>
       </c>
       <c r="E46" s="3">
-        <v>1190400</v>
+        <v>1113600</v>
       </c>
       <c r="F46" s="3">
-        <v>978700</v>
+        <v>915600</v>
       </c>
       <c r="G46" s="3">
-        <v>1166800</v>
+        <v>1091600</v>
       </c>
       <c r="H46" s="3">
-        <v>904100</v>
+        <v>845800</v>
       </c>
       <c r="I46" s="3">
-        <v>845300</v>
+        <v>790800</v>
       </c>
       <c r="J46" s="3">
-        <v>848500</v>
+        <v>793800</v>
       </c>
       <c r="K46" s="3">
         <v>815600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>214900</v>
+        <v>201000</v>
       </c>
       <c r="E47" s="3">
-        <v>179900</v>
+        <v>168300</v>
       </c>
       <c r="F47" s="3">
-        <v>178700</v>
+        <v>167200</v>
       </c>
       <c r="G47" s="3">
-        <v>184600</v>
+        <v>172700</v>
       </c>
       <c r="H47" s="3">
-        <v>130700</v>
+        <v>122300</v>
       </c>
       <c r="I47" s="3">
-        <v>85000</v>
+        <v>79500</v>
       </c>
       <c r="J47" s="3">
-        <v>62600</v>
+        <v>58600</v>
       </c>
       <c r="K47" s="3">
         <v>39100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1562600</v>
+        <v>1461800</v>
       </c>
       <c r="E48" s="3">
-        <v>1383000</v>
+        <v>1293700</v>
       </c>
       <c r="F48" s="3">
-        <v>1371300</v>
+        <v>1282800</v>
       </c>
       <c r="G48" s="3">
-        <v>1277200</v>
+        <v>1194800</v>
       </c>
       <c r="H48" s="3">
-        <v>1145400</v>
+        <v>1071500</v>
       </c>
       <c r="I48" s="3">
-        <v>1136600</v>
+        <v>1063300</v>
       </c>
       <c r="J48" s="3">
-        <v>1166000</v>
+        <v>1090800</v>
       </c>
       <c r="K48" s="3">
         <v>1043900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>351100</v>
+        <v>328400</v>
       </c>
       <c r="E49" s="3">
-        <v>304400</v>
+        <v>284700</v>
       </c>
       <c r="F49" s="3">
-        <v>310700</v>
+        <v>290700</v>
       </c>
       <c r="G49" s="3">
-        <v>300100</v>
+        <v>280700</v>
       </c>
       <c r="H49" s="3">
-        <v>212800</v>
+        <v>199100</v>
       </c>
       <c r="I49" s="3">
-        <v>216800</v>
+        <v>202800</v>
       </c>
       <c r="J49" s="3">
-        <v>212500</v>
+        <v>198800</v>
       </c>
       <c r="K49" s="3">
         <v>185000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48200</v>
+        <v>45100</v>
       </c>
       <c r="E52" s="3">
-        <v>73800</v>
+        <v>69100</v>
       </c>
       <c r="F52" s="3">
-        <v>79200</v>
+        <v>74100</v>
       </c>
       <c r="G52" s="3">
-        <v>54500</v>
+        <v>51000</v>
       </c>
       <c r="H52" s="3">
-        <v>57400</v>
+        <v>53700</v>
       </c>
       <c r="I52" s="3">
-        <v>45400</v>
+        <v>42400</v>
       </c>
       <c r="J52" s="3">
-        <v>49300</v>
+        <v>46100</v>
       </c>
       <c r="K52" s="3">
         <v>42900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3530000</v>
+        <v>3302200</v>
       </c>
       <c r="E54" s="3">
-        <v>3131400</v>
+        <v>2929400</v>
       </c>
       <c r="F54" s="3">
-        <v>2918600</v>
+        <v>2730300</v>
       </c>
       <c r="G54" s="3">
-        <v>2983300</v>
+        <v>2790800</v>
       </c>
       <c r="H54" s="3">
-        <v>2450500</v>
+        <v>2292400</v>
       </c>
       <c r="I54" s="3">
-        <v>2321300</v>
+        <v>2171600</v>
       </c>
       <c r="J54" s="3">
-        <v>2263600</v>
+        <v>2117500</v>
       </c>
       <c r="K54" s="3">
         <v>2105000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>544200</v>
+        <v>509100</v>
       </c>
       <c r="E57" s="3">
-        <v>317700</v>
+        <v>297200</v>
       </c>
       <c r="F57" s="3">
-        <v>308300</v>
+        <v>288400</v>
       </c>
       <c r="G57" s="3">
-        <v>306700</v>
+        <v>286900</v>
       </c>
       <c r="H57" s="3">
-        <v>278200</v>
+        <v>260200</v>
       </c>
       <c r="I57" s="3">
-        <v>582700</v>
+        <v>545100</v>
       </c>
       <c r="J57" s="3">
-        <v>282400</v>
+        <v>264200</v>
       </c>
       <c r="K57" s="3">
         <v>242500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>128400</v>
+        <v>120100</v>
       </c>
       <c r="E58" s="3">
-        <v>82500</v>
+        <v>77200</v>
       </c>
       <c r="F58" s="3">
-        <v>86100</v>
+        <v>80500</v>
       </c>
       <c r="G58" s="3">
-        <v>75100</v>
+        <v>70200</v>
       </c>
       <c r="H58" s="3">
-        <v>57100</v>
+        <v>53400</v>
       </c>
       <c r="I58" s="3">
-        <v>71500</v>
+        <v>66900</v>
       </c>
       <c r="J58" s="3">
-        <v>54200</v>
+        <v>50700</v>
       </c>
       <c r="K58" s="3">
         <v>76700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>296100</v>
+        <v>277000</v>
       </c>
       <c r="E59" s="3">
-        <v>246400</v>
+        <v>230500</v>
       </c>
       <c r="F59" s="3">
-        <v>204900</v>
+        <v>191700</v>
       </c>
       <c r="G59" s="3">
-        <v>418900</v>
+        <v>391900</v>
       </c>
       <c r="H59" s="3">
-        <v>246000</v>
+        <v>230100</v>
       </c>
       <c r="I59" s="3">
-        <v>216300</v>
+        <v>202400</v>
       </c>
       <c r="J59" s="3">
-        <v>145400</v>
+        <v>136000</v>
       </c>
       <c r="K59" s="3">
         <v>131000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>968600</v>
+        <v>906100</v>
       </c>
       <c r="E60" s="3">
-        <v>646700</v>
+        <v>605000</v>
       </c>
       <c r="F60" s="3">
-        <v>599300</v>
+        <v>560600</v>
       </c>
       <c r="G60" s="3">
-        <v>800700</v>
+        <v>749000</v>
       </c>
       <c r="H60" s="3">
-        <v>581200</v>
+        <v>543700</v>
       </c>
       <c r="I60" s="3">
-        <v>548500</v>
+        <v>513200</v>
       </c>
       <c r="J60" s="3">
-        <v>482000</v>
+        <v>450900</v>
       </c>
       <c r="K60" s="3">
         <v>450200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>599200</v>
+        <v>560600</v>
       </c>
       <c r="E61" s="3">
-        <v>545700</v>
+        <v>510500</v>
       </c>
       <c r="F61" s="3">
-        <v>324600</v>
+        <v>303700</v>
       </c>
       <c r="G61" s="3">
-        <v>282800</v>
+        <v>264500</v>
       </c>
       <c r="H61" s="3">
-        <v>199600</v>
+        <v>186800</v>
       </c>
       <c r="I61" s="3">
-        <v>146300</v>
+        <v>136800</v>
       </c>
       <c r="J61" s="3">
-        <v>169800</v>
+        <v>158800</v>
       </c>
       <c r="K61" s="3">
         <v>160000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>194500</v>
+        <v>182000</v>
       </c>
       <c r="E62" s="3">
-        <v>192100</v>
+        <v>179700</v>
       </c>
       <c r="F62" s="3">
-        <v>205500</v>
+        <v>192200</v>
       </c>
       <c r="G62" s="3">
-        <v>177300</v>
+        <v>165900</v>
       </c>
       <c r="H62" s="3">
-        <v>148400</v>
+        <v>138800</v>
       </c>
       <c r="I62" s="3">
-        <v>137700</v>
+        <v>128800</v>
       </c>
       <c r="J62" s="3">
-        <v>139300</v>
+        <v>130300</v>
       </c>
       <c r="K62" s="3">
         <v>128000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1908500</v>
+        <v>1785400</v>
       </c>
       <c r="E66" s="3">
-        <v>1523700</v>
+        <v>1425400</v>
       </c>
       <c r="F66" s="3">
-        <v>1271800</v>
+        <v>1189700</v>
       </c>
       <c r="G66" s="3">
-        <v>1395900</v>
+        <v>1305900</v>
       </c>
       <c r="H66" s="3">
-        <v>1085200</v>
+        <v>1015200</v>
       </c>
       <c r="I66" s="3">
-        <v>985500</v>
+        <v>921900</v>
       </c>
       <c r="J66" s="3">
-        <v>951900</v>
+        <v>890500</v>
       </c>
       <c r="K66" s="3">
         <v>884500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>981500</v>
+        <v>918200</v>
       </c>
       <c r="E72" s="3">
-        <v>1096900</v>
+        <v>1026100</v>
       </c>
       <c r="F72" s="3">
-        <v>1075000</v>
+        <v>1005700</v>
       </c>
       <c r="G72" s="3">
-        <v>1035900</v>
+        <v>969100</v>
       </c>
       <c r="H72" s="3">
-        <v>637100</v>
+        <v>596000</v>
       </c>
       <c r="I72" s="3">
-        <v>787600</v>
+        <v>736700</v>
       </c>
       <c r="J72" s="3">
-        <v>732300</v>
+        <v>685100</v>
       </c>
       <c r="K72" s="3">
         <v>631600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1621400</v>
+        <v>1516800</v>
       </c>
       <c r="E76" s="3">
-        <v>1607800</v>
+        <v>1504000</v>
       </c>
       <c r="F76" s="3">
-        <v>1646800</v>
+        <v>1540500</v>
       </c>
       <c r="G76" s="3">
-        <v>1587400</v>
+        <v>1484900</v>
       </c>
       <c r="H76" s="3">
-        <v>1365300</v>
+        <v>1277200</v>
       </c>
       <c r="I76" s="3">
-        <v>1335800</v>
+        <v>1249700</v>
       </c>
       <c r="J76" s="3">
-        <v>1311700</v>
+        <v>1227100</v>
       </c>
       <c r="K76" s="3">
         <v>1220400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>247000</v>
+        <v>231000</v>
       </c>
       <c r="E81" s="3">
-        <v>119200</v>
+        <v>111500</v>
       </c>
       <c r="F81" s="3">
-        <v>161400</v>
+        <v>151000</v>
       </c>
       <c r="G81" s="3">
-        <v>380500</v>
+        <v>356000</v>
       </c>
       <c r="H81" s="3">
-        <v>160700</v>
+        <v>150300</v>
       </c>
       <c r="I81" s="3">
-        <v>146900</v>
+        <v>137400</v>
       </c>
       <c r="J81" s="3">
-        <v>149800</v>
+        <v>140100</v>
       </c>
       <c r="K81" s="3">
         <v>126400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>363800</v>
+        <v>340300</v>
       </c>
       <c r="E89" s="3">
-        <v>348000</v>
+        <v>325600</v>
       </c>
       <c r="F89" s="3">
-        <v>300500</v>
+        <v>281100</v>
       </c>
       <c r="G89" s="3">
-        <v>532300</v>
+        <v>498000</v>
       </c>
       <c r="H89" s="3">
-        <v>325100</v>
+        <v>304100</v>
       </c>
       <c r="I89" s="3">
-        <v>235600</v>
+        <v>220400</v>
       </c>
       <c r="J89" s="3">
-        <v>272200</v>
+        <v>254600</v>
       </c>
       <c r="K89" s="3">
         <v>206600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-210400</v>
+        <v>-196800</v>
       </c>
       <c r="E91" s="3">
-        <v>-145100</v>
+        <v>-135700</v>
       </c>
       <c r="F91" s="3">
-        <v>-167000</v>
+        <v>-156200</v>
       </c>
       <c r="G91" s="3">
-        <v>-159200</v>
+        <v>-148900</v>
       </c>
       <c r="H91" s="3">
-        <v>-153200</v>
+        <v>-143300</v>
       </c>
       <c r="I91" s="3">
-        <v>-155900</v>
+        <v>-145800</v>
       </c>
       <c r="J91" s="3">
-        <v>-160800</v>
+        <v>-150400</v>
       </c>
       <c r="K91" s="3">
         <v>-271200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-222000</v>
+        <v>-207600</v>
       </c>
       <c r="E94" s="3">
-        <v>-174300</v>
+        <v>-163000</v>
       </c>
       <c r="F94" s="3">
-        <v>-178800</v>
+        <v>-167300</v>
       </c>
       <c r="G94" s="3">
-        <v>-246800</v>
+        <v>-230800</v>
       </c>
       <c r="H94" s="3">
-        <v>-215300</v>
+        <v>-201400</v>
       </c>
       <c r="I94" s="3">
-        <v>-192200</v>
+        <v>-179800</v>
       </c>
       <c r="J94" s="3">
-        <v>-205600</v>
+        <v>-192300</v>
       </c>
       <c r="K94" s="3">
         <v>-284400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-339900</v>
+        <v>-318000</v>
       </c>
       <c r="E96" s="3">
-        <v>-126600</v>
+        <v>-118500</v>
       </c>
       <c r="F96" s="3">
-        <v>-270400</v>
+        <v>-252900</v>
       </c>
       <c r="G96" s="3">
-        <v>-92800</v>
+        <v>-86800</v>
       </c>
       <c r="H96" s="3">
-        <v>-93200</v>
+        <v>-87100</v>
       </c>
       <c r="I96" s="3">
-        <v>-86600</v>
+        <v>-81000</v>
       </c>
       <c r="J96" s="3">
-        <v>-82000</v>
+        <v>-76700</v>
       </c>
       <c r="K96" s="3">
         <v>-77700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-289700</v>
+        <v>-271000</v>
       </c>
       <c r="E100" s="3">
-        <v>80300</v>
+        <v>75100</v>
       </c>
       <c r="F100" s="3">
-        <v>-247300</v>
+        <v>-231300</v>
       </c>
       <c r="G100" s="3">
-        <v>-65700</v>
+        <v>-61400</v>
       </c>
       <c r="H100" s="3">
-        <v>-65700</v>
+        <v>-61500</v>
       </c>
       <c r="I100" s="3">
-        <v>-117900</v>
+        <v>-110300</v>
       </c>
       <c r="J100" s="3">
-        <v>-102700</v>
+        <v>-96100</v>
       </c>
       <c r="K100" s="3">
         <v>-157300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14300</v>
+        <v>-13400</v>
       </c>
       <c r="E101" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="F101" s="3">
-        <v>-26500</v>
+        <v>-24800</v>
       </c>
       <c r="G101" s="3">
-        <v>-35200</v>
+        <v>-32900</v>
       </c>
       <c r="H101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J101" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="K101" s="3">
         <v>4100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-162200</v>
+        <v>-151800</v>
       </c>
       <c r="E102" s="3">
-        <v>248000</v>
+        <v>232000</v>
       </c>
       <c r="F102" s="3">
-        <v>-152100</v>
+        <v>-142300</v>
       </c>
       <c r="G102" s="3">
-        <v>184700</v>
+        <v>172800</v>
       </c>
       <c r="H102" s="3">
-        <v>44700</v>
+        <v>41800</v>
       </c>
       <c r="I102" s="3">
-        <v>-72600</v>
+        <v>-67900</v>
       </c>
       <c r="J102" s="3">
-        <v>-27600</v>
+        <v>-25800</v>
       </c>
       <c r="K102" s="3">
         <v>-231000</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2882300</v>
+        <v>2758000</v>
       </c>
       <c r="E8" s="3">
-        <v>2154800</v>
+        <v>2061900</v>
       </c>
       <c r="F8" s="3">
-        <v>2114100</v>
+        <v>2023000</v>
       </c>
       <c r="G8" s="3">
-        <v>2068600</v>
+        <v>1979400</v>
       </c>
       <c r="H8" s="3">
-        <v>1970100</v>
+        <v>1885200</v>
       </c>
       <c r="I8" s="3">
-        <v>1808300</v>
+        <v>1730400</v>
       </c>
       <c r="J8" s="3">
-        <v>1738100</v>
+        <v>1663200</v>
       </c>
       <c r="K8" s="3">
         <v>1544600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1498200</v>
+        <v>1433600</v>
       </c>
       <c r="E9" s="3">
-        <v>1141500</v>
+        <v>1092300</v>
       </c>
       <c r="F9" s="3">
-        <v>1053600</v>
+        <v>1008200</v>
       </c>
       <c r="G9" s="3">
-        <v>997600</v>
+        <v>954600</v>
       </c>
       <c r="H9" s="3">
-        <v>926500</v>
+        <v>886600</v>
       </c>
       <c r="I9" s="3">
-        <v>860500</v>
+        <v>823400</v>
       </c>
       <c r="J9" s="3">
-        <v>794700</v>
+        <v>760400</v>
       </c>
       <c r="K9" s="3">
         <v>719400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1384100</v>
+        <v>1324400</v>
       </c>
       <c r="E10" s="3">
-        <v>1013300</v>
+        <v>969600</v>
       </c>
       <c r="F10" s="3">
-        <v>1060500</v>
+        <v>1014800</v>
       </c>
       <c r="G10" s="3">
-        <v>1071000</v>
+        <v>1024800</v>
       </c>
       <c r="H10" s="3">
-        <v>1043600</v>
+        <v>998600</v>
       </c>
       <c r="I10" s="3">
-        <v>947800</v>
+        <v>907000</v>
       </c>
       <c r="J10" s="3">
-        <v>943400</v>
+        <v>902800</v>
       </c>
       <c r="K10" s="3">
         <v>825200</v>
@@ -938,13 +938,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-247500</v>
+        <v>-236900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2498900</v>
+        <v>2391200</v>
       </c>
       <c r="E17" s="3">
-        <v>1951600</v>
+        <v>1867500</v>
       </c>
       <c r="F17" s="3">
-        <v>1842700</v>
+        <v>1763300</v>
       </c>
       <c r="G17" s="3">
-        <v>1520200</v>
+        <v>1454700</v>
       </c>
       <c r="H17" s="3">
-        <v>1706600</v>
+        <v>1633000</v>
       </c>
       <c r="I17" s="3">
-        <v>1585200</v>
+        <v>1516900</v>
       </c>
       <c r="J17" s="3">
-        <v>1490500</v>
+        <v>1426300</v>
       </c>
       <c r="K17" s="3">
         <v>1325700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>383300</v>
+        <v>366800</v>
       </c>
       <c r="E18" s="3">
-        <v>203200</v>
+        <v>194500</v>
       </c>
       <c r="F18" s="3">
-        <v>271400</v>
+        <v>259700</v>
       </c>
       <c r="G18" s="3">
-        <v>548400</v>
+        <v>524800</v>
       </c>
       <c r="H18" s="3">
-        <v>263500</v>
+        <v>252200</v>
       </c>
       <c r="I18" s="3">
-        <v>223100</v>
+        <v>213500</v>
       </c>
       <c r="J18" s="3">
-        <v>247600</v>
+        <v>236900</v>
       </c>
       <c r="K18" s="3">
         <v>218900</v>
@@ -1122,19 +1122,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F20" s="3">
-        <v>-23900</v>
+        <v>-22900</v>
       </c>
       <c r="G20" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="H20" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="I20" s="3">
         <v>-1900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>391300</v>
+        <v>374400</v>
       </c>
       <c r="E21" s="3">
-        <v>199900</v>
+        <v>191300</v>
       </c>
       <c r="F21" s="3">
-        <v>247500</v>
+        <v>236800</v>
       </c>
       <c r="G21" s="3">
-        <v>558900</v>
+        <v>534800</v>
       </c>
       <c r="H21" s="3">
-        <v>255900</v>
+        <v>244900</v>
       </c>
       <c r="I21" s="3">
-        <v>221100</v>
+        <v>211600</v>
       </c>
       <c r="J21" s="3">
-        <v>247900</v>
+        <v>237300</v>
       </c>
       <c r="K21" s="3">
         <v>199300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41400</v>
+        <v>39600</v>
       </c>
       <c r="E22" s="3">
-        <v>33300</v>
+        <v>31900</v>
       </c>
       <c r="F22" s="3">
-        <v>32200</v>
+        <v>30800</v>
       </c>
       <c r="G22" s="3">
-        <v>27300</v>
+        <v>26200</v>
       </c>
       <c r="H22" s="3">
-        <v>28000</v>
+        <v>26800</v>
       </c>
       <c r="I22" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="J22" s="3">
-        <v>26800</v>
+        <v>25600</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>349900</v>
+        <v>334900</v>
       </c>
       <c r="E23" s="3">
-        <v>166600</v>
+        <v>159400</v>
       </c>
       <c r="F23" s="3">
-        <v>215300</v>
+        <v>206000</v>
       </c>
       <c r="G23" s="3">
-        <v>531500</v>
+        <v>508600</v>
       </c>
       <c r="H23" s="3">
-        <v>227900</v>
+        <v>218100</v>
       </c>
       <c r="I23" s="3">
-        <v>197600</v>
+        <v>189100</v>
       </c>
       <c r="J23" s="3">
-        <v>221100</v>
+        <v>211600</v>
       </c>
       <c r="K23" s="3">
         <v>199300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>95900</v>
+        <v>91700</v>
       </c>
       <c r="E24" s="3">
-        <v>41100</v>
+        <v>39300</v>
       </c>
       <c r="F24" s="3">
-        <v>46400</v>
+        <v>44400</v>
       </c>
       <c r="G24" s="3">
-        <v>157900</v>
+        <v>151100</v>
       </c>
       <c r="H24" s="3">
-        <v>56100</v>
+        <v>53700</v>
       </c>
       <c r="I24" s="3">
-        <v>35100</v>
+        <v>33600</v>
       </c>
       <c r="J24" s="3">
-        <v>58100</v>
+        <v>55600</v>
       </c>
       <c r="K24" s="3">
         <v>55500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>254100</v>
+        <v>243100</v>
       </c>
       <c r="E26" s="3">
-        <v>125500</v>
+        <v>120100</v>
       </c>
       <c r="F26" s="3">
-        <v>168900</v>
+        <v>161700</v>
       </c>
       <c r="G26" s="3">
-        <v>373600</v>
+        <v>357500</v>
       </c>
       <c r="H26" s="3">
-        <v>171800</v>
+        <v>164400</v>
       </c>
       <c r="I26" s="3">
-        <v>162500</v>
+        <v>155500</v>
       </c>
       <c r="J26" s="3">
-        <v>163000</v>
+        <v>156000</v>
       </c>
       <c r="K26" s="3">
         <v>143700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>231000</v>
+        <v>221100</v>
       </c>
       <c r="E27" s="3">
-        <v>111500</v>
+        <v>106700</v>
       </c>
       <c r="F27" s="3">
-        <v>151000</v>
+        <v>144500</v>
       </c>
       <c r="G27" s="3">
-        <v>356000</v>
+        <v>340600</v>
       </c>
       <c r="H27" s="3">
-        <v>150300</v>
+        <v>143900</v>
       </c>
       <c r="I27" s="3">
-        <v>137400</v>
+        <v>131500</v>
       </c>
       <c r="J27" s="3">
-        <v>140100</v>
+        <v>134100</v>
       </c>
       <c r="K27" s="3">
         <v>126400</v>
@@ -1590,19 +1590,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8000</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F32" s="3">
-        <v>23900</v>
+        <v>22900</v>
       </c>
       <c r="G32" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="H32" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="I32" s="3">
         <v>1900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>231000</v>
+        <v>221100</v>
       </c>
       <c r="E33" s="3">
-        <v>111500</v>
+        <v>106700</v>
       </c>
       <c r="F33" s="3">
-        <v>151000</v>
+        <v>144500</v>
       </c>
       <c r="G33" s="3">
-        <v>356000</v>
+        <v>340600</v>
       </c>
       <c r="H33" s="3">
-        <v>150300</v>
+        <v>143900</v>
       </c>
       <c r="I33" s="3">
-        <v>137400</v>
+        <v>131500</v>
       </c>
       <c r="J33" s="3">
-        <v>140100</v>
+        <v>134100</v>
       </c>
       <c r="K33" s="3">
         <v>126400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>231000</v>
+        <v>221100</v>
       </c>
       <c r="E35" s="3">
-        <v>111500</v>
+        <v>106700</v>
       </c>
       <c r="F35" s="3">
-        <v>151000</v>
+        <v>144500</v>
       </c>
       <c r="G35" s="3">
-        <v>356000</v>
+        <v>340600</v>
       </c>
       <c r="H35" s="3">
-        <v>150300</v>
+        <v>143900</v>
       </c>
       <c r="I35" s="3">
-        <v>137400</v>
+        <v>131500</v>
       </c>
       <c r="J35" s="3">
-        <v>140100</v>
+        <v>134100</v>
       </c>
       <c r="K35" s="3">
         <v>126400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>142900</v>
+        <v>136800</v>
       </c>
       <c r="E41" s="3">
-        <v>229500</v>
+        <v>219600</v>
       </c>
       <c r="F41" s="3">
-        <v>103700</v>
+        <v>99200</v>
       </c>
       <c r="G41" s="3">
-        <v>130500</v>
+        <v>124900</v>
       </c>
       <c r="H41" s="3">
-        <v>58900</v>
+        <v>56300</v>
       </c>
       <c r="I41" s="3">
-        <v>67900</v>
+        <v>65000</v>
       </c>
       <c r="J41" s="3">
-        <v>87600</v>
+        <v>83800</v>
       </c>
       <c r="K41" s="3">
         <v>156600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>192800</v>
+        <v>184500</v>
       </c>
       <c r="E42" s="3">
-        <v>244500</v>
+        <v>233900</v>
       </c>
       <c r="F42" s="3">
-        <v>135500</v>
+        <v>129600</v>
       </c>
       <c r="G42" s="3">
-        <v>265900</v>
+        <v>254500</v>
       </c>
       <c r="H42" s="3">
-        <v>150800</v>
+        <v>144300</v>
       </c>
       <c r="I42" s="3">
-        <v>97300</v>
+        <v>93100</v>
       </c>
       <c r="J42" s="3">
-        <v>151600</v>
+        <v>145100</v>
       </c>
       <c r="K42" s="3">
         <v>106700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>469100</v>
+        <v>448800</v>
       </c>
       <c r="E43" s="3">
-        <v>338200</v>
+        <v>323600</v>
       </c>
       <c r="F43" s="3">
-        <v>369400</v>
+        <v>353500</v>
       </c>
       <c r="G43" s="3">
-        <v>395600</v>
+        <v>378600</v>
       </c>
       <c r="H43" s="3">
-        <v>371300</v>
+        <v>355300</v>
       </c>
       <c r="I43" s="3">
-        <v>363900</v>
+        <v>348300</v>
       </c>
       <c r="J43" s="3">
-        <v>315800</v>
+        <v>302200</v>
       </c>
       <c r="K43" s="3">
         <v>320900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>424500</v>
+        <v>406200</v>
       </c>
       <c r="E44" s="3">
-        <v>281200</v>
+        <v>269100</v>
       </c>
       <c r="F44" s="3">
-        <v>280600</v>
+        <v>268500</v>
       </c>
       <c r="G44" s="3">
-        <v>274400</v>
+        <v>262600</v>
       </c>
       <c r="H44" s="3">
-        <v>243800</v>
+        <v>233300</v>
       </c>
       <c r="I44" s="3">
-        <v>231200</v>
+        <v>221200</v>
       </c>
       <c r="J44" s="3">
-        <v>202100</v>
+        <v>193400</v>
       </c>
       <c r="K44" s="3">
         <v>208500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36700</v>
+        <v>35100</v>
       </c>
       <c r="E45" s="3">
-        <v>20200</v>
+        <v>19300</v>
       </c>
       <c r="F45" s="3">
-        <v>26400</v>
+        <v>25300</v>
       </c>
       <c r="G45" s="3">
-        <v>25100</v>
+        <v>24000</v>
       </c>
       <c r="H45" s="3">
-        <v>30500</v>
+        <v>29200</v>
       </c>
       <c r="I45" s="3">
-        <v>30400</v>
+        <v>29100</v>
       </c>
       <c r="J45" s="3">
-        <v>36700</v>
+        <v>35100</v>
       </c>
       <c r="K45" s="3">
         <v>32100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1266000</v>
+        <v>1211400</v>
       </c>
       <c r="E46" s="3">
-        <v>1113600</v>
+        <v>1065600</v>
       </c>
       <c r="F46" s="3">
-        <v>915600</v>
+        <v>876100</v>
       </c>
       <c r="G46" s="3">
-        <v>1091600</v>
+        <v>1044500</v>
       </c>
       <c r="H46" s="3">
-        <v>845800</v>
+        <v>809300</v>
       </c>
       <c r="I46" s="3">
-        <v>790800</v>
+        <v>756700</v>
       </c>
       <c r="J46" s="3">
-        <v>793800</v>
+        <v>759600</v>
       </c>
       <c r="K46" s="3">
         <v>815600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>201000</v>
+        <v>192300</v>
       </c>
       <c r="E47" s="3">
-        <v>168300</v>
+        <v>161000</v>
       </c>
       <c r="F47" s="3">
-        <v>167200</v>
+        <v>160000</v>
       </c>
       <c r="G47" s="3">
-        <v>172700</v>
+        <v>165300</v>
       </c>
       <c r="H47" s="3">
-        <v>122300</v>
+        <v>117000</v>
       </c>
       <c r="I47" s="3">
-        <v>79500</v>
+        <v>76100</v>
       </c>
       <c r="J47" s="3">
-        <v>58600</v>
+        <v>56100</v>
       </c>
       <c r="K47" s="3">
         <v>39100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1461800</v>
+        <v>1398800</v>
       </c>
       <c r="E48" s="3">
-        <v>1293700</v>
+        <v>1238000</v>
       </c>
       <c r="F48" s="3">
-        <v>1282800</v>
+        <v>1227500</v>
       </c>
       <c r="G48" s="3">
-        <v>1194800</v>
+        <v>1143300</v>
       </c>
       <c r="H48" s="3">
-        <v>1071500</v>
+        <v>1025400</v>
       </c>
       <c r="I48" s="3">
-        <v>1063300</v>
+        <v>1017400</v>
       </c>
       <c r="J48" s="3">
-        <v>1090800</v>
+        <v>1043800</v>
       </c>
       <c r="K48" s="3">
         <v>1043900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>328400</v>
+        <v>314300</v>
       </c>
       <c r="E49" s="3">
-        <v>284700</v>
+        <v>272400</v>
       </c>
       <c r="F49" s="3">
-        <v>290700</v>
+        <v>278100</v>
       </c>
       <c r="G49" s="3">
-        <v>280700</v>
+        <v>268600</v>
       </c>
       <c r="H49" s="3">
-        <v>199100</v>
+        <v>190500</v>
       </c>
       <c r="I49" s="3">
-        <v>202800</v>
+        <v>194100</v>
       </c>
       <c r="J49" s="3">
-        <v>198800</v>
+        <v>190200</v>
       </c>
       <c r="K49" s="3">
         <v>185000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45100</v>
+        <v>43100</v>
       </c>
       <c r="E52" s="3">
-        <v>69100</v>
+        <v>66100</v>
       </c>
       <c r="F52" s="3">
-        <v>74100</v>
+        <v>70900</v>
       </c>
       <c r="G52" s="3">
-        <v>51000</v>
+        <v>48800</v>
       </c>
       <c r="H52" s="3">
-        <v>53700</v>
+        <v>51400</v>
       </c>
       <c r="I52" s="3">
-        <v>42400</v>
+        <v>40600</v>
       </c>
       <c r="J52" s="3">
-        <v>46100</v>
+        <v>44100</v>
       </c>
       <c r="K52" s="3">
         <v>42900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3302200</v>
+        <v>3159900</v>
       </c>
       <c r="E54" s="3">
-        <v>2929400</v>
+        <v>2803100</v>
       </c>
       <c r="F54" s="3">
-        <v>2730300</v>
+        <v>2612600</v>
       </c>
       <c r="G54" s="3">
-        <v>2790800</v>
+        <v>2670500</v>
       </c>
       <c r="H54" s="3">
-        <v>2292400</v>
+        <v>2193600</v>
       </c>
       <c r="I54" s="3">
-        <v>2171600</v>
+        <v>2078000</v>
       </c>
       <c r="J54" s="3">
-        <v>2117500</v>
+        <v>2026200</v>
       </c>
       <c r="K54" s="3">
         <v>2105000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>509100</v>
+        <v>487100</v>
       </c>
       <c r="E57" s="3">
-        <v>297200</v>
+        <v>284400</v>
       </c>
       <c r="F57" s="3">
-        <v>288400</v>
+        <v>276000</v>
       </c>
       <c r="G57" s="3">
-        <v>286900</v>
+        <v>274500</v>
       </c>
       <c r="H57" s="3">
-        <v>260200</v>
+        <v>249000</v>
       </c>
       <c r="I57" s="3">
-        <v>545100</v>
+        <v>521600</v>
       </c>
       <c r="J57" s="3">
-        <v>264200</v>
+        <v>252800</v>
       </c>
       <c r="K57" s="3">
         <v>242500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>120100</v>
+        <v>114900</v>
       </c>
       <c r="E58" s="3">
-        <v>77200</v>
+        <v>73900</v>
       </c>
       <c r="F58" s="3">
-        <v>80500</v>
+        <v>77100</v>
       </c>
       <c r="G58" s="3">
-        <v>70200</v>
+        <v>67200</v>
       </c>
       <c r="H58" s="3">
-        <v>53400</v>
+        <v>51100</v>
       </c>
       <c r="I58" s="3">
-        <v>66900</v>
+        <v>64000</v>
       </c>
       <c r="J58" s="3">
-        <v>50700</v>
+        <v>48500</v>
       </c>
       <c r="K58" s="3">
         <v>76700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>277000</v>
+        <v>265000</v>
       </c>
       <c r="E59" s="3">
-        <v>230500</v>
+        <v>220600</v>
       </c>
       <c r="F59" s="3">
-        <v>191700</v>
+        <v>183400</v>
       </c>
       <c r="G59" s="3">
-        <v>391900</v>
+        <v>375000</v>
       </c>
       <c r="H59" s="3">
-        <v>230100</v>
+        <v>220200</v>
       </c>
       <c r="I59" s="3">
-        <v>202400</v>
+        <v>193700</v>
       </c>
       <c r="J59" s="3">
-        <v>136000</v>
+        <v>130200</v>
       </c>
       <c r="K59" s="3">
         <v>131000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>906100</v>
+        <v>867000</v>
       </c>
       <c r="E60" s="3">
-        <v>605000</v>
+        <v>578900</v>
       </c>
       <c r="F60" s="3">
-        <v>560600</v>
+        <v>536400</v>
       </c>
       <c r="G60" s="3">
-        <v>749000</v>
+        <v>716800</v>
       </c>
       <c r="H60" s="3">
-        <v>543700</v>
+        <v>520300</v>
       </c>
       <c r="I60" s="3">
-        <v>513200</v>
+        <v>491000</v>
       </c>
       <c r="J60" s="3">
-        <v>450900</v>
+        <v>431400</v>
       </c>
       <c r="K60" s="3">
         <v>450200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>560600</v>
+        <v>536400</v>
       </c>
       <c r="E61" s="3">
-        <v>510500</v>
+        <v>488500</v>
       </c>
       <c r="F61" s="3">
-        <v>303700</v>
+        <v>290600</v>
       </c>
       <c r="G61" s="3">
-        <v>264500</v>
+        <v>253100</v>
       </c>
       <c r="H61" s="3">
-        <v>186800</v>
+        <v>178700</v>
       </c>
       <c r="I61" s="3">
-        <v>136800</v>
+        <v>130900</v>
       </c>
       <c r="J61" s="3">
-        <v>158800</v>
+        <v>152000</v>
       </c>
       <c r="K61" s="3">
         <v>160000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>182000</v>
+        <v>174100</v>
       </c>
       <c r="E62" s="3">
-        <v>179700</v>
+        <v>172000</v>
       </c>
       <c r="F62" s="3">
-        <v>192200</v>
+        <v>183900</v>
       </c>
       <c r="G62" s="3">
-        <v>165900</v>
+        <v>158700</v>
       </c>
       <c r="H62" s="3">
-        <v>138800</v>
+        <v>132800</v>
       </c>
       <c r="I62" s="3">
-        <v>128800</v>
+        <v>123300</v>
       </c>
       <c r="J62" s="3">
-        <v>130300</v>
+        <v>124700</v>
       </c>
       <c r="K62" s="3">
         <v>128000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1785400</v>
+        <v>1708400</v>
       </c>
       <c r="E66" s="3">
-        <v>1425400</v>
+        <v>1363900</v>
       </c>
       <c r="F66" s="3">
-        <v>1189700</v>
+        <v>1138500</v>
       </c>
       <c r="G66" s="3">
-        <v>1305900</v>
+        <v>1249600</v>
       </c>
       <c r="H66" s="3">
-        <v>1015200</v>
+        <v>971400</v>
       </c>
       <c r="I66" s="3">
-        <v>921900</v>
+        <v>882100</v>
       </c>
       <c r="J66" s="3">
-        <v>890500</v>
+        <v>852100</v>
       </c>
       <c r="K66" s="3">
         <v>884500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>918200</v>
+        <v>878600</v>
       </c>
       <c r="E72" s="3">
-        <v>1026100</v>
+        <v>981900</v>
       </c>
       <c r="F72" s="3">
-        <v>1005700</v>
+        <v>962300</v>
       </c>
       <c r="G72" s="3">
-        <v>969100</v>
+        <v>927300</v>
       </c>
       <c r="H72" s="3">
-        <v>596000</v>
+        <v>570300</v>
       </c>
       <c r="I72" s="3">
-        <v>736700</v>
+        <v>705000</v>
       </c>
       <c r="J72" s="3">
-        <v>685100</v>
+        <v>655500</v>
       </c>
       <c r="K72" s="3">
         <v>631600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1516800</v>
+        <v>1451500</v>
       </c>
       <c r="E76" s="3">
-        <v>1504000</v>
+        <v>1439200</v>
       </c>
       <c r="F76" s="3">
-        <v>1540500</v>
+        <v>1474100</v>
       </c>
       <c r="G76" s="3">
-        <v>1484900</v>
+        <v>1420900</v>
       </c>
       <c r="H76" s="3">
-        <v>1277200</v>
+        <v>1222200</v>
       </c>
       <c r="I76" s="3">
-        <v>1249700</v>
+        <v>1195800</v>
       </c>
       <c r="J76" s="3">
-        <v>1227100</v>
+        <v>1174200</v>
       </c>
       <c r="K76" s="3">
         <v>1220400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>231000</v>
+        <v>221100</v>
       </c>
       <c r="E81" s="3">
-        <v>111500</v>
+        <v>106700</v>
       </c>
       <c r="F81" s="3">
-        <v>151000</v>
+        <v>144500</v>
       </c>
       <c r="G81" s="3">
-        <v>356000</v>
+        <v>340600</v>
       </c>
       <c r="H81" s="3">
-        <v>150300</v>
+        <v>143900</v>
       </c>
       <c r="I81" s="3">
-        <v>137400</v>
+        <v>131500</v>
       </c>
       <c r="J81" s="3">
-        <v>140100</v>
+        <v>134100</v>
       </c>
       <c r="K81" s="3">
         <v>126400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>340300</v>
+        <v>325600</v>
       </c>
       <c r="E89" s="3">
-        <v>325600</v>
+        <v>311500</v>
       </c>
       <c r="F89" s="3">
-        <v>281100</v>
+        <v>269000</v>
       </c>
       <c r="G89" s="3">
-        <v>498000</v>
+        <v>476500</v>
       </c>
       <c r="H89" s="3">
-        <v>304100</v>
+        <v>291000</v>
       </c>
       <c r="I89" s="3">
-        <v>220400</v>
+        <v>210900</v>
       </c>
       <c r="J89" s="3">
-        <v>254600</v>
+        <v>243700</v>
       </c>
       <c r="K89" s="3">
         <v>206600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-196800</v>
+        <v>-188300</v>
       </c>
       <c r="E91" s="3">
-        <v>-135700</v>
+        <v>-129900</v>
       </c>
       <c r="F91" s="3">
-        <v>-156200</v>
+        <v>-149500</v>
       </c>
       <c r="G91" s="3">
-        <v>-148900</v>
+        <v>-142500</v>
       </c>
       <c r="H91" s="3">
-        <v>-143300</v>
+        <v>-137100</v>
       </c>
       <c r="I91" s="3">
-        <v>-145800</v>
+        <v>-139500</v>
       </c>
       <c r="J91" s="3">
-        <v>-150400</v>
+        <v>-143900</v>
       </c>
       <c r="K91" s="3">
         <v>-271200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-207600</v>
+        <v>-198700</v>
       </c>
       <c r="E94" s="3">
-        <v>-163000</v>
+        <v>-156000</v>
       </c>
       <c r="F94" s="3">
-        <v>-167300</v>
+        <v>-160000</v>
       </c>
       <c r="G94" s="3">
-        <v>-230800</v>
+        <v>-220900</v>
       </c>
       <c r="H94" s="3">
-        <v>-201400</v>
+        <v>-192700</v>
       </c>
       <c r="I94" s="3">
-        <v>-179800</v>
+        <v>-172100</v>
       </c>
       <c r="J94" s="3">
-        <v>-192300</v>
+        <v>-184000</v>
       </c>
       <c r="K94" s="3">
         <v>-284400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-318000</v>
+        <v>-304300</v>
       </c>
       <c r="E96" s="3">
-        <v>-118500</v>
+        <v>-113400</v>
       </c>
       <c r="F96" s="3">
-        <v>-252900</v>
+        <v>-242000</v>
       </c>
       <c r="G96" s="3">
-        <v>-86800</v>
+        <v>-83100</v>
       </c>
       <c r="H96" s="3">
-        <v>-87100</v>
+        <v>-83400</v>
       </c>
       <c r="I96" s="3">
-        <v>-81000</v>
+        <v>-77500</v>
       </c>
       <c r="J96" s="3">
-        <v>-76700</v>
+        <v>-73400</v>
       </c>
       <c r="K96" s="3">
         <v>-77700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-271000</v>
+        <v>-259300</v>
       </c>
       <c r="E100" s="3">
-        <v>75100</v>
+        <v>71900</v>
       </c>
       <c r="F100" s="3">
-        <v>-231300</v>
+        <v>-221400</v>
       </c>
       <c r="G100" s="3">
-        <v>-61400</v>
+        <v>-58800</v>
       </c>
       <c r="H100" s="3">
-        <v>-61500</v>
+        <v>-58800</v>
       </c>
       <c r="I100" s="3">
-        <v>-110300</v>
+        <v>-105500</v>
       </c>
       <c r="J100" s="3">
-        <v>-96100</v>
+        <v>-92000</v>
       </c>
       <c r="K100" s="3">
         <v>-157300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13400</v>
+        <v>-12800</v>
       </c>
       <c r="E101" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="F101" s="3">
-        <v>-24800</v>
+        <v>-23700</v>
       </c>
       <c r="G101" s="3">
-        <v>-32900</v>
+        <v>-31500</v>
       </c>
       <c r="H101" s="3">
         <v>500</v>
       </c>
       <c r="I101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J101" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="K101" s="3">
         <v>4100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-151800</v>
+        <v>-145200</v>
       </c>
       <c r="E102" s="3">
-        <v>232000</v>
+        <v>222000</v>
       </c>
       <c r="F102" s="3">
-        <v>-142300</v>
+        <v>-136100</v>
       </c>
       <c r="G102" s="3">
-        <v>172800</v>
+        <v>165400</v>
       </c>
       <c r="H102" s="3">
-        <v>41800</v>
+        <v>40000</v>
       </c>
       <c r="I102" s="3">
-        <v>-67900</v>
+        <v>-65000</v>
       </c>
       <c r="J102" s="3">
-        <v>-25800</v>
+        <v>-24700</v>
       </c>
       <c r="K102" s="3">
         <v>-231000</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2758000</v>
+        <v>2782900</v>
       </c>
       <c r="E8" s="3">
-        <v>2061900</v>
+        <v>2080500</v>
       </c>
       <c r="F8" s="3">
-        <v>2023000</v>
+        <v>2041200</v>
       </c>
       <c r="G8" s="3">
-        <v>1979400</v>
+        <v>1997300</v>
       </c>
       <c r="H8" s="3">
-        <v>1885200</v>
+        <v>1902200</v>
       </c>
       <c r="I8" s="3">
-        <v>1730400</v>
+        <v>1746000</v>
       </c>
       <c r="J8" s="3">
-        <v>1663200</v>
+        <v>1678200</v>
       </c>
       <c r="K8" s="3">
         <v>1544600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1433600</v>
+        <v>1446500</v>
       </c>
       <c r="E9" s="3">
-        <v>1092300</v>
+        <v>1102100</v>
       </c>
       <c r="F9" s="3">
-        <v>1008200</v>
+        <v>1017300</v>
       </c>
       <c r="G9" s="3">
-        <v>954600</v>
+        <v>963200</v>
       </c>
       <c r="H9" s="3">
-        <v>886600</v>
+        <v>894600</v>
       </c>
       <c r="I9" s="3">
-        <v>823400</v>
+        <v>830800</v>
       </c>
       <c r="J9" s="3">
-        <v>760400</v>
+        <v>767300</v>
       </c>
       <c r="K9" s="3">
         <v>719400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1324400</v>
+        <v>1336300</v>
       </c>
       <c r="E10" s="3">
-        <v>969600</v>
+        <v>978400</v>
       </c>
       <c r="F10" s="3">
-        <v>1014800</v>
+        <v>1023900</v>
       </c>
       <c r="G10" s="3">
-        <v>1024800</v>
+        <v>1034100</v>
       </c>
       <c r="H10" s="3">
-        <v>998600</v>
+        <v>1007600</v>
       </c>
       <c r="I10" s="3">
-        <v>907000</v>
+        <v>915100</v>
       </c>
       <c r="J10" s="3">
-        <v>902800</v>
+        <v>910900</v>
       </c>
       <c r="K10" s="3">
         <v>825200</v>
@@ -938,13 +938,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-236900</v>
+        <v>-239000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2391200</v>
+        <v>2412700</v>
       </c>
       <c r="E17" s="3">
-        <v>1867500</v>
+        <v>1884300</v>
       </c>
       <c r="F17" s="3">
-        <v>1763300</v>
+        <v>1779200</v>
       </c>
       <c r="G17" s="3">
-        <v>1454700</v>
+        <v>1467800</v>
       </c>
       <c r="H17" s="3">
-        <v>1633000</v>
+        <v>1647700</v>
       </c>
       <c r="I17" s="3">
-        <v>1516900</v>
+        <v>1530600</v>
       </c>
       <c r="J17" s="3">
-        <v>1426300</v>
+        <v>1439100</v>
       </c>
       <c r="K17" s="3">
         <v>1325700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>366800</v>
+        <v>370100</v>
       </c>
       <c r="E18" s="3">
-        <v>194500</v>
+        <v>196200</v>
       </c>
       <c r="F18" s="3">
-        <v>259700</v>
+        <v>262000</v>
       </c>
       <c r="G18" s="3">
-        <v>524800</v>
+        <v>529500</v>
       </c>
       <c r="H18" s="3">
-        <v>252200</v>
+        <v>254400</v>
       </c>
       <c r="I18" s="3">
-        <v>213500</v>
+        <v>215400</v>
       </c>
       <c r="J18" s="3">
-        <v>236900</v>
+        <v>239100</v>
       </c>
       <c r="K18" s="3">
         <v>218900</v>
@@ -1122,16 +1122,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E20" s="3">
         <v>-3200</v>
       </c>
       <c r="F20" s="3">
-        <v>-22900</v>
+        <v>-23100</v>
       </c>
       <c r="G20" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="H20" s="3">
         <v>-7300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>374400</v>
+        <v>377800</v>
       </c>
       <c r="E21" s="3">
-        <v>191300</v>
+        <v>193000</v>
       </c>
       <c r="F21" s="3">
-        <v>236800</v>
+        <v>238900</v>
       </c>
       <c r="G21" s="3">
-        <v>534800</v>
+        <v>539600</v>
       </c>
       <c r="H21" s="3">
-        <v>244900</v>
+        <v>247100</v>
       </c>
       <c r="I21" s="3">
-        <v>211600</v>
+        <v>213500</v>
       </c>
       <c r="J21" s="3">
-        <v>237300</v>
+        <v>239400</v>
       </c>
       <c r="K21" s="3">
         <v>199300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="E22" s="3">
-        <v>31900</v>
+        <v>32200</v>
       </c>
       <c r="F22" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="G22" s="3">
-        <v>26200</v>
+        <v>26400</v>
       </c>
       <c r="H22" s="3">
-        <v>26800</v>
+        <v>27100</v>
       </c>
       <c r="I22" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="J22" s="3">
-        <v>25600</v>
+        <v>25900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>334900</v>
+        <v>337900</v>
       </c>
       <c r="E23" s="3">
-        <v>159400</v>
+        <v>160800</v>
       </c>
       <c r="F23" s="3">
-        <v>206000</v>
+        <v>207900</v>
       </c>
       <c r="G23" s="3">
-        <v>508600</v>
+        <v>513200</v>
       </c>
       <c r="H23" s="3">
-        <v>218100</v>
+        <v>220100</v>
       </c>
       <c r="I23" s="3">
-        <v>189100</v>
+        <v>190800</v>
       </c>
       <c r="J23" s="3">
-        <v>211600</v>
+        <v>213500</v>
       </c>
       <c r="K23" s="3">
         <v>199300</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91700</v>
+        <v>92500</v>
       </c>
       <c r="E24" s="3">
-        <v>39300</v>
+        <v>39700</v>
       </c>
       <c r="F24" s="3">
-        <v>44400</v>
+        <v>44800</v>
       </c>
       <c r="G24" s="3">
-        <v>151100</v>
+        <v>152500</v>
       </c>
       <c r="H24" s="3">
-        <v>53700</v>
+        <v>54200</v>
       </c>
       <c r="I24" s="3">
-        <v>33600</v>
+        <v>33900</v>
       </c>
       <c r="J24" s="3">
-        <v>55600</v>
+        <v>56100</v>
       </c>
       <c r="K24" s="3">
         <v>55500</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>243100</v>
+        <v>245300</v>
       </c>
       <c r="E26" s="3">
-        <v>120100</v>
+        <v>121200</v>
       </c>
       <c r="F26" s="3">
-        <v>161700</v>
+        <v>163100</v>
       </c>
       <c r="G26" s="3">
-        <v>357500</v>
+        <v>360700</v>
       </c>
       <c r="H26" s="3">
-        <v>164400</v>
+        <v>165900</v>
       </c>
       <c r="I26" s="3">
-        <v>155500</v>
+        <v>156900</v>
       </c>
       <c r="J26" s="3">
-        <v>156000</v>
+        <v>157400</v>
       </c>
       <c r="K26" s="3">
         <v>143700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>221100</v>
+        <v>223100</v>
       </c>
       <c r="E27" s="3">
-        <v>106700</v>
+        <v>107700</v>
       </c>
       <c r="F27" s="3">
-        <v>144500</v>
+        <v>145800</v>
       </c>
       <c r="G27" s="3">
-        <v>340600</v>
+        <v>343700</v>
       </c>
       <c r="H27" s="3">
-        <v>143900</v>
+        <v>145200</v>
       </c>
       <c r="I27" s="3">
-        <v>131500</v>
+        <v>132700</v>
       </c>
       <c r="J27" s="3">
-        <v>134100</v>
+        <v>135300</v>
       </c>
       <c r="K27" s="3">
         <v>126400</v>
@@ -1590,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="E32" s="3">
         <v>3200</v>
       </c>
       <c r="F32" s="3">
-        <v>22900</v>
+        <v>23100</v>
       </c>
       <c r="G32" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="H32" s="3">
         <v>7300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>221100</v>
+        <v>223100</v>
       </c>
       <c r="E33" s="3">
-        <v>106700</v>
+        <v>107700</v>
       </c>
       <c r="F33" s="3">
-        <v>144500</v>
+        <v>145800</v>
       </c>
       <c r="G33" s="3">
-        <v>340600</v>
+        <v>343700</v>
       </c>
       <c r="H33" s="3">
-        <v>143900</v>
+        <v>145200</v>
       </c>
       <c r="I33" s="3">
-        <v>131500</v>
+        <v>132700</v>
       </c>
       <c r="J33" s="3">
-        <v>134100</v>
+        <v>135300</v>
       </c>
       <c r="K33" s="3">
         <v>126400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>221100</v>
+        <v>223100</v>
       </c>
       <c r="E35" s="3">
-        <v>106700</v>
+        <v>107700</v>
       </c>
       <c r="F35" s="3">
-        <v>144500</v>
+        <v>145800</v>
       </c>
       <c r="G35" s="3">
-        <v>340600</v>
+        <v>343700</v>
       </c>
       <c r="H35" s="3">
-        <v>143900</v>
+        <v>145200</v>
       </c>
       <c r="I35" s="3">
-        <v>131500</v>
+        <v>132700</v>
       </c>
       <c r="J35" s="3">
-        <v>134100</v>
+        <v>135300</v>
       </c>
       <c r="K35" s="3">
         <v>126400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>136800</v>
+        <v>138000</v>
       </c>
       <c r="E41" s="3">
-        <v>219600</v>
+        <v>221600</v>
       </c>
       <c r="F41" s="3">
-        <v>99200</v>
+        <v>100100</v>
       </c>
       <c r="G41" s="3">
-        <v>124900</v>
+        <v>126000</v>
       </c>
       <c r="H41" s="3">
-        <v>56300</v>
+        <v>56900</v>
       </c>
       <c r="I41" s="3">
-        <v>65000</v>
+        <v>65600</v>
       </c>
       <c r="J41" s="3">
-        <v>83800</v>
+        <v>84500</v>
       </c>
       <c r="K41" s="3">
         <v>156600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>184500</v>
+        <v>186200</v>
       </c>
       <c r="E42" s="3">
-        <v>233900</v>
+        <v>236100</v>
       </c>
       <c r="F42" s="3">
-        <v>129600</v>
+        <v>130800</v>
       </c>
       <c r="G42" s="3">
-        <v>254500</v>
+        <v>256800</v>
       </c>
       <c r="H42" s="3">
-        <v>144300</v>
+        <v>145600</v>
       </c>
       <c r="I42" s="3">
-        <v>93100</v>
+        <v>93900</v>
       </c>
       <c r="J42" s="3">
-        <v>145100</v>
+        <v>146400</v>
       </c>
       <c r="K42" s="3">
         <v>106700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>448800</v>
+        <v>452900</v>
       </c>
       <c r="E43" s="3">
-        <v>323600</v>
+        <v>326600</v>
       </c>
       <c r="F43" s="3">
-        <v>353500</v>
+        <v>356600</v>
       </c>
       <c r="G43" s="3">
-        <v>378600</v>
+        <v>382000</v>
       </c>
       <c r="H43" s="3">
-        <v>355300</v>
+        <v>358500</v>
       </c>
       <c r="I43" s="3">
-        <v>348300</v>
+        <v>351400</v>
       </c>
       <c r="J43" s="3">
-        <v>302200</v>
+        <v>305000</v>
       </c>
       <c r="K43" s="3">
         <v>320900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>406200</v>
+        <v>409900</v>
       </c>
       <c r="E44" s="3">
-        <v>269100</v>
+        <v>271500</v>
       </c>
       <c r="F44" s="3">
-        <v>268500</v>
+        <v>270900</v>
       </c>
       <c r="G44" s="3">
-        <v>262600</v>
+        <v>264900</v>
       </c>
       <c r="H44" s="3">
-        <v>233300</v>
+        <v>235400</v>
       </c>
       <c r="I44" s="3">
-        <v>221200</v>
+        <v>223200</v>
       </c>
       <c r="J44" s="3">
-        <v>193400</v>
+        <v>195100</v>
       </c>
       <c r="K44" s="3">
         <v>208500</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35100</v>
+        <v>35400</v>
       </c>
       <c r="E45" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="F45" s="3">
-        <v>25300</v>
+        <v>25500</v>
       </c>
       <c r="G45" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="H45" s="3">
-        <v>29200</v>
+        <v>29500</v>
       </c>
       <c r="I45" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="J45" s="3">
-        <v>35100</v>
+        <v>35400</v>
       </c>
       <c r="K45" s="3">
         <v>32100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1211400</v>
+        <v>1222300</v>
       </c>
       <c r="E46" s="3">
-        <v>1065600</v>
+        <v>1075200</v>
       </c>
       <c r="F46" s="3">
-        <v>876100</v>
+        <v>884000</v>
       </c>
       <c r="G46" s="3">
-        <v>1044500</v>
+        <v>1053900</v>
       </c>
       <c r="H46" s="3">
-        <v>809300</v>
+        <v>816600</v>
       </c>
       <c r="I46" s="3">
-        <v>756700</v>
+        <v>763500</v>
       </c>
       <c r="J46" s="3">
-        <v>759600</v>
+        <v>766400</v>
       </c>
       <c r="K46" s="3">
         <v>815600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>192300</v>
+        <v>194100</v>
       </c>
       <c r="E47" s="3">
-        <v>161000</v>
+        <v>162500</v>
       </c>
       <c r="F47" s="3">
-        <v>160000</v>
+        <v>161400</v>
       </c>
       <c r="G47" s="3">
-        <v>165300</v>
+        <v>166800</v>
       </c>
       <c r="H47" s="3">
-        <v>117000</v>
+        <v>118100</v>
       </c>
       <c r="I47" s="3">
-        <v>76100</v>
+        <v>76800</v>
       </c>
       <c r="J47" s="3">
-        <v>56100</v>
+        <v>56600</v>
       </c>
       <c r="K47" s="3">
         <v>39100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1398800</v>
+        <v>1411400</v>
       </c>
       <c r="E48" s="3">
-        <v>1238000</v>
+        <v>1249100</v>
       </c>
       <c r="F48" s="3">
-        <v>1227500</v>
+        <v>1238500</v>
       </c>
       <c r="G48" s="3">
-        <v>1143300</v>
+        <v>1153600</v>
       </c>
       <c r="H48" s="3">
-        <v>1025400</v>
+        <v>1034600</v>
       </c>
       <c r="I48" s="3">
-        <v>1017400</v>
+        <v>1026600</v>
       </c>
       <c r="J48" s="3">
-        <v>1043800</v>
+        <v>1053200</v>
       </c>
       <c r="K48" s="3">
         <v>1043900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>314300</v>
+        <v>317100</v>
       </c>
       <c r="E49" s="3">
-        <v>272400</v>
+        <v>274900</v>
       </c>
       <c r="F49" s="3">
-        <v>278100</v>
+        <v>280600</v>
       </c>
       <c r="G49" s="3">
-        <v>268600</v>
+        <v>271100</v>
       </c>
       <c r="H49" s="3">
-        <v>190500</v>
+        <v>192200</v>
       </c>
       <c r="I49" s="3">
-        <v>194100</v>
+        <v>195800</v>
       </c>
       <c r="J49" s="3">
-        <v>190200</v>
+        <v>191900</v>
       </c>
       <c r="K49" s="3">
         <v>185000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43100</v>
+        <v>43500</v>
       </c>
       <c r="E52" s="3">
-        <v>66100</v>
+        <v>66700</v>
       </c>
       <c r="F52" s="3">
-        <v>70900</v>
+        <v>71500</v>
       </c>
       <c r="G52" s="3">
-        <v>48800</v>
+        <v>49200</v>
       </c>
       <c r="H52" s="3">
-        <v>51400</v>
+        <v>51900</v>
       </c>
       <c r="I52" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="J52" s="3">
-        <v>44100</v>
+        <v>44500</v>
       </c>
       <c r="K52" s="3">
         <v>42900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3159900</v>
+        <v>3188400</v>
       </c>
       <c r="E54" s="3">
-        <v>2803100</v>
+        <v>2828400</v>
       </c>
       <c r="F54" s="3">
-        <v>2612600</v>
+        <v>2636100</v>
       </c>
       <c r="G54" s="3">
-        <v>2670500</v>
+        <v>2694600</v>
       </c>
       <c r="H54" s="3">
-        <v>2193600</v>
+        <v>2213400</v>
       </c>
       <c r="I54" s="3">
-        <v>2078000</v>
+        <v>2096700</v>
       </c>
       <c r="J54" s="3">
-        <v>2026200</v>
+        <v>2044500</v>
       </c>
       <c r="K54" s="3">
         <v>2105000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>487100</v>
+        <v>491500</v>
       </c>
       <c r="E57" s="3">
-        <v>284400</v>
+        <v>287000</v>
       </c>
       <c r="F57" s="3">
-        <v>276000</v>
+        <v>278400</v>
       </c>
       <c r="G57" s="3">
-        <v>274500</v>
+        <v>277000</v>
       </c>
       <c r="H57" s="3">
-        <v>249000</v>
+        <v>251200</v>
       </c>
       <c r="I57" s="3">
-        <v>521600</v>
+        <v>526300</v>
       </c>
       <c r="J57" s="3">
-        <v>252800</v>
+        <v>255100</v>
       </c>
       <c r="K57" s="3">
         <v>242500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>114900</v>
+        <v>115900</v>
       </c>
       <c r="E58" s="3">
-        <v>73900</v>
+        <v>74600</v>
       </c>
       <c r="F58" s="3">
-        <v>77100</v>
+        <v>77800</v>
       </c>
       <c r="G58" s="3">
-        <v>67200</v>
+        <v>67800</v>
       </c>
       <c r="H58" s="3">
-        <v>51100</v>
+        <v>51600</v>
       </c>
       <c r="I58" s="3">
-        <v>64000</v>
+        <v>64600</v>
       </c>
       <c r="J58" s="3">
-        <v>48500</v>
+        <v>48900</v>
       </c>
       <c r="K58" s="3">
         <v>76700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>265000</v>
+        <v>267400</v>
       </c>
       <c r="E59" s="3">
-        <v>220600</v>
+        <v>222600</v>
       </c>
       <c r="F59" s="3">
-        <v>183400</v>
+        <v>185100</v>
       </c>
       <c r="G59" s="3">
-        <v>375000</v>
+        <v>378400</v>
       </c>
       <c r="H59" s="3">
-        <v>220200</v>
+        <v>222200</v>
       </c>
       <c r="I59" s="3">
-        <v>193700</v>
+        <v>195400</v>
       </c>
       <c r="J59" s="3">
-        <v>130200</v>
+        <v>131300</v>
       </c>
       <c r="K59" s="3">
         <v>131000</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>867000</v>
+        <v>874800</v>
       </c>
       <c r="E60" s="3">
-        <v>578900</v>
+        <v>584100</v>
       </c>
       <c r="F60" s="3">
-        <v>536400</v>
+        <v>541300</v>
       </c>
       <c r="G60" s="3">
-        <v>716800</v>
+        <v>723200</v>
       </c>
       <c r="H60" s="3">
-        <v>520300</v>
+        <v>525000</v>
       </c>
       <c r="I60" s="3">
-        <v>491000</v>
+        <v>495500</v>
       </c>
       <c r="J60" s="3">
-        <v>431400</v>
+        <v>435300</v>
       </c>
       <c r="K60" s="3">
         <v>450200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>536400</v>
+        <v>541200</v>
       </c>
       <c r="E61" s="3">
-        <v>488500</v>
+        <v>492900</v>
       </c>
       <c r="F61" s="3">
-        <v>290600</v>
+        <v>293200</v>
       </c>
       <c r="G61" s="3">
-        <v>253100</v>
+        <v>255400</v>
       </c>
       <c r="H61" s="3">
-        <v>178700</v>
+        <v>180300</v>
       </c>
       <c r="I61" s="3">
-        <v>130900</v>
+        <v>132100</v>
       </c>
       <c r="J61" s="3">
-        <v>152000</v>
+        <v>153400</v>
       </c>
       <c r="K61" s="3">
         <v>160000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>174100</v>
+        <v>175700</v>
       </c>
       <c r="E62" s="3">
-        <v>172000</v>
+        <v>173500</v>
       </c>
       <c r="F62" s="3">
-        <v>183900</v>
+        <v>185600</v>
       </c>
       <c r="G62" s="3">
-        <v>158700</v>
+        <v>160200</v>
       </c>
       <c r="H62" s="3">
-        <v>132800</v>
+        <v>134000</v>
       </c>
       <c r="I62" s="3">
-        <v>123300</v>
+        <v>124400</v>
       </c>
       <c r="J62" s="3">
-        <v>124700</v>
+        <v>125800</v>
       </c>
       <c r="K62" s="3">
         <v>128000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1708400</v>
+        <v>1723800</v>
       </c>
       <c r="E66" s="3">
-        <v>1363900</v>
+        <v>1376200</v>
       </c>
       <c r="F66" s="3">
-        <v>1138500</v>
+        <v>1148700</v>
       </c>
       <c r="G66" s="3">
-        <v>1249600</v>
+        <v>1260800</v>
       </c>
       <c r="H66" s="3">
-        <v>971400</v>
+        <v>980200</v>
       </c>
       <c r="I66" s="3">
-        <v>882100</v>
+        <v>890100</v>
       </c>
       <c r="J66" s="3">
-        <v>852100</v>
+        <v>859700</v>
       </c>
       <c r="K66" s="3">
         <v>884500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>878600</v>
+        <v>886500</v>
       </c>
       <c r="E72" s="3">
-        <v>981900</v>
+        <v>990700</v>
       </c>
       <c r="F72" s="3">
-        <v>962300</v>
+        <v>971000</v>
       </c>
       <c r="G72" s="3">
-        <v>927300</v>
+        <v>935700</v>
       </c>
       <c r="H72" s="3">
-        <v>570300</v>
+        <v>575500</v>
       </c>
       <c r="I72" s="3">
-        <v>705000</v>
+        <v>711300</v>
       </c>
       <c r="J72" s="3">
-        <v>655500</v>
+        <v>661400</v>
       </c>
       <c r="K72" s="3">
         <v>631600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1451500</v>
+        <v>1464500</v>
       </c>
       <c r="E76" s="3">
-        <v>1439200</v>
+        <v>1452200</v>
       </c>
       <c r="F76" s="3">
-        <v>1474100</v>
+        <v>1487400</v>
       </c>
       <c r="G76" s="3">
-        <v>1420900</v>
+        <v>1433700</v>
       </c>
       <c r="H76" s="3">
-        <v>1222200</v>
+        <v>1233200</v>
       </c>
       <c r="I76" s="3">
-        <v>1195800</v>
+        <v>1206600</v>
       </c>
       <c r="J76" s="3">
-        <v>1174200</v>
+        <v>1184800</v>
       </c>
       <c r="K76" s="3">
         <v>1220400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>221100</v>
+        <v>223100</v>
       </c>
       <c r="E81" s="3">
-        <v>106700</v>
+        <v>107700</v>
       </c>
       <c r="F81" s="3">
-        <v>144500</v>
+        <v>145800</v>
       </c>
       <c r="G81" s="3">
-        <v>340600</v>
+        <v>343700</v>
       </c>
       <c r="H81" s="3">
-        <v>143900</v>
+        <v>145200</v>
       </c>
       <c r="I81" s="3">
-        <v>131500</v>
+        <v>132700</v>
       </c>
       <c r="J81" s="3">
-        <v>134100</v>
+        <v>135300</v>
       </c>
       <c r="K81" s="3">
         <v>126400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>325600</v>
+        <v>328600</v>
       </c>
       <c r="E89" s="3">
-        <v>311500</v>
+        <v>314300</v>
       </c>
       <c r="F89" s="3">
-        <v>269000</v>
+        <v>271400</v>
       </c>
       <c r="G89" s="3">
-        <v>476500</v>
+        <v>480800</v>
       </c>
       <c r="H89" s="3">
-        <v>291000</v>
+        <v>293600</v>
       </c>
       <c r="I89" s="3">
-        <v>210900</v>
+        <v>212800</v>
       </c>
       <c r="J89" s="3">
-        <v>243700</v>
+        <v>245900</v>
       </c>
       <c r="K89" s="3">
         <v>206600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-188300</v>
+        <v>-190000</v>
       </c>
       <c r="E91" s="3">
-        <v>-129900</v>
+        <v>-131100</v>
       </c>
       <c r="F91" s="3">
-        <v>-149500</v>
+        <v>-150800</v>
       </c>
       <c r="G91" s="3">
-        <v>-142500</v>
+        <v>-143800</v>
       </c>
       <c r="H91" s="3">
-        <v>-137100</v>
+        <v>-138300</v>
       </c>
       <c r="I91" s="3">
-        <v>-139500</v>
+        <v>-140800</v>
       </c>
       <c r="J91" s="3">
-        <v>-143900</v>
+        <v>-145200</v>
       </c>
       <c r="K91" s="3">
         <v>-271200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-198700</v>
+        <v>-200500</v>
       </c>
       <c r="E94" s="3">
-        <v>-156000</v>
+        <v>-157400</v>
       </c>
       <c r="F94" s="3">
-        <v>-160000</v>
+        <v>-161500</v>
       </c>
       <c r="G94" s="3">
-        <v>-220900</v>
+        <v>-222900</v>
       </c>
       <c r="H94" s="3">
-        <v>-192700</v>
+        <v>-194400</v>
       </c>
       <c r="I94" s="3">
-        <v>-172100</v>
+        <v>-173600</v>
       </c>
       <c r="J94" s="3">
-        <v>-184000</v>
+        <v>-185700</v>
       </c>
       <c r="K94" s="3">
         <v>-284400</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-304300</v>
+        <v>-307000</v>
       </c>
       <c r="E96" s="3">
-        <v>-113400</v>
+        <v>-114400</v>
       </c>
       <c r="F96" s="3">
-        <v>-242000</v>
+        <v>-244200</v>
       </c>
       <c r="G96" s="3">
-        <v>-83100</v>
+        <v>-83800</v>
       </c>
       <c r="H96" s="3">
-        <v>-83400</v>
+        <v>-84100</v>
       </c>
       <c r="I96" s="3">
-        <v>-77500</v>
+        <v>-78200</v>
       </c>
       <c r="J96" s="3">
-        <v>-73400</v>
+        <v>-74100</v>
       </c>
       <c r="K96" s="3">
         <v>-77700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-259300</v>
+        <v>-261700</v>
       </c>
       <c r="E100" s="3">
-        <v>71900</v>
+        <v>72500</v>
       </c>
       <c r="F100" s="3">
-        <v>-221400</v>
+        <v>-223400</v>
       </c>
       <c r="G100" s="3">
-        <v>-58800</v>
+        <v>-59300</v>
       </c>
       <c r="H100" s="3">
-        <v>-58800</v>
+        <v>-59400</v>
       </c>
       <c r="I100" s="3">
-        <v>-105500</v>
+        <v>-106500</v>
       </c>
       <c r="J100" s="3">
-        <v>-92000</v>
+        <v>-92800</v>
       </c>
       <c r="K100" s="3">
         <v>-157300</v>
@@ -3959,16 +3959,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12800</v>
+        <v>-12900</v>
       </c>
       <c r="E101" s="3">
         <v>-5400</v>
       </c>
       <c r="F101" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="G101" s="3">
-        <v>-31500</v>
+        <v>-31800</v>
       </c>
       <c r="H101" s="3">
         <v>500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-145200</v>
+        <v>-146500</v>
       </c>
       <c r="E102" s="3">
-        <v>222000</v>
+        <v>224000</v>
       </c>
       <c r="F102" s="3">
-        <v>-136100</v>
+        <v>-137400</v>
       </c>
       <c r="G102" s="3">
-        <v>165400</v>
+        <v>166800</v>
       </c>
       <c r="H102" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="I102" s="3">
-        <v>-65000</v>
+        <v>-65500</v>
       </c>
       <c r="J102" s="3">
-        <v>-24700</v>
+        <v>-24900</v>
       </c>
       <c r="K102" s="3">
         <v>-231000</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CCU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2782900</v>
+        <v>3416400</v>
       </c>
       <c r="E8" s="3">
-        <v>2080500</v>
+        <v>3130700</v>
       </c>
       <c r="F8" s="3">
-        <v>2041200</v>
+        <v>2340600</v>
       </c>
       <c r="G8" s="3">
-        <v>1997300</v>
+        <v>2296400</v>
       </c>
       <c r="H8" s="3">
-        <v>1902200</v>
+        <v>2246900</v>
       </c>
       <c r="I8" s="3">
-        <v>1746000</v>
+        <v>2139900</v>
       </c>
       <c r="J8" s="3">
+        <v>1964200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1678200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1544600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1556400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1376900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1464000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1446500</v>
+        <v>1908800</v>
       </c>
       <c r="E9" s="3">
-        <v>1102100</v>
+        <v>1627400</v>
       </c>
       <c r="F9" s="3">
-        <v>1017300</v>
+        <v>1239900</v>
       </c>
       <c r="G9" s="3">
-        <v>963200</v>
+        <v>1144500</v>
       </c>
       <c r="H9" s="3">
-        <v>894600</v>
+        <v>1083600</v>
       </c>
       <c r="I9" s="3">
-        <v>830800</v>
+        <v>1006400</v>
       </c>
       <c r="J9" s="3">
+        <v>934700</v>
+      </c>
+      <c r="K9" s="3">
         <v>767300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>719400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>697700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>631200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>676300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1336300</v>
+        <v>1507600</v>
       </c>
       <c r="E10" s="3">
-        <v>978400</v>
+        <v>1503400</v>
       </c>
       <c r="F10" s="3">
-        <v>1023900</v>
+        <v>1100700</v>
       </c>
       <c r="G10" s="3">
-        <v>1034100</v>
+        <v>1151900</v>
       </c>
       <c r="H10" s="3">
-        <v>1007600</v>
+        <v>1163300</v>
       </c>
       <c r="I10" s="3">
-        <v>915100</v>
+        <v>1133500</v>
       </c>
       <c r="J10" s="3">
+        <v>1029500</v>
+      </c>
+      <c r="K10" s="3">
         <v>910900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>825200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>858700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>745700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>787800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>6800</v>
-      </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="G14" s="3">
-        <v>-239000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-268900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-20100</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2412700</v>
+        <v>3140800</v>
       </c>
       <c r="E17" s="3">
-        <v>1884300</v>
+        <v>2714300</v>
       </c>
       <c r="F17" s="3">
-        <v>1779200</v>
+        <v>2119800</v>
       </c>
       <c r="G17" s="3">
-        <v>1467800</v>
+        <v>2001600</v>
       </c>
       <c r="H17" s="3">
-        <v>1647700</v>
+        <v>1651300</v>
       </c>
       <c r="I17" s="3">
-        <v>1530600</v>
+        <v>1853700</v>
       </c>
       <c r="J17" s="3">
+        <v>1721900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1439100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1325700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1310400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1150700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1168300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>370100</v>
+        <v>275600</v>
       </c>
       <c r="E18" s="3">
-        <v>196200</v>
+        <v>416400</v>
       </c>
       <c r="F18" s="3">
-        <v>262000</v>
+        <v>220700</v>
       </c>
       <c r="G18" s="3">
-        <v>529500</v>
+        <v>294800</v>
       </c>
       <c r="H18" s="3">
-        <v>254400</v>
+        <v>595700</v>
       </c>
       <c r="I18" s="3">
-        <v>215400</v>
+        <v>286200</v>
       </c>
       <c r="J18" s="3">
+        <v>242300</v>
+      </c>
+      <c r="K18" s="3">
         <v>239100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>218900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>246000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>226200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>295700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7700</v>
+        <v>-8900</v>
       </c>
       <c r="E20" s="3">
-        <v>-3200</v>
+        <v>8700</v>
       </c>
       <c r="F20" s="3">
-        <v>-23100</v>
+        <v>-3600</v>
       </c>
       <c r="G20" s="3">
-        <v>10100</v>
+        <v>-26000</v>
       </c>
       <c r="H20" s="3">
-        <v>-7300</v>
+        <v>11400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1900</v>
+        <v>-8200</v>
       </c>
       <c r="J20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-28100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>377800</v>
+        <v>266700</v>
       </c>
       <c r="E21" s="3">
-        <v>193000</v>
+        <v>425000</v>
       </c>
       <c r="F21" s="3">
-        <v>238900</v>
+        <v>217100</v>
       </c>
       <c r="G21" s="3">
-        <v>539600</v>
+        <v>268800</v>
       </c>
       <c r="H21" s="3">
-        <v>247100</v>
+        <v>607000</v>
       </c>
       <c r="I21" s="3">
-        <v>213500</v>
+        <v>278000</v>
       </c>
       <c r="J21" s="3">
+        <v>240200</v>
+      </c>
+      <c r="K21" s="3">
         <v>239400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>199300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>217900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>228100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>293600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39900</v>
+        <v>95700</v>
       </c>
       <c r="E22" s="3">
-        <v>32200</v>
+        <v>44900</v>
       </c>
       <c r="F22" s="3">
-        <v>31000</v>
+        <v>36200</v>
       </c>
       <c r="G22" s="3">
-        <v>26400</v>
+        <v>34900</v>
       </c>
       <c r="H22" s="3">
-        <v>27100</v>
+        <v>29700</v>
       </c>
       <c r="I22" s="3">
-        <v>22700</v>
+        <v>30400</v>
       </c>
       <c r="J22" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K22" s="3">
         <v>25900</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>21800</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>21800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>337900</v>
+        <v>171000</v>
       </c>
       <c r="E23" s="3">
-        <v>160800</v>
+        <v>380100</v>
       </c>
       <c r="F23" s="3">
-        <v>207900</v>
+        <v>180900</v>
       </c>
       <c r="G23" s="3">
-        <v>513200</v>
+        <v>233900</v>
       </c>
       <c r="H23" s="3">
-        <v>220100</v>
+        <v>577300</v>
       </c>
       <c r="I23" s="3">
-        <v>190800</v>
+        <v>247600</v>
       </c>
       <c r="J23" s="3">
+        <v>214600</v>
+      </c>
+      <c r="K23" s="3">
         <v>213500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>199300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>217900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>206200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>271800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>92500</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>39700</v>
+        <v>104100</v>
       </c>
       <c r="F24" s="3">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="G24" s="3">
-        <v>152500</v>
+        <v>50400</v>
       </c>
       <c r="H24" s="3">
-        <v>54200</v>
+        <v>171500</v>
       </c>
       <c r="I24" s="3">
-        <v>33900</v>
+        <v>60900</v>
       </c>
       <c r="J24" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K24" s="3">
         <v>56100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>245300</v>
+        <v>170700</v>
       </c>
       <c r="E26" s="3">
-        <v>121200</v>
+        <v>276000</v>
       </c>
       <c r="F26" s="3">
-        <v>163100</v>
+        <v>136300</v>
       </c>
       <c r="G26" s="3">
-        <v>360700</v>
+        <v>183500</v>
       </c>
       <c r="H26" s="3">
-        <v>165900</v>
+        <v>405800</v>
       </c>
       <c r="I26" s="3">
-        <v>156900</v>
+        <v>186600</v>
       </c>
       <c r="J26" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K26" s="3">
         <v>157400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>143700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>172800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>158700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>203600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>223100</v>
+        <v>148900</v>
       </c>
       <c r="E27" s="3">
-        <v>107700</v>
+        <v>250900</v>
       </c>
       <c r="F27" s="3">
-        <v>145800</v>
+        <v>121200</v>
       </c>
       <c r="G27" s="3">
-        <v>343700</v>
+        <v>164000</v>
       </c>
       <c r="H27" s="3">
-        <v>145200</v>
+        <v>386700</v>
       </c>
       <c r="I27" s="3">
-        <v>132700</v>
+        <v>163300</v>
       </c>
       <c r="J27" s="3">
+        <v>149300</v>
+      </c>
+      <c r="K27" s="3">
         <v>135300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>126400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>159900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>146500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>185400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7700</v>
+        <v>8900</v>
       </c>
       <c r="E32" s="3">
-        <v>3200</v>
+        <v>-8700</v>
       </c>
       <c r="F32" s="3">
-        <v>23100</v>
+        <v>3600</v>
       </c>
       <c r="G32" s="3">
-        <v>-10100</v>
+        <v>26000</v>
       </c>
       <c r="H32" s="3">
-        <v>7300</v>
+        <v>-11400</v>
       </c>
       <c r="I32" s="3">
-        <v>1900</v>
+        <v>8200</v>
       </c>
       <c r="J32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>28100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>223100</v>
+        <v>148900</v>
       </c>
       <c r="E33" s="3">
-        <v>107700</v>
+        <v>250900</v>
       </c>
       <c r="F33" s="3">
-        <v>145800</v>
+        <v>121200</v>
       </c>
       <c r="G33" s="3">
-        <v>343700</v>
+        <v>164000</v>
       </c>
       <c r="H33" s="3">
-        <v>145200</v>
+        <v>386700</v>
       </c>
       <c r="I33" s="3">
-        <v>132700</v>
+        <v>163300</v>
       </c>
       <c r="J33" s="3">
+        <v>149300</v>
+      </c>
+      <c r="K33" s="3">
         <v>135300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>126400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>159900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>146500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>185400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>223100</v>
+        <v>148900</v>
       </c>
       <c r="E35" s="3">
-        <v>107700</v>
+        <v>250900</v>
       </c>
       <c r="F35" s="3">
-        <v>145800</v>
+        <v>121200</v>
       </c>
       <c r="G35" s="3">
-        <v>343700</v>
+        <v>164000</v>
       </c>
       <c r="H35" s="3">
-        <v>145200</v>
+        <v>386700</v>
       </c>
       <c r="I35" s="3">
-        <v>132700</v>
+        <v>163300</v>
       </c>
       <c r="J35" s="3">
+        <v>149300</v>
+      </c>
+      <c r="K35" s="3">
         <v>135300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>126400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>159900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>146500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>185400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>138000</v>
+        <v>716500</v>
       </c>
       <c r="E41" s="3">
-        <v>221600</v>
+        <v>155200</v>
       </c>
       <c r="F41" s="3">
-        <v>100100</v>
+        <v>249300</v>
       </c>
       <c r="G41" s="3">
-        <v>126000</v>
+        <v>112600</v>
       </c>
       <c r="H41" s="3">
+        <v>141800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>64000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K41" s="3">
+        <v>84500</v>
+      </c>
+      <c r="L41" s="3">
+        <v>156600</v>
+      </c>
+      <c r="M41" s="3">
+        <v>407100</v>
+      </c>
+      <c r="N41" s="3">
         <v>56900</v>
       </c>
-      <c r="I41" s="3">
-        <v>65600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>84500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>156600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>407100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>56900</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>186200</v>
+        <v>93400</v>
       </c>
       <c r="E42" s="3">
-        <v>236100</v>
+        <v>209400</v>
       </c>
       <c r="F42" s="3">
-        <v>130800</v>
+        <v>265600</v>
       </c>
       <c r="G42" s="3">
-        <v>256800</v>
+        <v>147100</v>
       </c>
       <c r="H42" s="3">
-        <v>145600</v>
+        <v>288900</v>
       </c>
       <c r="I42" s="3">
-        <v>93900</v>
+        <v>163800</v>
       </c>
       <c r="J42" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K42" s="3">
         <v>146400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>106700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>130200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>240000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>452900</v>
+        <v>627700</v>
       </c>
       <c r="E43" s="3">
-        <v>326600</v>
+        <v>509500</v>
       </c>
       <c r="F43" s="3">
-        <v>356600</v>
+        <v>367400</v>
       </c>
       <c r="G43" s="3">
-        <v>382000</v>
+        <v>401200</v>
       </c>
       <c r="H43" s="3">
-        <v>358500</v>
+        <v>429700</v>
       </c>
       <c r="I43" s="3">
-        <v>351400</v>
+        <v>403300</v>
       </c>
       <c r="J43" s="3">
+        <v>395300</v>
+      </c>
+      <c r="K43" s="3">
         <v>305000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>320900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>299300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>298800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>332600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>409900</v>
+        <v>626200</v>
       </c>
       <c r="E44" s="3">
-        <v>271500</v>
+        <v>461100</v>
       </c>
       <c r="F44" s="3">
-        <v>270900</v>
+        <v>305500</v>
       </c>
       <c r="G44" s="3">
-        <v>264900</v>
+        <v>304800</v>
       </c>
       <c r="H44" s="3">
-        <v>235400</v>
+        <v>298100</v>
       </c>
       <c r="I44" s="3">
-        <v>223200</v>
+        <v>264800</v>
       </c>
       <c r="J44" s="3">
+        <v>251100</v>
+      </c>
+      <c r="K44" s="3">
         <v>195100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>208500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>199000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>181600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>194100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>21900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K45" s="3">
         <v>35400</v>
       </c>
-      <c r="E45" s="3">
-        <v>19500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>25500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>24200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>29500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>29300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>35400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1222300</v>
+        <v>2094100</v>
       </c>
       <c r="E46" s="3">
-        <v>1075200</v>
+        <v>1375100</v>
       </c>
       <c r="F46" s="3">
-        <v>884000</v>
+        <v>1209600</v>
       </c>
       <c r="G46" s="3">
-        <v>1053900</v>
+        <v>994500</v>
       </c>
       <c r="H46" s="3">
-        <v>816600</v>
+        <v>1185700</v>
       </c>
       <c r="I46" s="3">
-        <v>763500</v>
+        <v>918700</v>
       </c>
       <c r="J46" s="3">
+        <v>858900</v>
+      </c>
+      <c r="K46" s="3">
         <v>766400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>815600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1064000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>634700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>817500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>194100</v>
+        <v>229300</v>
       </c>
       <c r="E47" s="3">
-        <v>162500</v>
+        <v>218300</v>
       </c>
       <c r="F47" s="3">
-        <v>161400</v>
+        <v>182800</v>
       </c>
       <c r="G47" s="3">
-        <v>166800</v>
+        <v>181600</v>
       </c>
       <c r="H47" s="3">
-        <v>118100</v>
+        <v>187600</v>
       </c>
       <c r="I47" s="3">
-        <v>76800</v>
+        <v>132800</v>
       </c>
       <c r="J47" s="3">
+        <v>86300</v>
+      </c>
+      <c r="K47" s="3">
         <v>56600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>39100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>22800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1411400</v>
+        <v>1766500</v>
       </c>
       <c r="E48" s="3">
-        <v>1249100</v>
+        <v>1587800</v>
       </c>
       <c r="F48" s="3">
-        <v>1238500</v>
+        <v>1405300</v>
       </c>
       <c r="G48" s="3">
-        <v>1153600</v>
+        <v>1393400</v>
       </c>
       <c r="H48" s="3">
-        <v>1034600</v>
+        <v>1297800</v>
       </c>
       <c r="I48" s="3">
-        <v>1026600</v>
+        <v>1163900</v>
       </c>
       <c r="J48" s="3">
+        <v>1154900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1053200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1043900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>927500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>815400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>880300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>317100</v>
+        <v>389800</v>
       </c>
       <c r="E49" s="3">
-        <v>274900</v>
+        <v>356700</v>
       </c>
       <c r="F49" s="3">
-        <v>280600</v>
+        <v>309300</v>
       </c>
       <c r="G49" s="3">
-        <v>271100</v>
+        <v>315700</v>
       </c>
       <c r="H49" s="3">
-        <v>192200</v>
+        <v>304900</v>
       </c>
       <c r="I49" s="3">
-        <v>195800</v>
+        <v>216300</v>
       </c>
       <c r="J49" s="3">
+        <v>220300</v>
+      </c>
+      <c r="K49" s="3">
         <v>191900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>185000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>189700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>164800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>202100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43500</v>
+        <v>50200</v>
       </c>
       <c r="E52" s="3">
-        <v>66700</v>
+        <v>48900</v>
       </c>
       <c r="F52" s="3">
-        <v>71500</v>
+        <v>75000</v>
       </c>
       <c r="G52" s="3">
-        <v>49200</v>
+        <v>80500</v>
       </c>
       <c r="H52" s="3">
-        <v>51900</v>
+        <v>55400</v>
       </c>
       <c r="I52" s="3">
-        <v>41000</v>
+        <v>58400</v>
       </c>
       <c r="J52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K52" s="3">
         <v>44500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>60200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3188400</v>
+        <v>4529800</v>
       </c>
       <c r="E54" s="3">
-        <v>2828400</v>
+        <v>3586900</v>
       </c>
       <c r="F54" s="3">
-        <v>2636100</v>
+        <v>3181900</v>
       </c>
       <c r="G54" s="3">
-        <v>2694600</v>
+        <v>2965700</v>
       </c>
       <c r="H54" s="3">
-        <v>2213400</v>
+        <v>3031400</v>
       </c>
       <c r="I54" s="3">
-        <v>2096700</v>
+        <v>2490000</v>
       </c>
       <c r="J54" s="3">
+        <v>2358800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2044500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2105000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2246000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1697900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1960500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>491500</v>
+        <v>530000</v>
       </c>
       <c r="E57" s="3">
-        <v>287000</v>
+        <v>553000</v>
       </c>
       <c r="F57" s="3">
-        <v>278400</v>
+        <v>322800</v>
       </c>
       <c r="G57" s="3">
-        <v>277000</v>
+        <v>313200</v>
       </c>
       <c r="H57" s="3">
-        <v>251200</v>
+        <v>311600</v>
       </c>
       <c r="I57" s="3">
-        <v>526300</v>
+        <v>282700</v>
       </c>
       <c r="J57" s="3">
+        <v>592100</v>
+      </c>
+      <c r="K57" s="3">
         <v>255100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>242500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>238600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>182900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>214000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>115900</v>
+        <v>236500</v>
       </c>
       <c r="E58" s="3">
-        <v>74600</v>
+        <v>130400</v>
       </c>
       <c r="F58" s="3">
-        <v>77800</v>
+        <v>83900</v>
       </c>
       <c r="G58" s="3">
-        <v>67800</v>
+        <v>87500</v>
       </c>
       <c r="H58" s="3">
-        <v>51600</v>
+        <v>76300</v>
       </c>
       <c r="I58" s="3">
-        <v>64600</v>
+        <v>58000</v>
       </c>
       <c r="J58" s="3">
+        <v>72700</v>
+      </c>
+      <c r="K58" s="3">
         <v>48900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>76700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>155600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>71700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>135200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>267400</v>
+        <v>238000</v>
       </c>
       <c r="E59" s="3">
-        <v>222600</v>
+        <v>300800</v>
       </c>
       <c r="F59" s="3">
-        <v>185100</v>
+        <v>250400</v>
       </c>
       <c r="G59" s="3">
-        <v>378400</v>
+        <v>208200</v>
       </c>
       <c r="H59" s="3">
-        <v>222200</v>
+        <v>425700</v>
       </c>
       <c r="I59" s="3">
-        <v>195400</v>
+        <v>250000</v>
       </c>
       <c r="J59" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K59" s="3">
         <v>131300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>137700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>148000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>874800</v>
+        <v>1004400</v>
       </c>
       <c r="E60" s="3">
-        <v>584100</v>
+        <v>984200</v>
       </c>
       <c r="F60" s="3">
-        <v>541300</v>
+        <v>657100</v>
       </c>
       <c r="G60" s="3">
-        <v>723200</v>
+        <v>608900</v>
       </c>
       <c r="H60" s="3">
-        <v>525000</v>
+        <v>813600</v>
       </c>
       <c r="I60" s="3">
-        <v>495500</v>
+        <v>590600</v>
       </c>
       <c r="J60" s="3">
+        <v>557400</v>
+      </c>
+      <c r="K60" s="3">
         <v>435300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>450200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>531900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>402600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>547500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>541200</v>
+        <v>1509300</v>
       </c>
       <c r="E61" s="3">
-        <v>492900</v>
+        <v>608900</v>
       </c>
       <c r="F61" s="3">
-        <v>293200</v>
+        <v>554500</v>
       </c>
       <c r="G61" s="3">
-        <v>255400</v>
+        <v>329800</v>
       </c>
       <c r="H61" s="3">
-        <v>180300</v>
+        <v>287300</v>
       </c>
       <c r="I61" s="3">
-        <v>132100</v>
+        <v>202900</v>
       </c>
       <c r="J61" s="3">
+        <v>148600</v>
+      </c>
+      <c r="K61" s="3">
         <v>153400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>160000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>185500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>267700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>258100</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>175700</v>
+        <v>206800</v>
       </c>
       <c r="E62" s="3">
-        <v>173500</v>
+        <v>197700</v>
       </c>
       <c r="F62" s="3">
-        <v>185600</v>
+        <v>195200</v>
       </c>
       <c r="G62" s="3">
-        <v>160200</v>
+        <v>208800</v>
       </c>
       <c r="H62" s="3">
-        <v>134000</v>
+        <v>180200</v>
       </c>
       <c r="I62" s="3">
-        <v>124400</v>
+        <v>150800</v>
       </c>
       <c r="J62" s="3">
+        <v>139900</v>
+      </c>
+      <c r="K62" s="3">
         <v>125800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>128000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>119100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>118100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>120900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1723800</v>
+        <v>2872900</v>
       </c>
       <c r="E66" s="3">
-        <v>1376200</v>
+        <v>1939300</v>
       </c>
       <c r="F66" s="3">
-        <v>1148700</v>
+        <v>1548200</v>
       </c>
       <c r="G66" s="3">
-        <v>1260800</v>
+        <v>1292300</v>
       </c>
       <c r="H66" s="3">
-        <v>980200</v>
+        <v>1418400</v>
       </c>
       <c r="I66" s="3">
-        <v>890100</v>
+        <v>1102700</v>
       </c>
       <c r="J66" s="3">
+        <v>1001400</v>
+      </c>
+      <c r="K66" s="3">
         <v>859700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>884500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>960800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>912900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1101400</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>886500</v>
+        <v>1003700</v>
       </c>
       <c r="E72" s="3">
-        <v>990700</v>
+        <v>997400</v>
       </c>
       <c r="F72" s="3">
-        <v>971000</v>
+        <v>1114500</v>
       </c>
       <c r="G72" s="3">
-        <v>935700</v>
+        <v>1092400</v>
       </c>
       <c r="H72" s="3">
-        <v>575500</v>
+        <v>1052600</v>
       </c>
       <c r="I72" s="3">
-        <v>711300</v>
+        <v>647400</v>
       </c>
       <c r="J72" s="3">
+        <v>800300</v>
+      </c>
+      <c r="K72" s="3">
         <v>661400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>631600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>631800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>489200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>510300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1464500</v>
+        <v>1656900</v>
       </c>
       <c r="E76" s="3">
-        <v>1452200</v>
+        <v>1647600</v>
       </c>
       <c r="F76" s="3">
-        <v>1487400</v>
+        <v>1633700</v>
       </c>
       <c r="G76" s="3">
-        <v>1433700</v>
+        <v>1673300</v>
       </c>
       <c r="H76" s="3">
-        <v>1233200</v>
+        <v>1613000</v>
       </c>
       <c r="I76" s="3">
-        <v>1206600</v>
+        <v>1387400</v>
       </c>
       <c r="J76" s="3">
+        <v>1357400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1184800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1220400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1285300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>784900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>859200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>223100</v>
+        <v>148900</v>
       </c>
       <c r="E81" s="3">
-        <v>107700</v>
+        <v>250900</v>
       </c>
       <c r="F81" s="3">
-        <v>145800</v>
+        <v>121200</v>
       </c>
       <c r="G81" s="3">
-        <v>343700</v>
+        <v>164000</v>
       </c>
       <c r="H81" s="3">
-        <v>145200</v>
+        <v>386700</v>
       </c>
       <c r="I81" s="3">
-        <v>132700</v>
+        <v>163300</v>
       </c>
       <c r="J81" s="3">
+        <v>149300</v>
+      </c>
+      <c r="K81" s="3">
         <v>135300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>126400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>159900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>146500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>185400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,8 +3492,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3333,9 +3531,12 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>328600</v>
+        <v>57900</v>
       </c>
       <c r="E89" s="3">
-        <v>314300</v>
+        <v>369600</v>
       </c>
       <c r="F89" s="3">
-        <v>271400</v>
+        <v>353600</v>
       </c>
       <c r="G89" s="3">
-        <v>480800</v>
+        <v>305300</v>
       </c>
       <c r="H89" s="3">
-        <v>293600</v>
+        <v>540900</v>
       </c>
       <c r="I89" s="3">
-        <v>212800</v>
+        <v>330300</v>
       </c>
       <c r="J89" s="3">
+        <v>239400</v>
+      </c>
+      <c r="K89" s="3">
         <v>245900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>206600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>252400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>177700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>253300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-190000</v>
+        <v>-237700</v>
       </c>
       <c r="E91" s="3">
-        <v>-131100</v>
+        <v>-213800</v>
       </c>
       <c r="F91" s="3">
-        <v>-150800</v>
+        <v>-147400</v>
       </c>
       <c r="G91" s="3">
-        <v>-143800</v>
+        <v>-169700</v>
       </c>
       <c r="H91" s="3">
-        <v>-138300</v>
+        <v>-161700</v>
       </c>
       <c r="I91" s="3">
-        <v>-140800</v>
+        <v>-155600</v>
       </c>
       <c r="J91" s="3">
+        <v>-158400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-145200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-271200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-159200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-148200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-117500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200500</v>
+        <v>-297900</v>
       </c>
       <c r="E94" s="3">
-        <v>-157400</v>
+        <v>-225500</v>
       </c>
       <c r="F94" s="3">
-        <v>-161500</v>
+        <v>-177100</v>
       </c>
       <c r="G94" s="3">
-        <v>-222900</v>
+        <v>-181700</v>
       </c>
       <c r="H94" s="3">
-        <v>-194400</v>
+        <v>-250700</v>
       </c>
       <c r="I94" s="3">
-        <v>-173600</v>
+        <v>-218800</v>
       </c>
       <c r="J94" s="3">
+        <v>-195300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-185700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-284400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-178000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-172000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-115100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-307000</v>
+        <v>-199500</v>
       </c>
       <c r="E96" s="3">
-        <v>-114400</v>
+        <v>-345400</v>
       </c>
       <c r="F96" s="3">
-        <v>-244200</v>
+        <v>-128700</v>
       </c>
       <c r="G96" s="3">
-        <v>-83800</v>
+        <v>-274700</v>
       </c>
       <c r="H96" s="3">
-        <v>-84100</v>
+        <v>-94300</v>
       </c>
       <c r="I96" s="3">
-        <v>-78200</v>
+        <v>-94700</v>
       </c>
       <c r="J96" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-74100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-77700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-84600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-94800</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-261700</v>
+        <v>676700</v>
       </c>
       <c r="E100" s="3">
-        <v>72500</v>
+        <v>-294400</v>
       </c>
       <c r="F100" s="3">
-        <v>-223400</v>
+        <v>81600</v>
       </c>
       <c r="G100" s="3">
-        <v>-59300</v>
+        <v>-251300</v>
       </c>
       <c r="H100" s="3">
-        <v>-59400</v>
+        <v>-66700</v>
       </c>
       <c r="I100" s="3">
-        <v>-106500</v>
+        <v>-66800</v>
       </c>
       <c r="J100" s="3">
+        <v>-119800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-92800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-157300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>327100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-102600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-98500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12900</v>
+        <v>-19000</v>
       </c>
       <c r="E101" s="3">
-        <v>-5400</v>
+        <v>-14500</v>
       </c>
       <c r="F101" s="3">
-        <v>-23900</v>
+        <v>-6100</v>
       </c>
       <c r="G101" s="3">
-        <v>-31800</v>
+        <v>-26900</v>
       </c>
       <c r="H101" s="3">
-        <v>500</v>
+        <v>-35800</v>
       </c>
       <c r="I101" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="J101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K101" s="3">
         <v>7700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-146500</v>
+        <v>417700</v>
       </c>
       <c r="E102" s="3">
-        <v>224000</v>
+        <v>-164800</v>
       </c>
       <c r="F102" s="3">
-        <v>-137400</v>
+        <v>252000</v>
       </c>
       <c r="G102" s="3">
-        <v>166800</v>
+        <v>-154500</v>
       </c>
       <c r="H102" s="3">
-        <v>40300</v>
+        <v>187700</v>
       </c>
       <c r="I102" s="3">
-        <v>-65500</v>
+        <v>45400</v>
       </c>
       <c r="J102" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-24900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-231000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>398500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-96900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3416400</v>
+        <v>3172400</v>
       </c>
       <c r="E8" s="3">
-        <v>3130700</v>
+        <v>2907100</v>
       </c>
       <c r="F8" s="3">
-        <v>2340600</v>
+        <v>2173400</v>
       </c>
       <c r="G8" s="3">
-        <v>2296400</v>
+        <v>2132400</v>
       </c>
       <c r="H8" s="3">
-        <v>2246900</v>
+        <v>2086400</v>
       </c>
       <c r="I8" s="3">
-        <v>2139900</v>
+        <v>1987100</v>
       </c>
       <c r="J8" s="3">
-        <v>1964200</v>
+        <v>1823900</v>
       </c>
       <c r="K8" s="3">
         <v>1678200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1908800</v>
+        <v>1772500</v>
       </c>
       <c r="E9" s="3">
-        <v>1627400</v>
+        <v>1511100</v>
       </c>
       <c r="F9" s="3">
-        <v>1239900</v>
+        <v>1151300</v>
       </c>
       <c r="G9" s="3">
-        <v>1144500</v>
+        <v>1062700</v>
       </c>
       <c r="H9" s="3">
-        <v>1083600</v>
+        <v>1006200</v>
       </c>
       <c r="I9" s="3">
-        <v>1006400</v>
+        <v>934500</v>
       </c>
       <c r="J9" s="3">
-        <v>934700</v>
+        <v>867900</v>
       </c>
       <c r="K9" s="3">
         <v>767300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1507600</v>
+        <v>1399900</v>
       </c>
       <c r="E10" s="3">
-        <v>1503400</v>
+        <v>1396000</v>
       </c>
       <c r="F10" s="3">
-        <v>1100700</v>
+        <v>1022100</v>
       </c>
       <c r="G10" s="3">
-        <v>1151900</v>
+        <v>1069600</v>
       </c>
       <c r="H10" s="3">
-        <v>1163300</v>
+        <v>1080200</v>
       </c>
       <c r="I10" s="3">
-        <v>1133500</v>
+        <v>1052600</v>
       </c>
       <c r="J10" s="3">
-        <v>1029500</v>
+        <v>956000</v>
       </c>
       <c r="K10" s="3">
         <v>910900</v>
@@ -954,19 +954,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-268900</v>
+        <v>-249700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3140800</v>
+        <v>2916400</v>
       </c>
       <c r="E17" s="3">
-        <v>2714300</v>
+        <v>2520500</v>
       </c>
       <c r="F17" s="3">
-        <v>2119800</v>
+        <v>1968400</v>
       </c>
       <c r="G17" s="3">
-        <v>2001600</v>
+        <v>1858600</v>
       </c>
       <c r="H17" s="3">
-        <v>1651300</v>
+        <v>1533300</v>
       </c>
       <c r="I17" s="3">
-        <v>1853700</v>
+        <v>1721300</v>
       </c>
       <c r="J17" s="3">
-        <v>1721900</v>
+        <v>1598900</v>
       </c>
       <c r="K17" s="3">
         <v>1439100</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>275600</v>
+        <v>256000</v>
       </c>
       <c r="E18" s="3">
-        <v>416400</v>
+        <v>386700</v>
       </c>
       <c r="F18" s="3">
-        <v>220700</v>
+        <v>205000</v>
       </c>
       <c r="G18" s="3">
-        <v>294800</v>
+        <v>273700</v>
       </c>
       <c r="H18" s="3">
-        <v>595700</v>
+        <v>553100</v>
       </c>
       <c r="I18" s="3">
-        <v>286200</v>
+        <v>265800</v>
       </c>
       <c r="J18" s="3">
-        <v>242300</v>
+        <v>225000</v>
       </c>
       <c r="K18" s="3">
         <v>239100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8900</v>
+        <v>-8300</v>
       </c>
       <c r="E20" s="3">
-        <v>8700</v>
+        <v>8000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="G20" s="3">
-        <v>-26000</v>
+        <v>-24100</v>
       </c>
       <c r="H20" s="3">
-        <v>11400</v>
+        <v>10600</v>
       </c>
       <c r="I20" s="3">
-        <v>-8200</v>
+        <v>-7600</v>
       </c>
       <c r="J20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>266700</v>
+        <v>247700</v>
       </c>
       <c r="E21" s="3">
-        <v>425000</v>
+        <v>394700</v>
       </c>
       <c r="F21" s="3">
-        <v>217100</v>
+        <v>201600</v>
       </c>
       <c r="G21" s="3">
-        <v>268800</v>
+        <v>249600</v>
       </c>
       <c r="H21" s="3">
-        <v>607000</v>
+        <v>563700</v>
       </c>
       <c r="I21" s="3">
-        <v>278000</v>
+        <v>258100</v>
       </c>
       <c r="J21" s="3">
-        <v>240200</v>
+        <v>223000</v>
       </c>
       <c r="K21" s="3">
         <v>239400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>95700</v>
+        <v>88800</v>
       </c>
       <c r="E22" s="3">
-        <v>44900</v>
+        <v>41700</v>
       </c>
       <c r="F22" s="3">
-        <v>36200</v>
+        <v>33600</v>
       </c>
       <c r="G22" s="3">
-        <v>34900</v>
+        <v>32400</v>
       </c>
       <c r="H22" s="3">
-        <v>29700</v>
+        <v>27600</v>
       </c>
       <c r="I22" s="3">
-        <v>30400</v>
+        <v>28300</v>
       </c>
       <c r="J22" s="3">
-        <v>25600</v>
+        <v>23800</v>
       </c>
       <c r="K22" s="3">
         <v>25900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>171000</v>
+        <v>158800</v>
       </c>
       <c r="E23" s="3">
-        <v>380100</v>
+        <v>353000</v>
       </c>
       <c r="F23" s="3">
-        <v>180900</v>
+        <v>168000</v>
       </c>
       <c r="G23" s="3">
-        <v>233900</v>
+        <v>217200</v>
       </c>
       <c r="H23" s="3">
-        <v>577300</v>
+        <v>536100</v>
       </c>
       <c r="I23" s="3">
-        <v>247600</v>
+        <v>229900</v>
       </c>
       <c r="J23" s="3">
-        <v>214600</v>
+        <v>199300</v>
       </c>
       <c r="K23" s="3">
         <v>213500</v>
@@ -1326,22 +1326,22 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>104100</v>
+        <v>96700</v>
       </c>
       <c r="F24" s="3">
-        <v>44600</v>
+        <v>41400</v>
       </c>
       <c r="G24" s="3">
-        <v>50400</v>
+        <v>46800</v>
       </c>
       <c r="H24" s="3">
-        <v>171500</v>
+        <v>159300</v>
       </c>
       <c r="I24" s="3">
-        <v>60900</v>
+        <v>56600</v>
       </c>
       <c r="J24" s="3">
-        <v>38100</v>
+        <v>35400</v>
       </c>
       <c r="K24" s="3">
         <v>56100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>170700</v>
+        <v>158500</v>
       </c>
       <c r="E26" s="3">
-        <v>276000</v>
+        <v>256300</v>
       </c>
       <c r="F26" s="3">
-        <v>136300</v>
+        <v>126600</v>
       </c>
       <c r="G26" s="3">
-        <v>183500</v>
+        <v>170400</v>
       </c>
       <c r="H26" s="3">
-        <v>405800</v>
+        <v>376800</v>
       </c>
       <c r="I26" s="3">
-        <v>186600</v>
+        <v>173300</v>
       </c>
       <c r="J26" s="3">
-        <v>176500</v>
+        <v>163900</v>
       </c>
       <c r="K26" s="3">
         <v>157400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>148900</v>
+        <v>138300</v>
       </c>
       <c r="E27" s="3">
-        <v>250900</v>
+        <v>233000</v>
       </c>
       <c r="F27" s="3">
-        <v>121200</v>
+        <v>112500</v>
       </c>
       <c r="G27" s="3">
-        <v>164000</v>
+        <v>152300</v>
       </c>
       <c r="H27" s="3">
-        <v>386700</v>
+        <v>359100</v>
       </c>
       <c r="I27" s="3">
-        <v>163300</v>
+        <v>151600</v>
       </c>
       <c r="J27" s="3">
-        <v>149300</v>
+        <v>138600</v>
       </c>
       <c r="K27" s="3">
         <v>135300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="E32" s="3">
-        <v>-8700</v>
+        <v>-8000</v>
       </c>
       <c r="F32" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G32" s="3">
-        <v>26000</v>
+        <v>24100</v>
       </c>
       <c r="H32" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="I32" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="J32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>148900</v>
+        <v>138300</v>
       </c>
       <c r="E33" s="3">
-        <v>250900</v>
+        <v>233000</v>
       </c>
       <c r="F33" s="3">
-        <v>121200</v>
+        <v>112500</v>
       </c>
       <c r="G33" s="3">
-        <v>164000</v>
+        <v>152300</v>
       </c>
       <c r="H33" s="3">
-        <v>386700</v>
+        <v>359100</v>
       </c>
       <c r="I33" s="3">
-        <v>163300</v>
+        <v>151600</v>
       </c>
       <c r="J33" s="3">
-        <v>149300</v>
+        <v>138600</v>
       </c>
       <c r="K33" s="3">
         <v>135300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>148900</v>
+        <v>138300</v>
       </c>
       <c r="E35" s="3">
-        <v>250900</v>
+        <v>233000</v>
       </c>
       <c r="F35" s="3">
-        <v>121200</v>
+        <v>112500</v>
       </c>
       <c r="G35" s="3">
-        <v>164000</v>
+        <v>152300</v>
       </c>
       <c r="H35" s="3">
-        <v>386700</v>
+        <v>359100</v>
       </c>
       <c r="I35" s="3">
-        <v>163300</v>
+        <v>151600</v>
       </c>
       <c r="J35" s="3">
-        <v>149300</v>
+        <v>138600</v>
       </c>
       <c r="K35" s="3">
         <v>135300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>716500</v>
+        <v>665300</v>
       </c>
       <c r="E41" s="3">
-        <v>155200</v>
+        <v>144100</v>
       </c>
       <c r="F41" s="3">
-        <v>249300</v>
+        <v>231500</v>
       </c>
       <c r="G41" s="3">
-        <v>112600</v>
+        <v>104600</v>
       </c>
       <c r="H41" s="3">
-        <v>141800</v>
+        <v>131600</v>
       </c>
       <c r="I41" s="3">
-        <v>64000</v>
+        <v>59400</v>
       </c>
       <c r="J41" s="3">
-        <v>73800</v>
+        <v>68500</v>
       </c>
       <c r="K41" s="3">
         <v>84500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>93400</v>
+        <v>86700</v>
       </c>
       <c r="E42" s="3">
-        <v>209400</v>
+        <v>194500</v>
       </c>
       <c r="F42" s="3">
-        <v>265600</v>
+        <v>246600</v>
       </c>
       <c r="G42" s="3">
-        <v>147100</v>
+        <v>136600</v>
       </c>
       <c r="H42" s="3">
-        <v>288900</v>
+        <v>268200</v>
       </c>
       <c r="I42" s="3">
-        <v>163800</v>
+        <v>152100</v>
       </c>
       <c r="J42" s="3">
-        <v>105700</v>
+        <v>98100</v>
       </c>
       <c r="K42" s="3">
         <v>146400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>627700</v>
+        <v>582900</v>
       </c>
       <c r="E43" s="3">
-        <v>509500</v>
+        <v>473100</v>
       </c>
       <c r="F43" s="3">
-        <v>367400</v>
+        <v>341100</v>
       </c>
       <c r="G43" s="3">
-        <v>401200</v>
+        <v>372600</v>
       </c>
       <c r="H43" s="3">
-        <v>429700</v>
+        <v>399000</v>
       </c>
       <c r="I43" s="3">
-        <v>403300</v>
+        <v>374500</v>
       </c>
       <c r="J43" s="3">
-        <v>395300</v>
+        <v>367100</v>
       </c>
       <c r="K43" s="3">
         <v>305000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>626200</v>
+        <v>581500</v>
       </c>
       <c r="E44" s="3">
-        <v>461100</v>
+        <v>428200</v>
       </c>
       <c r="F44" s="3">
-        <v>305500</v>
+        <v>283700</v>
       </c>
       <c r="G44" s="3">
-        <v>304800</v>
+        <v>283000</v>
       </c>
       <c r="H44" s="3">
-        <v>298100</v>
+        <v>276800</v>
       </c>
       <c r="I44" s="3">
-        <v>264800</v>
+        <v>245900</v>
       </c>
       <c r="J44" s="3">
-        <v>251100</v>
+        <v>233200</v>
       </c>
       <c r="K44" s="3">
         <v>195100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30300</v>
+        <v>28100</v>
       </c>
       <c r="E45" s="3">
-        <v>39800</v>
+        <v>37000</v>
       </c>
       <c r="F45" s="3">
-        <v>21900</v>
+        <v>20400</v>
       </c>
       <c r="G45" s="3">
-        <v>28700</v>
+        <v>26700</v>
       </c>
       <c r="H45" s="3">
-        <v>27300</v>
+        <v>25300</v>
       </c>
       <c r="I45" s="3">
-        <v>33100</v>
+        <v>30800</v>
       </c>
       <c r="J45" s="3">
-        <v>33000</v>
+        <v>30600</v>
       </c>
       <c r="K45" s="3">
         <v>35400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2094100</v>
+        <v>1944500</v>
       </c>
       <c r="E46" s="3">
-        <v>1375100</v>
+        <v>1276900</v>
       </c>
       <c r="F46" s="3">
-        <v>1209600</v>
+        <v>1123200</v>
       </c>
       <c r="G46" s="3">
-        <v>994500</v>
+        <v>923500</v>
       </c>
       <c r="H46" s="3">
-        <v>1185700</v>
+        <v>1101000</v>
       </c>
       <c r="I46" s="3">
-        <v>918700</v>
+        <v>853100</v>
       </c>
       <c r="J46" s="3">
-        <v>858900</v>
+        <v>797600</v>
       </c>
       <c r="K46" s="3">
         <v>766400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>229300</v>
+        <v>212900</v>
       </c>
       <c r="E47" s="3">
-        <v>218300</v>
+        <v>202700</v>
       </c>
       <c r="F47" s="3">
-        <v>182800</v>
+        <v>169700</v>
       </c>
       <c r="G47" s="3">
-        <v>181600</v>
+        <v>168600</v>
       </c>
       <c r="H47" s="3">
-        <v>187600</v>
+        <v>174200</v>
       </c>
       <c r="I47" s="3">
-        <v>132800</v>
+        <v>123300</v>
       </c>
       <c r="J47" s="3">
-        <v>86300</v>
+        <v>80200</v>
       </c>
       <c r="K47" s="3">
         <v>56600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1766500</v>
+        <v>1640300</v>
       </c>
       <c r="E48" s="3">
-        <v>1587800</v>
+        <v>1474400</v>
       </c>
       <c r="F48" s="3">
-        <v>1405300</v>
+        <v>1304900</v>
       </c>
       <c r="G48" s="3">
-        <v>1393400</v>
+        <v>1293800</v>
       </c>
       <c r="H48" s="3">
-        <v>1297800</v>
+        <v>1205100</v>
       </c>
       <c r="I48" s="3">
-        <v>1163900</v>
+        <v>1080800</v>
       </c>
       <c r="J48" s="3">
-        <v>1154900</v>
+        <v>1072400</v>
       </c>
       <c r="K48" s="3">
         <v>1053200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>389800</v>
+        <v>362000</v>
       </c>
       <c r="E49" s="3">
-        <v>356700</v>
+        <v>331200</v>
       </c>
       <c r="F49" s="3">
-        <v>309300</v>
+        <v>287200</v>
       </c>
       <c r="G49" s="3">
-        <v>315700</v>
+        <v>293200</v>
       </c>
       <c r="H49" s="3">
-        <v>304900</v>
+        <v>283200</v>
       </c>
       <c r="I49" s="3">
-        <v>216300</v>
+        <v>200800</v>
       </c>
       <c r="J49" s="3">
-        <v>220300</v>
+        <v>204600</v>
       </c>
       <c r="K49" s="3">
         <v>191900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50200</v>
+        <v>46600</v>
       </c>
       <c r="E52" s="3">
-        <v>48900</v>
+        <v>45400</v>
       </c>
       <c r="F52" s="3">
-        <v>75000</v>
+        <v>69600</v>
       </c>
       <c r="G52" s="3">
-        <v>80500</v>
+        <v>74700</v>
       </c>
       <c r="H52" s="3">
-        <v>55400</v>
+        <v>51400</v>
       </c>
       <c r="I52" s="3">
-        <v>58400</v>
+        <v>54200</v>
       </c>
       <c r="J52" s="3">
-        <v>46100</v>
+        <v>42800</v>
       </c>
       <c r="K52" s="3">
         <v>44500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4529800</v>
+        <v>4206200</v>
       </c>
       <c r="E54" s="3">
-        <v>3586900</v>
+        <v>3330700</v>
       </c>
       <c r="F54" s="3">
-        <v>3181900</v>
+        <v>2954600</v>
       </c>
       <c r="G54" s="3">
-        <v>2965700</v>
+        <v>2753800</v>
       </c>
       <c r="H54" s="3">
-        <v>3031400</v>
+        <v>2814900</v>
       </c>
       <c r="I54" s="3">
-        <v>2490000</v>
+        <v>2312200</v>
       </c>
       <c r="J54" s="3">
-        <v>2358800</v>
+        <v>2190300</v>
       </c>
       <c r="K54" s="3">
         <v>2044500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>530000</v>
+        <v>492100</v>
       </c>
       <c r="E57" s="3">
-        <v>553000</v>
+        <v>513500</v>
       </c>
       <c r="F57" s="3">
-        <v>322800</v>
+        <v>299800</v>
       </c>
       <c r="G57" s="3">
-        <v>313200</v>
+        <v>290900</v>
       </c>
       <c r="H57" s="3">
-        <v>311600</v>
+        <v>289400</v>
       </c>
       <c r="I57" s="3">
-        <v>282700</v>
+        <v>262500</v>
       </c>
       <c r="J57" s="3">
-        <v>592100</v>
+        <v>549800</v>
       </c>
       <c r="K57" s="3">
         <v>255100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>236500</v>
+        <v>219600</v>
       </c>
       <c r="E58" s="3">
-        <v>130400</v>
+        <v>121100</v>
       </c>
       <c r="F58" s="3">
-        <v>83900</v>
+        <v>77900</v>
       </c>
       <c r="G58" s="3">
-        <v>87500</v>
+        <v>81200</v>
       </c>
       <c r="H58" s="3">
-        <v>76300</v>
+        <v>70800</v>
       </c>
       <c r="I58" s="3">
-        <v>58000</v>
+        <v>53900</v>
       </c>
       <c r="J58" s="3">
-        <v>72700</v>
+        <v>67500</v>
       </c>
       <c r="K58" s="3">
         <v>48900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>238000</v>
+        <v>221000</v>
       </c>
       <c r="E59" s="3">
-        <v>300800</v>
+        <v>279300</v>
       </c>
       <c r="F59" s="3">
-        <v>250400</v>
+        <v>232500</v>
       </c>
       <c r="G59" s="3">
-        <v>208200</v>
+        <v>193300</v>
       </c>
       <c r="H59" s="3">
-        <v>425700</v>
+        <v>395300</v>
       </c>
       <c r="I59" s="3">
-        <v>250000</v>
+        <v>232100</v>
       </c>
       <c r="J59" s="3">
-        <v>219800</v>
+        <v>204100</v>
       </c>
       <c r="K59" s="3">
         <v>131300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1004400</v>
+        <v>932700</v>
       </c>
       <c r="E60" s="3">
-        <v>984200</v>
+        <v>913900</v>
       </c>
       <c r="F60" s="3">
-        <v>657100</v>
+        <v>610200</v>
       </c>
       <c r="G60" s="3">
-        <v>608900</v>
+        <v>565400</v>
       </c>
       <c r="H60" s="3">
-        <v>813600</v>
+        <v>755500</v>
       </c>
       <c r="I60" s="3">
-        <v>590600</v>
+        <v>548400</v>
       </c>
       <c r="J60" s="3">
-        <v>557400</v>
+        <v>517600</v>
       </c>
       <c r="K60" s="3">
         <v>435300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1509300</v>
+        <v>1401500</v>
       </c>
       <c r="E61" s="3">
-        <v>608900</v>
+        <v>565400</v>
       </c>
       <c r="F61" s="3">
-        <v>554500</v>
+        <v>514900</v>
       </c>
       <c r="G61" s="3">
-        <v>329800</v>
+        <v>306300</v>
       </c>
       <c r="H61" s="3">
-        <v>287300</v>
+        <v>266800</v>
       </c>
       <c r="I61" s="3">
-        <v>202900</v>
+        <v>188400</v>
       </c>
       <c r="J61" s="3">
-        <v>148600</v>
+        <v>138000</v>
       </c>
       <c r="K61" s="3">
         <v>153400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>206800</v>
+        <v>192000</v>
       </c>
       <c r="E62" s="3">
-        <v>197700</v>
+        <v>183500</v>
       </c>
       <c r="F62" s="3">
-        <v>195200</v>
+        <v>181300</v>
       </c>
       <c r="G62" s="3">
-        <v>208800</v>
+        <v>193900</v>
       </c>
       <c r="H62" s="3">
-        <v>180200</v>
+        <v>167300</v>
       </c>
       <c r="I62" s="3">
-        <v>150800</v>
+        <v>140000</v>
       </c>
       <c r="J62" s="3">
-        <v>139900</v>
+        <v>129900</v>
       </c>
       <c r="K62" s="3">
         <v>125800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2872900</v>
+        <v>2667700</v>
       </c>
       <c r="E66" s="3">
-        <v>1939300</v>
+        <v>1800800</v>
       </c>
       <c r="F66" s="3">
-        <v>1548200</v>
+        <v>1437700</v>
       </c>
       <c r="G66" s="3">
-        <v>1292300</v>
+        <v>1200000</v>
       </c>
       <c r="H66" s="3">
-        <v>1418400</v>
+        <v>1317100</v>
       </c>
       <c r="I66" s="3">
-        <v>1102700</v>
+        <v>1023900</v>
       </c>
       <c r="J66" s="3">
-        <v>1001400</v>
+        <v>929800</v>
       </c>
       <c r="K66" s="3">
         <v>859700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1003700</v>
+        <v>932000</v>
       </c>
       <c r="E72" s="3">
-        <v>997400</v>
+        <v>926100</v>
       </c>
       <c r="F72" s="3">
-        <v>1114500</v>
+        <v>1034900</v>
       </c>
       <c r="G72" s="3">
-        <v>1092400</v>
+        <v>1014300</v>
       </c>
       <c r="H72" s="3">
-        <v>1052600</v>
+        <v>977400</v>
       </c>
       <c r="I72" s="3">
-        <v>647400</v>
+        <v>601200</v>
       </c>
       <c r="J72" s="3">
-        <v>800300</v>
+        <v>743100</v>
       </c>
       <c r="K72" s="3">
         <v>661400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1656900</v>
+        <v>1538600</v>
       </c>
       <c r="E76" s="3">
-        <v>1647600</v>
+        <v>1529900</v>
       </c>
       <c r="F76" s="3">
-        <v>1633700</v>
+        <v>1517000</v>
       </c>
       <c r="G76" s="3">
-        <v>1673300</v>
+        <v>1553800</v>
       </c>
       <c r="H76" s="3">
-        <v>1613000</v>
+        <v>1497700</v>
       </c>
       <c r="I76" s="3">
-        <v>1387400</v>
+        <v>1288300</v>
       </c>
       <c r="J76" s="3">
-        <v>1357400</v>
+        <v>1260400</v>
       </c>
       <c r="K76" s="3">
         <v>1184800</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>148900</v>
+        <v>138300</v>
       </c>
       <c r="E81" s="3">
-        <v>250900</v>
+        <v>233000</v>
       </c>
       <c r="F81" s="3">
-        <v>121200</v>
+        <v>112500</v>
       </c>
       <c r="G81" s="3">
-        <v>164000</v>
+        <v>152300</v>
       </c>
       <c r="H81" s="3">
-        <v>386700</v>
+        <v>359100</v>
       </c>
       <c r="I81" s="3">
-        <v>163300</v>
+        <v>151600</v>
       </c>
       <c r="J81" s="3">
-        <v>149300</v>
+        <v>138600</v>
       </c>
       <c r="K81" s="3">
         <v>135300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>57900</v>
+        <v>53700</v>
       </c>
       <c r="E89" s="3">
-        <v>369600</v>
+        <v>343200</v>
       </c>
       <c r="F89" s="3">
-        <v>353600</v>
+        <v>328400</v>
       </c>
       <c r="G89" s="3">
-        <v>305300</v>
+        <v>283500</v>
       </c>
       <c r="H89" s="3">
-        <v>540900</v>
+        <v>502300</v>
       </c>
       <c r="I89" s="3">
-        <v>330300</v>
+        <v>306700</v>
       </c>
       <c r="J89" s="3">
-        <v>239400</v>
+        <v>222300</v>
       </c>
       <c r="K89" s="3">
         <v>245900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-237700</v>
+        <v>-220700</v>
       </c>
       <c r="E91" s="3">
-        <v>-213800</v>
+        <v>-198500</v>
       </c>
       <c r="F91" s="3">
-        <v>-147400</v>
+        <v>-136900</v>
       </c>
       <c r="G91" s="3">
-        <v>-169700</v>
+        <v>-157600</v>
       </c>
       <c r="H91" s="3">
-        <v>-161700</v>
+        <v>-150200</v>
       </c>
       <c r="I91" s="3">
-        <v>-155600</v>
+        <v>-144500</v>
       </c>
       <c r="J91" s="3">
-        <v>-158400</v>
+        <v>-147100</v>
       </c>
       <c r="K91" s="3">
         <v>-145200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-297900</v>
+        <v>-276700</v>
       </c>
       <c r="E94" s="3">
-        <v>-225500</v>
+        <v>-209400</v>
       </c>
       <c r="F94" s="3">
-        <v>-177100</v>
+        <v>-164400</v>
       </c>
       <c r="G94" s="3">
-        <v>-181700</v>
+        <v>-168700</v>
       </c>
       <c r="H94" s="3">
-        <v>-250700</v>
+        <v>-232800</v>
       </c>
       <c r="I94" s="3">
-        <v>-218800</v>
+        <v>-203100</v>
       </c>
       <c r="J94" s="3">
-        <v>-195300</v>
+        <v>-181400</v>
       </c>
       <c r="K94" s="3">
         <v>-185700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-199500</v>
+        <v>-185200</v>
       </c>
       <c r="E96" s="3">
-        <v>-345400</v>
+        <v>-320700</v>
       </c>
       <c r="F96" s="3">
-        <v>-128700</v>
+        <v>-119500</v>
       </c>
       <c r="G96" s="3">
-        <v>-274700</v>
+        <v>-255100</v>
       </c>
       <c r="H96" s="3">
-        <v>-94300</v>
+        <v>-87500</v>
       </c>
       <c r="I96" s="3">
-        <v>-94700</v>
+        <v>-87900</v>
       </c>
       <c r="J96" s="3">
-        <v>-88000</v>
+        <v>-81700</v>
       </c>
       <c r="K96" s="3">
         <v>-74100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>676700</v>
+        <v>628400</v>
       </c>
       <c r="E100" s="3">
-        <v>-294400</v>
+        <v>-273400</v>
       </c>
       <c r="F100" s="3">
-        <v>81600</v>
+        <v>75800</v>
       </c>
       <c r="G100" s="3">
-        <v>-251300</v>
+        <v>-233300</v>
       </c>
       <c r="H100" s="3">
-        <v>-66700</v>
+        <v>-62000</v>
       </c>
       <c r="I100" s="3">
-        <v>-66800</v>
+        <v>-62000</v>
       </c>
       <c r="J100" s="3">
-        <v>-119800</v>
+        <v>-111200</v>
       </c>
       <c r="K100" s="3">
         <v>-92800</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19000</v>
+        <v>-17600</v>
       </c>
       <c r="E101" s="3">
-        <v>-14500</v>
+        <v>-13500</v>
       </c>
       <c r="F101" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="G101" s="3">
-        <v>-26900</v>
+        <v>-25000</v>
       </c>
       <c r="H101" s="3">
-        <v>-35800</v>
+        <v>-33200</v>
       </c>
       <c r="I101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K101" s="3">
         <v>7700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>417700</v>
+        <v>387900</v>
       </c>
       <c r="E102" s="3">
-        <v>-164800</v>
+        <v>-153100</v>
       </c>
       <c r="F102" s="3">
-        <v>252000</v>
+        <v>234000</v>
       </c>
       <c r="G102" s="3">
-        <v>-154500</v>
+        <v>-143500</v>
       </c>
       <c r="H102" s="3">
-        <v>187700</v>
+        <v>174300</v>
       </c>
       <c r="I102" s="3">
-        <v>45400</v>
+        <v>42100</v>
       </c>
       <c r="J102" s="3">
-        <v>-73700</v>
+        <v>-68500</v>
       </c>
       <c r="K102" s="3">
         <v>-24900</v>

--- a/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCU_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3172400</v>
+        <v>3063900</v>
       </c>
       <c r="E8" s="3">
-        <v>2907100</v>
+        <v>2807700</v>
       </c>
       <c r="F8" s="3">
-        <v>2173400</v>
+        <v>2099100</v>
       </c>
       <c r="G8" s="3">
-        <v>2132400</v>
+        <v>2059500</v>
       </c>
       <c r="H8" s="3">
-        <v>2086400</v>
+        <v>2015100</v>
       </c>
       <c r="I8" s="3">
-        <v>1987100</v>
+        <v>1919100</v>
       </c>
       <c r="J8" s="3">
-        <v>1823900</v>
+        <v>1761600</v>
       </c>
       <c r="K8" s="3">
         <v>1678200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1772500</v>
+        <v>1711900</v>
       </c>
       <c r="E9" s="3">
-        <v>1511100</v>
+        <v>1459500</v>
       </c>
       <c r="F9" s="3">
-        <v>1151300</v>
+        <v>1112000</v>
       </c>
       <c r="G9" s="3">
-        <v>1062700</v>
+        <v>1026400</v>
       </c>
       <c r="H9" s="3">
-        <v>1006200</v>
+        <v>971800</v>
       </c>
       <c r="I9" s="3">
-        <v>934500</v>
+        <v>902600</v>
       </c>
       <c r="J9" s="3">
-        <v>867900</v>
+        <v>838300</v>
       </c>
       <c r="K9" s="3">
         <v>767300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1399900</v>
+        <v>1352100</v>
       </c>
       <c r="E10" s="3">
-        <v>1396000</v>
+        <v>1348300</v>
       </c>
       <c r="F10" s="3">
-        <v>1022100</v>
+        <v>987100</v>
       </c>
       <c r="G10" s="3">
-        <v>1069600</v>
+        <v>1033100</v>
       </c>
       <c r="H10" s="3">
-        <v>1080200</v>
+        <v>1043300</v>
       </c>
       <c r="I10" s="3">
-        <v>1052600</v>
+        <v>1016600</v>
       </c>
       <c r="J10" s="3">
-        <v>956000</v>
+        <v>923300</v>
       </c>
       <c r="K10" s="3">
         <v>910900</v>
@@ -954,19 +954,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-249700</v>
+        <v>-241100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2916400</v>
+        <v>2816700</v>
       </c>
       <c r="E17" s="3">
-        <v>2520500</v>
+        <v>2434300</v>
       </c>
       <c r="F17" s="3">
-        <v>1968400</v>
+        <v>1901100</v>
       </c>
       <c r="G17" s="3">
-        <v>1858600</v>
+        <v>1795100</v>
       </c>
       <c r="H17" s="3">
-        <v>1533300</v>
+        <v>1480900</v>
       </c>
       <c r="I17" s="3">
-        <v>1721300</v>
+        <v>1662400</v>
       </c>
       <c r="J17" s="3">
-        <v>1598900</v>
+        <v>1544200</v>
       </c>
       <c r="K17" s="3">
         <v>1439100</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>256000</v>
+        <v>247200</v>
       </c>
       <c r="E18" s="3">
-        <v>386700</v>
+        <v>373400</v>
       </c>
       <c r="F18" s="3">
-        <v>205000</v>
+        <v>198000</v>
       </c>
       <c r="G18" s="3">
-        <v>273700</v>
+        <v>264400</v>
       </c>
       <c r="H18" s="3">
-        <v>553100</v>
+        <v>534200</v>
       </c>
       <c r="I18" s="3">
-        <v>265800</v>
+        <v>256700</v>
       </c>
       <c r="J18" s="3">
-        <v>225000</v>
+        <v>217300</v>
       </c>
       <c r="K18" s="3">
         <v>239100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="E20" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F20" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="G20" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="H20" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="I20" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="J20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>247700</v>
+        <v>239200</v>
       </c>
       <c r="E21" s="3">
-        <v>394700</v>
+        <v>381200</v>
       </c>
       <c r="F21" s="3">
-        <v>201600</v>
+        <v>194700</v>
       </c>
       <c r="G21" s="3">
-        <v>249600</v>
+        <v>241100</v>
       </c>
       <c r="H21" s="3">
-        <v>563700</v>
+        <v>544400</v>
       </c>
       <c r="I21" s="3">
-        <v>258100</v>
+        <v>249300</v>
       </c>
       <c r="J21" s="3">
-        <v>223000</v>
+        <v>215400</v>
       </c>
       <c r="K21" s="3">
         <v>239400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>88800</v>
+        <v>85800</v>
       </c>
       <c r="E22" s="3">
-        <v>41700</v>
+        <v>40300</v>
       </c>
       <c r="F22" s="3">
-        <v>33600</v>
+        <v>32400</v>
       </c>
       <c r="G22" s="3">
-        <v>32400</v>
+        <v>31300</v>
       </c>
       <c r="H22" s="3">
-        <v>27600</v>
+        <v>26600</v>
       </c>
       <c r="I22" s="3">
-        <v>28300</v>
+        <v>27300</v>
       </c>
       <c r="J22" s="3">
-        <v>23800</v>
+        <v>22900</v>
       </c>
       <c r="K22" s="3">
         <v>25900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>158800</v>
+        <v>153400</v>
       </c>
       <c r="E23" s="3">
-        <v>353000</v>
+        <v>340900</v>
       </c>
       <c r="F23" s="3">
-        <v>168000</v>
+        <v>162300</v>
       </c>
       <c r="G23" s="3">
-        <v>217200</v>
+        <v>209800</v>
       </c>
       <c r="H23" s="3">
-        <v>536100</v>
+        <v>517800</v>
       </c>
       <c r="I23" s="3">
-        <v>229900</v>
+        <v>222000</v>
       </c>
       <c r="J23" s="3">
-        <v>199300</v>
+        <v>192500</v>
       </c>
       <c r="K23" s="3">
         <v>213500</v>
@@ -1326,22 +1326,22 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>96700</v>
+        <v>93400</v>
       </c>
       <c r="F24" s="3">
-        <v>41400</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="3">
-        <v>46800</v>
+        <v>45200</v>
       </c>
       <c r="H24" s="3">
-        <v>159300</v>
+        <v>153800</v>
       </c>
       <c r="I24" s="3">
-        <v>56600</v>
+        <v>54700</v>
       </c>
       <c r="J24" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="K24" s="3">
         <v>56100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>158500</v>
+        <v>153100</v>
       </c>
       <c r="E26" s="3">
-        <v>256300</v>
+        <v>247500</v>
       </c>
       <c r="F26" s="3">
-        <v>126600</v>
+        <v>122300</v>
       </c>
       <c r="G26" s="3">
-        <v>170400</v>
+        <v>164600</v>
       </c>
       <c r="H26" s="3">
-        <v>376800</v>
+        <v>364000</v>
       </c>
       <c r="I26" s="3">
-        <v>173300</v>
+        <v>167400</v>
       </c>
       <c r="J26" s="3">
-        <v>163900</v>
+        <v>158300</v>
       </c>
       <c r="K26" s="3">
         <v>157400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>138300</v>
+        <v>133500</v>
       </c>
       <c r="E27" s="3">
-        <v>233000</v>
+        <v>225100</v>
       </c>
       <c r="F27" s="3">
-        <v>112500</v>
+        <v>108700</v>
       </c>
       <c r="G27" s="3">
-        <v>152300</v>
+        <v>147100</v>
       </c>
       <c r="H27" s="3">
-        <v>359100</v>
+        <v>346800</v>
       </c>
       <c r="I27" s="3">
-        <v>151600</v>
+        <v>146500</v>
       </c>
       <c r="J27" s="3">
-        <v>138600</v>
+        <v>133900</v>
       </c>
       <c r="K27" s="3">
         <v>135300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E32" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="F32" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G32" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="H32" s="3">
-        <v>-10600</v>
+        <v>-10200</v>
       </c>
       <c r="I32" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="J32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>138300</v>
+        <v>133500</v>
       </c>
       <c r="E33" s="3">
-        <v>233000</v>
+        <v>225100</v>
       </c>
       <c r="F33" s="3">
-        <v>112500</v>
+        <v>108700</v>
       </c>
       <c r="G33" s="3">
-        <v>152300</v>
+        <v>147100</v>
       </c>
       <c r="H33" s="3">
-        <v>359100</v>
+        <v>346800</v>
       </c>
       <c r="I33" s="3">
-        <v>151600</v>
+        <v>146500</v>
       </c>
       <c r="J33" s="3">
-        <v>138600</v>
+        <v>133900</v>
       </c>
       <c r="K33" s="3">
         <v>135300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>138300</v>
+        <v>133500</v>
       </c>
       <c r="E35" s="3">
-        <v>233000</v>
+        <v>225100</v>
       </c>
       <c r="F35" s="3">
-        <v>112500</v>
+        <v>108700</v>
       </c>
       <c r="G35" s="3">
-        <v>152300</v>
+        <v>147100</v>
       </c>
       <c r="H35" s="3">
-        <v>359100</v>
+        <v>346800</v>
       </c>
       <c r="I35" s="3">
-        <v>151600</v>
+        <v>146500</v>
       </c>
       <c r="J35" s="3">
-        <v>138600</v>
+        <v>133900</v>
       </c>
       <c r="K35" s="3">
         <v>135300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>665300</v>
+        <v>642600</v>
       </c>
       <c r="E41" s="3">
-        <v>144100</v>
+        <v>139200</v>
       </c>
       <c r="F41" s="3">
-        <v>231500</v>
+        <v>223600</v>
       </c>
       <c r="G41" s="3">
-        <v>104600</v>
+        <v>101000</v>
       </c>
       <c r="H41" s="3">
-        <v>131600</v>
+        <v>127100</v>
       </c>
       <c r="I41" s="3">
-        <v>59400</v>
+        <v>57400</v>
       </c>
       <c r="J41" s="3">
-        <v>68500</v>
+        <v>66200</v>
       </c>
       <c r="K41" s="3">
         <v>84500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>86700</v>
+        <v>83700</v>
       </c>
       <c r="E42" s="3">
-        <v>194500</v>
+        <v>187800</v>
       </c>
       <c r="F42" s="3">
-        <v>246600</v>
+        <v>238200</v>
       </c>
       <c r="G42" s="3">
-        <v>136600</v>
+        <v>132000</v>
       </c>
       <c r="H42" s="3">
-        <v>268200</v>
+        <v>259100</v>
       </c>
       <c r="I42" s="3">
-        <v>152100</v>
+        <v>146900</v>
       </c>
       <c r="J42" s="3">
-        <v>98100</v>
+        <v>94800</v>
       </c>
       <c r="K42" s="3">
         <v>146400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>582900</v>
+        <v>562900</v>
       </c>
       <c r="E43" s="3">
-        <v>473100</v>
+        <v>456900</v>
       </c>
       <c r="F43" s="3">
-        <v>341100</v>
+        <v>329500</v>
       </c>
       <c r="G43" s="3">
-        <v>372600</v>
+        <v>359800</v>
       </c>
       <c r="H43" s="3">
-        <v>399000</v>
+        <v>385400</v>
       </c>
       <c r="I43" s="3">
-        <v>374500</v>
+        <v>361700</v>
       </c>
       <c r="J43" s="3">
-        <v>367100</v>
+        <v>354500</v>
       </c>
       <c r="K43" s="3">
         <v>305000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>581500</v>
+        <v>561600</v>
       </c>
       <c r="E44" s="3">
-        <v>428200</v>
+        <v>413600</v>
       </c>
       <c r="F44" s="3">
-        <v>283700</v>
+        <v>274000</v>
       </c>
       <c r="G44" s="3">
-        <v>283000</v>
+        <v>273300</v>
       </c>
       <c r="H44" s="3">
-        <v>276800</v>
+        <v>267300</v>
       </c>
       <c r="I44" s="3">
-        <v>245900</v>
+        <v>237500</v>
       </c>
       <c r="J44" s="3">
-        <v>233200</v>
+        <v>225200</v>
       </c>
       <c r="K44" s="3">
         <v>195100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="E45" s="3">
-        <v>37000</v>
+        <v>35700</v>
       </c>
       <c r="F45" s="3">
-        <v>20400</v>
+        <v>19700</v>
       </c>
       <c r="G45" s="3">
-        <v>26700</v>
+        <v>25700</v>
       </c>
       <c r="H45" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="I45" s="3">
-        <v>30800</v>
+        <v>29700</v>
       </c>
       <c r="J45" s="3">
-        <v>30600</v>
+        <v>29600</v>
       </c>
       <c r="K45" s="3">
         <v>35400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1944500</v>
+        <v>1878000</v>
       </c>
       <c r="E46" s="3">
-        <v>1276900</v>
+        <v>1233300</v>
       </c>
       <c r="F46" s="3">
-        <v>1123200</v>
+        <v>1084800</v>
       </c>
       <c r="G46" s="3">
-        <v>923500</v>
+        <v>891900</v>
       </c>
       <c r="H46" s="3">
-        <v>1101000</v>
+        <v>1063300</v>
       </c>
       <c r="I46" s="3">
-        <v>853100</v>
+        <v>823900</v>
       </c>
       <c r="J46" s="3">
-        <v>797600</v>
+        <v>770300</v>
       </c>
       <c r="K46" s="3">
         <v>766400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>212900</v>
+        <v>205600</v>
       </c>
       <c r="E47" s="3">
-        <v>202700</v>
+        <v>195800</v>
       </c>
       <c r="F47" s="3">
-        <v>169700</v>
+        <v>163900</v>
       </c>
       <c r="G47" s="3">
-        <v>168600</v>
+        <v>162800</v>
       </c>
       <c r="H47" s="3">
-        <v>174200</v>
+        <v>168300</v>
       </c>
       <c r="I47" s="3">
-        <v>123300</v>
+        <v>119100</v>
       </c>
       <c r="J47" s="3">
-        <v>80200</v>
+        <v>77400</v>
       </c>
       <c r="K47" s="3">
         <v>56600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1640300</v>
+        <v>1584300</v>
       </c>
       <c r="E48" s="3">
-        <v>1474400</v>
+        <v>1424000</v>
       </c>
       <c r="F48" s="3">
-        <v>1304900</v>
+        <v>1260300</v>
       </c>
       <c r="G48" s="3">
-        <v>1293800</v>
+        <v>1249600</v>
       </c>
       <c r="H48" s="3">
-        <v>1205100</v>
+        <v>1163900</v>
       </c>
       <c r="I48" s="3">
-        <v>1080800</v>
+        <v>1043800</v>
       </c>
       <c r="J48" s="3">
-        <v>1072400</v>
+        <v>1035800</v>
       </c>
       <c r="K48" s="3">
         <v>1053200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>362000</v>
+        <v>349600</v>
       </c>
       <c r="E49" s="3">
-        <v>331200</v>
+        <v>319900</v>
       </c>
       <c r="F49" s="3">
-        <v>287200</v>
+        <v>277400</v>
       </c>
       <c r="G49" s="3">
-        <v>293200</v>
+        <v>283100</v>
       </c>
       <c r="H49" s="3">
-        <v>283200</v>
+        <v>273500</v>
       </c>
       <c r="I49" s="3">
-        <v>200800</v>
+        <v>194000</v>
       </c>
       <c r="J49" s="3">
-        <v>204600</v>
+        <v>197600</v>
       </c>
       <c r="K49" s="3">
         <v>191900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46600</v>
+        <v>45000</v>
       </c>
       <c r="E52" s="3">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="F52" s="3">
-        <v>69600</v>
+        <v>67300</v>
       </c>
       <c r="G52" s="3">
-        <v>74700</v>
+        <v>72200</v>
       </c>
       <c r="H52" s="3">
-        <v>51400</v>
+        <v>49700</v>
       </c>
       <c r="I52" s="3">
-        <v>54200</v>
+        <v>52300</v>
       </c>
       <c r="J52" s="3">
-        <v>42800</v>
+        <v>41300</v>
       </c>
       <c r="K52" s="3">
         <v>44500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4206200</v>
+        <v>4062400</v>
       </c>
       <c r="E54" s="3">
-        <v>3330700</v>
+        <v>3216800</v>
       </c>
       <c r="F54" s="3">
-        <v>2954600</v>
+        <v>2853600</v>
       </c>
       <c r="G54" s="3">
-        <v>2753800</v>
+        <v>2659700</v>
       </c>
       <c r="H54" s="3">
-        <v>2814900</v>
+        <v>2718600</v>
       </c>
       <c r="I54" s="3">
-        <v>2312200</v>
+        <v>2233100</v>
       </c>
       <c r="J54" s="3">
-        <v>2190300</v>
+        <v>2115400</v>
       </c>
       <c r="K54" s="3">
         <v>2044500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>492100</v>
+        <v>475300</v>
       </c>
       <c r="E57" s="3">
-        <v>513500</v>
+        <v>495900</v>
       </c>
       <c r="F57" s="3">
-        <v>299800</v>
+        <v>289500</v>
       </c>
       <c r="G57" s="3">
-        <v>290900</v>
+        <v>280900</v>
       </c>
       <c r="H57" s="3">
-        <v>289400</v>
+        <v>279500</v>
       </c>
       <c r="I57" s="3">
-        <v>262500</v>
+        <v>253500</v>
       </c>
       <c r="J57" s="3">
-        <v>549800</v>
+        <v>531000</v>
       </c>
       <c r="K57" s="3">
         <v>255100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>219600</v>
+        <v>212100</v>
       </c>
       <c r="E58" s="3">
-        <v>121100</v>
+        <v>117000</v>
       </c>
       <c r="F58" s="3">
-        <v>77900</v>
+        <v>75200</v>
       </c>
       <c r="G58" s="3">
-        <v>81200</v>
+        <v>78400</v>
       </c>
       <c r="H58" s="3">
-        <v>70800</v>
+        <v>68400</v>
       </c>
       <c r="I58" s="3">
-        <v>53900</v>
+        <v>52000</v>
       </c>
       <c r="J58" s="3">
-        <v>67500</v>
+        <v>65200</v>
       </c>
       <c r="K58" s="3">
         <v>48900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>221000</v>
+        <v>213400</v>
       </c>
       <c r="E59" s="3">
-        <v>279300</v>
+        <v>269800</v>
       </c>
       <c r="F59" s="3">
-        <v>232500</v>
+        <v>224600</v>
       </c>
       <c r="G59" s="3">
-        <v>193300</v>
+        <v>186700</v>
       </c>
       <c r="H59" s="3">
-        <v>395300</v>
+        <v>381800</v>
       </c>
       <c r="I59" s="3">
-        <v>232100</v>
+        <v>224200</v>
       </c>
       <c r="J59" s="3">
-        <v>204100</v>
+        <v>197200</v>
       </c>
       <c r="K59" s="3">
         <v>131300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>932700</v>
+        <v>900800</v>
       </c>
       <c r="E60" s="3">
-        <v>913900</v>
+        <v>882700</v>
       </c>
       <c r="F60" s="3">
-        <v>610200</v>
+        <v>589300</v>
       </c>
       <c r="G60" s="3">
-        <v>565400</v>
+        <v>546100</v>
       </c>
       <c r="H60" s="3">
-        <v>755500</v>
+        <v>729700</v>
       </c>
       <c r="I60" s="3">
-        <v>548400</v>
+        <v>529700</v>
       </c>
       <c r="J60" s="3">
-        <v>517600</v>
+        <v>499900</v>
       </c>
       <c r="K60" s="3">
         <v>435300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1401500</v>
+        <v>1353500</v>
       </c>
       <c r="E61" s="3">
-        <v>565400</v>
+        <v>546100</v>
       </c>
       <c r="F61" s="3">
-        <v>514900</v>
+        <v>497300</v>
       </c>
       <c r="G61" s="3">
-        <v>306300</v>
+        <v>295800</v>
       </c>
       <c r="H61" s="3">
-        <v>266800</v>
+        <v>257700</v>
       </c>
       <c r="I61" s="3">
-        <v>188400</v>
+        <v>181900</v>
       </c>
       <c r="J61" s="3">
-        <v>138000</v>
+        <v>133300</v>
       </c>
       <c r="K61" s="3">
         <v>153400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>192000</v>
+        <v>185500</v>
       </c>
       <c r="E62" s="3">
-        <v>183500</v>
+        <v>177300</v>
       </c>
       <c r="F62" s="3">
-        <v>181300</v>
+        <v>175100</v>
       </c>
       <c r="G62" s="3">
-        <v>193900</v>
+        <v>187300</v>
       </c>
       <c r="H62" s="3">
-        <v>167300</v>
+        <v>161600</v>
       </c>
       <c r="I62" s="3">
-        <v>140000</v>
+        <v>135200</v>
       </c>
       <c r="J62" s="3">
-        <v>129900</v>
+        <v>125500</v>
       </c>
       <c r="K62" s="3">
         <v>125800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2667700</v>
+        <v>2576500</v>
       </c>
       <c r="E66" s="3">
-        <v>1800800</v>
+        <v>1739200</v>
       </c>
       <c r="F66" s="3">
-        <v>1437700</v>
+        <v>1388500</v>
       </c>
       <c r="G66" s="3">
-        <v>1200000</v>
+        <v>1159000</v>
       </c>
       <c r="H66" s="3">
-        <v>1317100</v>
+        <v>1272100</v>
       </c>
       <c r="I66" s="3">
-        <v>1023900</v>
+        <v>988900</v>
       </c>
       <c r="J66" s="3">
-        <v>929800</v>
+        <v>898000</v>
       </c>
       <c r="K66" s="3">
         <v>859700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>932000</v>
+        <v>900100</v>
       </c>
       <c r="E72" s="3">
-        <v>926100</v>
+        <v>894500</v>
       </c>
       <c r="F72" s="3">
-        <v>1034900</v>
+        <v>999600</v>
       </c>
       <c r="G72" s="3">
-        <v>1014300</v>
+        <v>979700</v>
       </c>
       <c r="H72" s="3">
-        <v>977400</v>
+        <v>944000</v>
       </c>
       <c r="I72" s="3">
-        <v>601200</v>
+        <v>580600</v>
       </c>
       <c r="J72" s="3">
-        <v>743100</v>
+        <v>717700</v>
       </c>
       <c r="K72" s="3">
         <v>661400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1538600</v>
+        <v>1486000</v>
       </c>
       <c r="E76" s="3">
-        <v>1529900</v>
+        <v>1477600</v>
       </c>
       <c r="F76" s="3">
-        <v>1517000</v>
+        <v>1465100</v>
       </c>
       <c r="G76" s="3">
-        <v>1553800</v>
+        <v>1500700</v>
       </c>
       <c r="H76" s="3">
-        <v>1497700</v>
+        <v>1446500</v>
       </c>
       <c r="I76" s="3">
-        <v>1288300</v>
+        <v>1244200</v>
       </c>
       <c r="J76" s="3">
-        <v>1260400</v>
+        <v>1217300</v>
       </c>
       <c r="K76" s="3">
         <v>1184800</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>138300</v>
+        <v>133500</v>
       </c>
       <c r="E81" s="3">
-        <v>233000</v>
+        <v>225100</v>
       </c>
       <c r="F81" s="3">
-        <v>112500</v>
+        <v>108700</v>
       </c>
       <c r="G81" s="3">
-        <v>152300</v>
+        <v>147100</v>
       </c>
       <c r="H81" s="3">
-        <v>359100</v>
+        <v>346800</v>
       </c>
       <c r="I81" s="3">
-        <v>151600</v>
+        <v>146500</v>
       </c>
       <c r="J81" s="3">
-        <v>138600</v>
+        <v>133900</v>
       </c>
       <c r="K81" s="3">
         <v>135300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>53700</v>
+        <v>51900</v>
       </c>
       <c r="E89" s="3">
-        <v>343200</v>
+        <v>331500</v>
       </c>
       <c r="F89" s="3">
-        <v>328400</v>
+        <v>317200</v>
       </c>
       <c r="G89" s="3">
-        <v>283500</v>
+        <v>273800</v>
       </c>
       <c r="H89" s="3">
-        <v>502300</v>
+        <v>485100</v>
       </c>
       <c r="I89" s="3">
-        <v>306700</v>
+        <v>296200</v>
       </c>
       <c r="J89" s="3">
-        <v>222300</v>
+        <v>214700</v>
       </c>
       <c r="K89" s="3">
         <v>245900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-220700</v>
+        <v>-213200</v>
       </c>
       <c r="E91" s="3">
-        <v>-198500</v>
+        <v>-191700</v>
       </c>
       <c r="F91" s="3">
-        <v>-136900</v>
+        <v>-132200</v>
       </c>
       <c r="G91" s="3">
-        <v>-157600</v>
+        <v>-152200</v>
       </c>
       <c r="H91" s="3">
-        <v>-150200</v>
+        <v>-145100</v>
       </c>
       <c r="I91" s="3">
-        <v>-144500</v>
+        <v>-139600</v>
       </c>
       <c r="J91" s="3">
-        <v>-147100</v>
+        <v>-142000</v>
       </c>
       <c r="K91" s="3">
         <v>-145200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-276700</v>
+        <v>-267200</v>
       </c>
       <c r="E94" s="3">
-        <v>-209400</v>
+        <v>-202300</v>
       </c>
       <c r="F94" s="3">
-        <v>-164400</v>
+        <v>-158800</v>
       </c>
       <c r="G94" s="3">
-        <v>-168700</v>
+        <v>-162900</v>
       </c>
       <c r="H94" s="3">
-        <v>-232800</v>
+        <v>-224900</v>
       </c>
       <c r="I94" s="3">
-        <v>-203100</v>
+        <v>-196200</v>
       </c>
       <c r="J94" s="3">
-        <v>-181400</v>
+        <v>-175200</v>
       </c>
       <c r="K94" s="3">
         <v>-185700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-185200</v>
+        <v>-178900</v>
       </c>
       <c r="E96" s="3">
-        <v>-320700</v>
+        <v>-309800</v>
       </c>
       <c r="F96" s="3">
-        <v>-119500</v>
+        <v>-115400</v>
       </c>
       <c r="G96" s="3">
-        <v>-255100</v>
+        <v>-246400</v>
       </c>
       <c r="H96" s="3">
-        <v>-87500</v>
+        <v>-84600</v>
       </c>
       <c r="I96" s="3">
-        <v>-87900</v>
+        <v>-84900</v>
       </c>
       <c r="J96" s="3">
-        <v>-81700</v>
+        <v>-78900</v>
       </c>
       <c r="K96" s="3">
         <v>-74100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>628400</v>
+        <v>606900</v>
       </c>
       <c r="E100" s="3">
-        <v>-273400</v>
+        <v>-264000</v>
       </c>
       <c r="F100" s="3">
-        <v>75800</v>
+        <v>73200</v>
       </c>
       <c r="G100" s="3">
-        <v>-233300</v>
+        <v>-225300</v>
       </c>
       <c r="H100" s="3">
-        <v>-62000</v>
+        <v>-59800</v>
       </c>
       <c r="I100" s="3">
-        <v>-62000</v>
+        <v>-59900</v>
       </c>
       <c r="J100" s="3">
-        <v>-111200</v>
+        <v>-107400</v>
       </c>
       <c r="K100" s="3">
         <v>-92800</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="E101" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="F101" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="G101" s="3">
-        <v>-25000</v>
+        <v>-24100</v>
       </c>
       <c r="H101" s="3">
-        <v>-33200</v>
+        <v>-32100</v>
       </c>
       <c r="I101" s="3">
         <v>500</v>
       </c>
       <c r="J101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K101" s="3">
         <v>7700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>387900</v>
+        <v>374600</v>
       </c>
       <c r="E102" s="3">
-        <v>-153100</v>
+        <v>-147800</v>
       </c>
       <c r="F102" s="3">
-        <v>234000</v>
+        <v>226000</v>
       </c>
       <c r="G102" s="3">
-        <v>-143500</v>
+        <v>-138600</v>
       </c>
       <c r="H102" s="3">
-        <v>174300</v>
+        <v>168300</v>
       </c>
       <c r="I102" s="3">
-        <v>42100</v>
+        <v>40700</v>
       </c>
       <c r="J102" s="3">
-        <v>-68500</v>
+        <v>-66100</v>
       </c>
       <c r="K102" s="3">
         <v>-24900</v>
